--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897181457261189</v>
+        <v>0.9897181457261187</v>
       </c>
       <c r="D2">
         <v>1.009457904611792</v>
       </c>
       <c r="E2">
-        <v>0.9956767559131295</v>
+        <v>0.9956767559131294</v>
       </c>
       <c r="F2">
-        <v>0.989404789483884</v>
+        <v>0.9894047894838837</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.012210795448405</v>
       </c>
       <c r="K2">
-        <v>1.020787029770803</v>
+        <v>1.020787029770802</v>
       </c>
       <c r="L2">
-        <v>1.00719665080189</v>
+        <v>1.007196650801889</v>
       </c>
       <c r="M2">
-        <v>1.001013732957978</v>
+        <v>1.001013732957977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990615836857151</v>
+        <v>0.999061583685713</v>
       </c>
       <c r="D3">
-        <v>1.016942535267067</v>
+        <v>1.016942535267065</v>
       </c>
       <c r="E3">
-        <v>1.003992299733893</v>
+        <v>1.003992299733891</v>
       </c>
       <c r="F3">
-        <v>0.9996722327531797</v>
+        <v>0.9996722327531775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043809504496654</v>
+        <v>1.043809504496653</v>
       </c>
       <c r="J3">
-        <v>1.019577863608121</v>
+        <v>1.01957786360812</v>
       </c>
       <c r="K3">
-        <v>1.027363127305809</v>
+        <v>1.027363127305808</v>
       </c>
       <c r="L3">
-        <v>1.014574351932157</v>
+        <v>1.014574351932155</v>
       </c>
       <c r="M3">
-        <v>1.010309309140981</v>
+        <v>1.010309309140979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004869851211666</v>
+        <v>1.004869851211668</v>
       </c>
       <c r="D4">
-        <v>1.021597505013372</v>
+        <v>1.021597505013374</v>
       </c>
       <c r="E4">
-        <v>1.009162089616876</v>
+        <v>1.009162089616879</v>
       </c>
       <c r="F4">
-        <v>1.006060664451489</v>
+        <v>1.006060664451492</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046029746771716</v>
+        <v>1.046029746771717</v>
       </c>
       <c r="J4">
-        <v>1.024149800739219</v>
+        <v>1.024149800739222</v>
       </c>
       <c r="K4">
-        <v>1.031442072017237</v>
+        <v>1.03144207201724</v>
       </c>
       <c r="L4">
-        <v>1.019151179797723</v>
+        <v>1.019151179797726</v>
       </c>
       <c r="M4">
-        <v>1.016086488821715</v>
+        <v>1.016086488821718</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007258919175999</v>
+        <v>1.007258919175998</v>
       </c>
       <c r="D5">
-        <v>1.02351258726008</v>
+        <v>1.023512587260079</v>
       </c>
       <c r="E5">
-        <v>1.011288576084836</v>
+        <v>1.011288576084835</v>
       </c>
       <c r="F5">
-        <v>1.008689815688269</v>
+        <v>1.008689815688268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046938890209794</v>
+        <v>1.046938890209793</v>
       </c>
       <c r="J5">
-        <v>1.026028421134419</v>
+        <v>1.026028421134418</v>
       </c>
       <c r="K5">
-        <v>1.033117582398499</v>
+        <v>1.033117582398497</v>
       </c>
       <c r="L5">
-        <v>1.021031408402076</v>
+        <v>1.021031408402075</v>
       </c>
       <c r="M5">
-        <v>1.018462483128357</v>
+        <v>1.018462483128356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,7 +576,7 @@
         <v>1.00765707386842</v>
       </c>
       <c r="D6">
-        <v>1.02383176812244</v>
+        <v>1.023831768122439</v>
       </c>
       <c r="E6">
         <v>1.011642969773296</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047090162638582</v>
+        <v>1.047090162638581</v>
       </c>
       <c r="J6">
-        <v>1.026341391679482</v>
+        <v>1.026341391679481</v>
       </c>
       <c r="K6">
-        <v>1.033396683159999</v>
+        <v>1.033396683159998</v>
       </c>
       <c r="L6">
         <v>1.021344623484838</v>
       </c>
       <c r="M6">
-        <v>1.018858443046788</v>
+        <v>1.018858443046787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004901976116201</v>
+        <v>1.004901976116203</v>
       </c>
       <c r="D7">
-        <v>1.021623255034647</v>
+        <v>1.021623255034648</v>
       </c>
       <c r="E7">
-        <v>1.009190683636885</v>
+        <v>1.009190683636887</v>
       </c>
       <c r="F7">
-        <v>1.006096011837739</v>
+        <v>1.00609601183774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046041987994664</v>
+        <v>1.046041987994665</v>
       </c>
       <c r="J7">
-        <v>1.024175069528865</v>
+        <v>1.024175069528866</v>
       </c>
       <c r="K7">
-        <v>1.031464611003943</v>
+        <v>1.031464611003944</v>
       </c>
       <c r="L7">
-        <v>1.019176471800626</v>
+        <v>1.019176471800627</v>
       </c>
       <c r="M7">
-        <v>1.016118439024494</v>
+        <v>1.016118439024495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929276483415934</v>
+        <v>0.9929276483415957</v>
       </c>
       <c r="D8">
-        <v>1.012028338849802</v>
+        <v>1.012028338849804</v>
       </c>
       <c r="E8">
-        <v>0.9985330121862759</v>
+        <v>0.9985330121862783</v>
       </c>
       <c r="F8">
-        <v>0.9929305097237435</v>
+        <v>0.9929305097237459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041450585047991</v>
+        <v>1.041450585047992</v>
       </c>
       <c r="J8">
-        <v>1.014743012680105</v>
+        <v>1.014743012680107</v>
       </c>
       <c r="K8">
-        <v>1.02304780684093</v>
+        <v>1.023047806840932</v>
       </c>
       <c r="L8">
-        <v>1.009732891490482</v>
+        <v>1.009732891490484</v>
       </c>
       <c r="M8">
-        <v>1.004207101017505</v>
+        <v>1.004207101017508</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9697911517247133</v>
+        <v>0.9697911517247104</v>
       </c>
       <c r="D9">
-        <v>0.9935153545364726</v>
+        <v>0.99351535453647</v>
       </c>
       <c r="E9">
-        <v>0.9779493142196247</v>
+        <v>0.9779493142196224</v>
       </c>
       <c r="F9">
-        <v>0.9675365839402942</v>
+        <v>0.9675365839402918</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032443457682001</v>
+        <v>1.032443457681999</v>
       </c>
       <c r="J9">
-        <v>0.9964576922796753</v>
+        <v>0.9964576922796725</v>
       </c>
       <c r="K9">
-        <v>1.006714524107302</v>
+        <v>1.0067145241073</v>
       </c>
       <c r="L9">
-        <v>0.9914105752426515</v>
+        <v>0.9914105752426492</v>
       </c>
       <c r="M9">
-        <v>0.9811792727495404</v>
+        <v>0.981179272749538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526334182196146</v>
+        <v>0.952633418219616</v>
       </c>
       <c r="D10">
-        <v>0.979817229193424</v>
+        <v>0.9798172291934253</v>
       </c>
       <c r="E10">
-        <v>0.9626986401536963</v>
+        <v>0.9626986401536974</v>
       </c>
       <c r="F10">
-        <v>0.948728569152713</v>
+        <v>0.9487285691527142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025676032271683</v>
+        <v>1.025676032271684</v>
       </c>
       <c r="J10">
-        <v>0.9828610816042721</v>
+        <v>0.9828610816042735</v>
       </c>
       <c r="K10">
-        <v>0.994560708901101</v>
+        <v>0.9945607089011023</v>
       </c>
       <c r="L10">
-        <v>0.9777757048999977</v>
+        <v>0.9777757048999989</v>
       </c>
       <c r="M10">
-        <v>0.9640896495324416</v>
+        <v>0.964089649532443</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9446876318012754</v>
+        <v>0.9446876318012732</v>
       </c>
       <c r="D11">
-        <v>0.9734845452738209</v>
+        <v>0.973484545273819</v>
       </c>
       <c r="E11">
-        <v>0.955641589478072</v>
+        <v>0.95564158947807</v>
       </c>
       <c r="F11">
-        <v>0.9400222180262263</v>
+        <v>0.9400222180262242</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.022522618453274</v>
       </c>
       <c r="J11">
-        <v>0.9765573255876722</v>
+        <v>0.9765573255876701</v>
       </c>
       <c r="K11">
-        <v>0.9889244479574475</v>
+        <v>0.9889244479574456</v>
       </c>
       <c r="L11">
-        <v>0.9714514971790797</v>
+        <v>0.971451497179078</v>
       </c>
       <c r="M11">
-        <v>0.9561713744857619</v>
+        <v>0.95617137448576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9416472876885478</v>
+        <v>0.9416472876885476</v>
       </c>
       <c r="D12">
         <v>0.9710634496071354</v>
       </c>
       <c r="E12">
-        <v>0.9529423827512585</v>
+        <v>0.9529423827512586</v>
       </c>
       <c r="F12">
-        <v>0.9366911875910126</v>
+        <v>0.9366911875910123</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1.021313250257789</v>
       </c>
       <c r="J12">
-        <v>0.9741443721267922</v>
+        <v>0.9741443721267919</v>
       </c>
       <c r="K12">
         <v>0.9867668497845444</v>
@@ -828,7 +828,7 @@
         <v>0.969030294347626</v>
       </c>
       <c r="M12">
-        <v>0.9531408341427384</v>
+        <v>0.9531408341427383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423036852196898</v>
+        <v>0.9423036852196891</v>
       </c>
       <c r="D13">
-        <v>0.9715860564417078</v>
+        <v>0.9715860564417075</v>
       </c>
       <c r="E13">
-        <v>0.9535250774077769</v>
+        <v>0.9535250774077765</v>
       </c>
       <c r="F13">
-        <v>0.9374103321783939</v>
+        <v>0.937410332178393</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021574469240058</v>
       </c>
       <c r="J13">
-        <v>0.9746653566786959</v>
+        <v>0.9746653566786954</v>
       </c>
       <c r="K13">
-        <v>0.9872327057196659</v>
+        <v>0.9872327057196655</v>
       </c>
       <c r="L13">
-        <v>0.9695530792050769</v>
+        <v>0.9695530792050765</v>
       </c>
       <c r="M13">
-        <v>0.9537951498452304</v>
+        <v>0.9537951498452295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9444382045188734</v>
+        <v>0.9444382045188722</v>
       </c>
       <c r="D14">
-        <v>0.9732858774930528</v>
+        <v>0.973285877493052</v>
       </c>
       <c r="E14">
-        <v>0.9554201255738261</v>
+        <v>0.9554201255738248</v>
       </c>
       <c r="F14">
-        <v>0.9397489378035742</v>
+        <v>0.9397489378035728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022423457633059</v>
+        <v>1.022423457633058</v>
       </c>
       <c r="J14">
-        <v>0.9763593862381783</v>
+        <v>0.9763593862381772</v>
       </c>
       <c r="K14">
-        <v>0.9887474585009236</v>
+        <v>0.9887474585009225</v>
       </c>
       <c r="L14">
-        <v>0.9712528896946926</v>
+        <v>0.9712528896946913</v>
       </c>
       <c r="M14">
-        <v>0.9559227668781317</v>
+        <v>0.9559227668781305</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457411875984006</v>
+        <v>0.9457411875983998</v>
       </c>
       <c r="D15">
-        <v>0.9743237820147773</v>
+        <v>0.9743237820147762</v>
       </c>
       <c r="E15">
-        <v>0.9565770757925995</v>
+        <v>0.9565770757925989</v>
       </c>
       <c r="F15">
-        <v>0.9411765382834986</v>
+        <v>0.9411765382834979</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022941353206599</v>
       </c>
       <c r="J15">
-        <v>0.9773933657805334</v>
+        <v>0.9773933657805327</v>
       </c>
       <c r="K15">
-        <v>0.9896719960881512</v>
+        <v>0.9896719960881505</v>
       </c>
       <c r="L15">
-        <v>0.9722903422844663</v>
+        <v>0.9722903422844659</v>
       </c>
       <c r="M15">
-        <v>0.9572214380392771</v>
+        <v>0.9572214380392764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9531489599478931</v>
+        <v>0.9531489599478953</v>
       </c>
       <c r="D16">
-        <v>0.9802283628258289</v>
+        <v>0.9802283628258307</v>
       </c>
       <c r="E16">
-        <v>0.963156651519491</v>
+        <v>0.9631566515194936</v>
       </c>
       <c r="F16">
-        <v>0.9492935164491595</v>
+        <v>0.949293516449162</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.025880248220204</v>
       </c>
       <c r="J16">
-        <v>0.9832699511244368</v>
+        <v>0.983269951124439</v>
       </c>
       <c r="K16">
-        <v>0.9949262598956738</v>
+        <v>0.9949262598956758</v>
       </c>
       <c r="L16">
-        <v>0.9781858442744547</v>
+        <v>0.9781858442744568</v>
       </c>
       <c r="M16">
-        <v>0.964603314506852</v>
+        <v>0.9646033145068544</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576501237103988</v>
+        <v>0.9576501237103967</v>
       </c>
       <c r="D17">
-        <v>0.9838192029077775</v>
+        <v>0.9838192029077758</v>
       </c>
       <c r="E17">
-        <v>0.9671561652420767</v>
+        <v>0.9671561652420747</v>
       </c>
       <c r="F17">
-        <v>0.9542264271770533</v>
+        <v>0.9542264271770511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027661099611378</v>
+        <v>1.027661099611377</v>
       </c>
       <c r="J17">
-        <v>0.9868389875963884</v>
+        <v>0.9868389875963864</v>
       </c>
       <c r="K17">
-        <v>0.9981170156069702</v>
+        <v>0.9981170156069685</v>
       </c>
       <c r="L17">
-        <v>0.981765661643981</v>
+        <v>0.981765661643979</v>
       </c>
       <c r="M17">
-        <v>0.9690876324882948</v>
+        <v>0.9690876324882928</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602266329352693</v>
+        <v>0.9602266329352689</v>
       </c>
       <c r="D18">
         <v>0.9858756217602589</v>
       </c>
       <c r="E18">
-        <v>0.9694460241107133</v>
+        <v>0.9694460241107132</v>
       </c>
       <c r="F18">
-        <v>0.9570504300299977</v>
+        <v>0.9570504300299976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028678667717297</v>
+        <v>1.028678667717298</v>
       </c>
       <c r="J18">
-        <v>0.988881265821086</v>
+        <v>0.9888812658210859</v>
       </c>
       <c r="K18">
         <v>0.999942697189645</v>
@@ -1056,7 +1056,7 @@
         <v>0.983813858603872</v>
       </c>
       <c r="M18">
-        <v>0.9716541343862126</v>
+        <v>0.9716541343862128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9610971611123617</v>
+        <v>0.9610971611123624</v>
       </c>
       <c r="D19">
-        <v>0.9865705841005019</v>
+        <v>0.9865705841005024</v>
       </c>
       <c r="E19">
-        <v>0.970219779808375</v>
+        <v>0.9702197798083759</v>
       </c>
       <c r="F19">
-        <v>0.9580046454450238</v>
+        <v>0.9580046454450249</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029022163741004</v>
       </c>
       <c r="J19">
-        <v>0.989571174417649</v>
+        <v>0.9895711744176495</v>
       </c>
       <c r="K19">
         <v>1.000559411695833</v>
       </c>
       <c r="L19">
-        <v>0.9845057245440758</v>
+        <v>0.9845057245440767</v>
       </c>
       <c r="M19">
-        <v>0.9725212225193403</v>
+        <v>0.9725212225193416</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9571723282880095</v>
+        <v>0.9571723282880105</v>
       </c>
       <c r="D20">
-        <v>0.9834379324260897</v>
+        <v>0.9834379324260903</v>
       </c>
       <c r="E20">
-        <v>0.966731566125124</v>
+        <v>0.9667315661251252</v>
       </c>
       <c r="F20">
-        <v>0.9537027662436631</v>
+        <v>0.9537027662436635</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027472250845801</v>
       </c>
       <c r="J20">
-        <v>0.9864602058548338</v>
+        <v>0.9864602058548346</v>
       </c>
       <c r="K20">
-        <v>0.9977783945780377</v>
+        <v>0.9977783945780384</v>
       </c>
       <c r="L20">
-        <v>0.9813857619000105</v>
+        <v>0.9813857619000111</v>
       </c>
       <c r="M20">
-        <v>0.9686116639582315</v>
+        <v>0.9686116639582322</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9438122000934038</v>
+        <v>0.9438122000934017</v>
       </c>
       <c r="D21">
-        <v>0.9727873013278555</v>
+        <v>0.9727873013278534</v>
       </c>
       <c r="E21">
-        <v>0.9548643208464421</v>
+        <v>0.9548643208464399</v>
       </c>
       <c r="F21">
-        <v>0.9390630725477978</v>
+        <v>0.9390630725477953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02217454340668</v>
+        <v>1.022174543406679</v>
       </c>
       <c r="J21">
-        <v>0.9758625905677325</v>
+        <v>0.9758625905677304</v>
       </c>
       <c r="K21">
-        <v>0.9883032415208411</v>
+        <v>0.988303241520839</v>
       </c>
       <c r="L21">
-        <v>0.9707544103219121</v>
+        <v>0.97075441032191</v>
       </c>
       <c r="M21">
-        <v>0.9552988076028983</v>
+        <v>0.955298807602896</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9348900741567111</v>
+        <v>0.9348900741567142</v>
       </c>
       <c r="D22">
-        <v>0.9656867438197073</v>
+        <v>0.9656867438197102</v>
       </c>
       <c r="E22">
-        <v>0.9469456553378175</v>
+        <v>0.9469456553378203</v>
       </c>
       <c r="F22">
-        <v>0.9292882399269667</v>
+        <v>0.9292882399269696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018620495332806</v>
+        <v>1.018620495332807</v>
       </c>
       <c r="J22">
-        <v>0.968780068610657</v>
+        <v>0.9687800686106599</v>
       </c>
       <c r="K22">
-        <v>0.9819700402222007</v>
+        <v>0.9819700402222034</v>
       </c>
       <c r="L22">
-        <v>0.9636468562092291</v>
+        <v>0.9636468562092317</v>
       </c>
       <c r="M22">
-        <v>0.9464039105555776</v>
+        <v>0.9464039105555806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9396738281419318</v>
+        <v>0.9396738281419325</v>
       </c>
       <c r="D23">
-        <v>0.9694925602570108</v>
+        <v>0.9694925602570115</v>
       </c>
       <c r="E23">
-        <v>0.9511906896647616</v>
+        <v>0.9511906896647621</v>
       </c>
       <c r="F23">
-        <v>0.9345291076669905</v>
+        <v>0.934529107666991</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020527504429841</v>
       </c>
       <c r="J23">
-        <v>0.9725779127869828</v>
+        <v>0.9725779127869834</v>
       </c>
       <c r="K23">
-        <v>0.9853661310763995</v>
+        <v>0.9853661310763999</v>
       </c>
       <c r="L23">
-        <v>0.9674583592457786</v>
+        <v>0.9674583592457791</v>
       </c>
       <c r="M23">
-        <v>0.9511735168351593</v>
+        <v>0.9511735168351597</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9573883738889414</v>
+        <v>0.9573883738889406</v>
       </c>
       <c r="D24">
-        <v>0.9836103291245023</v>
+        <v>0.9836103291245015</v>
       </c>
       <c r="E24">
-        <v>0.9669235563215655</v>
+        <v>0.9669235563215646</v>
       </c>
       <c r="F24">
-        <v>0.9539395498046248</v>
+        <v>0.9539395498046243</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02755764856946</v>
       </c>
       <c r="J24">
-        <v>0.9866314823706045</v>
+        <v>0.9866314823706038</v>
       </c>
       <c r="K24">
-        <v>0.9979315117596318</v>
+        <v>0.997931511759631</v>
       </c>
       <c r="L24">
-        <v>0.9815575447299308</v>
+        <v>0.9815575447299303</v>
       </c>
       <c r="M24">
-        <v>0.9688268846174592</v>
+        <v>0.9688268846174589</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760475038190282</v>
+        <v>0.9760475038190267</v>
       </c>
       <c r="D25">
-        <v>0.9985173003135627</v>
+        <v>0.9985173003135616</v>
       </c>
       <c r="E25">
-        <v>0.9835136512657221</v>
+        <v>0.9835136512657211</v>
       </c>
       <c r="F25">
-        <v>0.9743988618757569</v>
+        <v>0.9743988618757559</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03489419337788</v>
+        <v>1.034894193377879</v>
       </c>
       <c r="J25">
-        <v>1.00140875591598</v>
+        <v>1.001408755915978</v>
       </c>
       <c r="K25">
-        <v>1.011138676972736</v>
+        <v>1.011138676972735</v>
       </c>
       <c r="L25">
-        <v>0.9963734041178642</v>
+        <v>0.9963734041178632</v>
       </c>
       <c r="M25">
-        <v>0.9874080439374334</v>
+        <v>0.9874080439374322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897181457261187</v>
+        <v>0.9897181457261189</v>
       </c>
       <c r="D2">
         <v>1.009457904611792</v>
       </c>
       <c r="E2">
-        <v>0.9956767559131294</v>
+        <v>0.9956767559131295</v>
       </c>
       <c r="F2">
-        <v>0.9894047894838837</v>
+        <v>0.989404789483884</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.012210795448405</v>
       </c>
       <c r="K2">
-        <v>1.020787029770802</v>
+        <v>1.020787029770803</v>
       </c>
       <c r="L2">
-        <v>1.007196650801889</v>
+        <v>1.00719665080189</v>
       </c>
       <c r="M2">
-        <v>1.001013732957977</v>
+        <v>1.001013732957978</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.999061583685713</v>
+        <v>0.9990615836857151</v>
       </c>
       <c r="D3">
-        <v>1.016942535267065</v>
+        <v>1.016942535267067</v>
       </c>
       <c r="E3">
-        <v>1.003992299733891</v>
+        <v>1.003992299733893</v>
       </c>
       <c r="F3">
-        <v>0.9996722327531775</v>
+        <v>0.9996722327531797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043809504496653</v>
+        <v>1.043809504496654</v>
       </c>
       <c r="J3">
-        <v>1.01957786360812</v>
+        <v>1.019577863608121</v>
       </c>
       <c r="K3">
-        <v>1.027363127305808</v>
+        <v>1.027363127305809</v>
       </c>
       <c r="L3">
-        <v>1.014574351932155</v>
+        <v>1.014574351932157</v>
       </c>
       <c r="M3">
-        <v>1.010309309140979</v>
+        <v>1.010309309140981</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004869851211668</v>
+        <v>1.004869851211666</v>
       </c>
       <c r="D4">
-        <v>1.021597505013374</v>
+        <v>1.021597505013372</v>
       </c>
       <c r="E4">
-        <v>1.009162089616879</v>
+        <v>1.009162089616876</v>
       </c>
       <c r="F4">
-        <v>1.006060664451492</v>
+        <v>1.006060664451489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046029746771717</v>
+        <v>1.046029746771716</v>
       </c>
       <c r="J4">
-        <v>1.024149800739222</v>
+        <v>1.024149800739219</v>
       </c>
       <c r="K4">
-        <v>1.03144207201724</v>
+        <v>1.031442072017237</v>
       </c>
       <c r="L4">
-        <v>1.019151179797726</v>
+        <v>1.019151179797723</v>
       </c>
       <c r="M4">
-        <v>1.016086488821718</v>
+        <v>1.016086488821715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007258919175998</v>
+        <v>1.007258919175999</v>
       </c>
       <c r="D5">
-        <v>1.023512587260079</v>
+        <v>1.02351258726008</v>
       </c>
       <c r="E5">
-        <v>1.011288576084835</v>
+        <v>1.011288576084836</v>
       </c>
       <c r="F5">
-        <v>1.008689815688268</v>
+        <v>1.008689815688269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046938890209793</v>
+        <v>1.046938890209794</v>
       </c>
       <c r="J5">
-        <v>1.026028421134418</v>
+        <v>1.026028421134419</v>
       </c>
       <c r="K5">
-        <v>1.033117582398497</v>
+        <v>1.033117582398499</v>
       </c>
       <c r="L5">
-        <v>1.021031408402075</v>
+        <v>1.021031408402076</v>
       </c>
       <c r="M5">
-        <v>1.018462483128356</v>
+        <v>1.018462483128357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,7 +576,7 @@
         <v>1.00765707386842</v>
       </c>
       <c r="D6">
-        <v>1.023831768122439</v>
+        <v>1.02383176812244</v>
       </c>
       <c r="E6">
         <v>1.011642969773296</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047090162638581</v>
+        <v>1.047090162638582</v>
       </c>
       <c r="J6">
-        <v>1.026341391679481</v>
+        <v>1.026341391679482</v>
       </c>
       <c r="K6">
-        <v>1.033396683159998</v>
+        <v>1.033396683159999</v>
       </c>
       <c r="L6">
         <v>1.021344623484838</v>
       </c>
       <c r="M6">
-        <v>1.018858443046787</v>
+        <v>1.018858443046788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004901976116203</v>
+        <v>1.004901976116201</v>
       </c>
       <c r="D7">
-        <v>1.021623255034648</v>
+        <v>1.021623255034647</v>
       </c>
       <c r="E7">
-        <v>1.009190683636887</v>
+        <v>1.009190683636885</v>
       </c>
       <c r="F7">
-        <v>1.00609601183774</v>
+        <v>1.006096011837739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046041987994665</v>
+        <v>1.046041987994664</v>
       </c>
       <c r="J7">
-        <v>1.024175069528866</v>
+        <v>1.024175069528865</v>
       </c>
       <c r="K7">
-        <v>1.031464611003944</v>
+        <v>1.031464611003943</v>
       </c>
       <c r="L7">
-        <v>1.019176471800627</v>
+        <v>1.019176471800626</v>
       </c>
       <c r="M7">
-        <v>1.016118439024495</v>
+        <v>1.016118439024494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929276483415957</v>
+        <v>0.9929276483415934</v>
       </c>
       <c r="D8">
-        <v>1.012028338849804</v>
+        <v>1.012028338849802</v>
       </c>
       <c r="E8">
-        <v>0.9985330121862783</v>
+        <v>0.9985330121862759</v>
       </c>
       <c r="F8">
-        <v>0.9929305097237459</v>
+        <v>0.9929305097237435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041450585047992</v>
+        <v>1.041450585047991</v>
       </c>
       <c r="J8">
-        <v>1.014743012680107</v>
+        <v>1.014743012680105</v>
       </c>
       <c r="K8">
-        <v>1.023047806840932</v>
+        <v>1.02304780684093</v>
       </c>
       <c r="L8">
-        <v>1.009732891490484</v>
+        <v>1.009732891490482</v>
       </c>
       <c r="M8">
-        <v>1.004207101017508</v>
+        <v>1.004207101017505</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9697911517247104</v>
+        <v>0.9697911517247133</v>
       </c>
       <c r="D9">
-        <v>0.99351535453647</v>
+        <v>0.9935153545364726</v>
       </c>
       <c r="E9">
-        <v>0.9779493142196224</v>
+        <v>0.9779493142196247</v>
       </c>
       <c r="F9">
-        <v>0.9675365839402918</v>
+        <v>0.9675365839402942</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032443457681999</v>
+        <v>1.032443457682001</v>
       </c>
       <c r="J9">
-        <v>0.9964576922796725</v>
+        <v>0.9964576922796753</v>
       </c>
       <c r="K9">
-        <v>1.0067145241073</v>
+        <v>1.006714524107302</v>
       </c>
       <c r="L9">
-        <v>0.9914105752426492</v>
+        <v>0.9914105752426515</v>
       </c>
       <c r="M9">
-        <v>0.981179272749538</v>
+        <v>0.9811792727495404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.952633418219616</v>
+        <v>0.9526334182196146</v>
       </c>
       <c r="D10">
-        <v>0.9798172291934253</v>
+        <v>0.979817229193424</v>
       </c>
       <c r="E10">
-        <v>0.9626986401536974</v>
+        <v>0.9626986401536963</v>
       </c>
       <c r="F10">
-        <v>0.9487285691527142</v>
+        <v>0.948728569152713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025676032271684</v>
+        <v>1.025676032271683</v>
       </c>
       <c r="J10">
-        <v>0.9828610816042735</v>
+        <v>0.9828610816042721</v>
       </c>
       <c r="K10">
-        <v>0.9945607089011023</v>
+        <v>0.994560708901101</v>
       </c>
       <c r="L10">
-        <v>0.9777757048999989</v>
+        <v>0.9777757048999977</v>
       </c>
       <c r="M10">
-        <v>0.964089649532443</v>
+        <v>0.9640896495324416</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9446876318012732</v>
+        <v>0.9446876318012754</v>
       </c>
       <c r="D11">
-        <v>0.973484545273819</v>
+        <v>0.9734845452738209</v>
       </c>
       <c r="E11">
-        <v>0.95564158947807</v>
+        <v>0.955641589478072</v>
       </c>
       <c r="F11">
-        <v>0.9400222180262242</v>
+        <v>0.9400222180262263</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.022522618453274</v>
       </c>
       <c r="J11">
-        <v>0.9765573255876701</v>
+        <v>0.9765573255876722</v>
       </c>
       <c r="K11">
-        <v>0.9889244479574456</v>
+        <v>0.9889244479574475</v>
       </c>
       <c r="L11">
-        <v>0.971451497179078</v>
+        <v>0.9714514971790797</v>
       </c>
       <c r="M11">
-        <v>0.95617137448576</v>
+        <v>0.9561713744857619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9416472876885476</v>
+        <v>0.9416472876885478</v>
       </c>
       <c r="D12">
         <v>0.9710634496071354</v>
       </c>
       <c r="E12">
-        <v>0.9529423827512586</v>
+        <v>0.9529423827512585</v>
       </c>
       <c r="F12">
-        <v>0.9366911875910123</v>
+        <v>0.9366911875910126</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1.021313250257789</v>
       </c>
       <c r="J12">
-        <v>0.9741443721267919</v>
+        <v>0.9741443721267922</v>
       </c>
       <c r="K12">
         <v>0.9867668497845444</v>
@@ -828,7 +828,7 @@
         <v>0.969030294347626</v>
       </c>
       <c r="M12">
-        <v>0.9531408341427383</v>
+        <v>0.9531408341427384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423036852196891</v>
+        <v>0.9423036852196898</v>
       </c>
       <c r="D13">
-        <v>0.9715860564417075</v>
+        <v>0.9715860564417078</v>
       </c>
       <c r="E13">
-        <v>0.9535250774077765</v>
+        <v>0.9535250774077769</v>
       </c>
       <c r="F13">
-        <v>0.937410332178393</v>
+        <v>0.9374103321783939</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021574469240058</v>
       </c>
       <c r="J13">
-        <v>0.9746653566786954</v>
+        <v>0.9746653566786959</v>
       </c>
       <c r="K13">
-        <v>0.9872327057196655</v>
+        <v>0.9872327057196659</v>
       </c>
       <c r="L13">
-        <v>0.9695530792050765</v>
+        <v>0.9695530792050769</v>
       </c>
       <c r="M13">
-        <v>0.9537951498452295</v>
+        <v>0.9537951498452304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9444382045188722</v>
+        <v>0.9444382045188734</v>
       </c>
       <c r="D14">
-        <v>0.973285877493052</v>
+        <v>0.9732858774930528</v>
       </c>
       <c r="E14">
-        <v>0.9554201255738248</v>
+        <v>0.9554201255738261</v>
       </c>
       <c r="F14">
-        <v>0.9397489378035728</v>
+        <v>0.9397489378035742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022423457633058</v>
+        <v>1.022423457633059</v>
       </c>
       <c r="J14">
-        <v>0.9763593862381772</v>
+        <v>0.9763593862381783</v>
       </c>
       <c r="K14">
-        <v>0.9887474585009225</v>
+        <v>0.9887474585009236</v>
       </c>
       <c r="L14">
-        <v>0.9712528896946913</v>
+        <v>0.9712528896946926</v>
       </c>
       <c r="M14">
-        <v>0.9559227668781305</v>
+        <v>0.9559227668781317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457411875983998</v>
+        <v>0.9457411875984006</v>
       </c>
       <c r="D15">
-        <v>0.9743237820147762</v>
+        <v>0.9743237820147773</v>
       </c>
       <c r="E15">
-        <v>0.9565770757925989</v>
+        <v>0.9565770757925995</v>
       </c>
       <c r="F15">
-        <v>0.9411765382834979</v>
+        <v>0.9411765382834986</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022941353206599</v>
       </c>
       <c r="J15">
-        <v>0.9773933657805327</v>
+        <v>0.9773933657805334</v>
       </c>
       <c r="K15">
-        <v>0.9896719960881505</v>
+        <v>0.9896719960881512</v>
       </c>
       <c r="L15">
-        <v>0.9722903422844659</v>
+        <v>0.9722903422844663</v>
       </c>
       <c r="M15">
-        <v>0.9572214380392764</v>
+        <v>0.9572214380392771</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9531489599478953</v>
+        <v>0.9531489599478931</v>
       </c>
       <c r="D16">
-        <v>0.9802283628258307</v>
+        <v>0.9802283628258289</v>
       </c>
       <c r="E16">
-        <v>0.9631566515194936</v>
+        <v>0.963156651519491</v>
       </c>
       <c r="F16">
-        <v>0.949293516449162</v>
+        <v>0.9492935164491595</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.025880248220204</v>
       </c>
       <c r="J16">
-        <v>0.983269951124439</v>
+        <v>0.9832699511244368</v>
       </c>
       <c r="K16">
-        <v>0.9949262598956758</v>
+        <v>0.9949262598956738</v>
       </c>
       <c r="L16">
-        <v>0.9781858442744568</v>
+        <v>0.9781858442744547</v>
       </c>
       <c r="M16">
-        <v>0.9646033145068544</v>
+        <v>0.964603314506852</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576501237103967</v>
+        <v>0.9576501237103988</v>
       </c>
       <c r="D17">
-        <v>0.9838192029077758</v>
+        <v>0.9838192029077775</v>
       </c>
       <c r="E17">
-        <v>0.9671561652420747</v>
+        <v>0.9671561652420767</v>
       </c>
       <c r="F17">
-        <v>0.9542264271770511</v>
+        <v>0.9542264271770533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027661099611377</v>
+        <v>1.027661099611378</v>
       </c>
       <c r="J17">
-        <v>0.9868389875963864</v>
+        <v>0.9868389875963884</v>
       </c>
       <c r="K17">
-        <v>0.9981170156069685</v>
+        <v>0.9981170156069702</v>
       </c>
       <c r="L17">
-        <v>0.981765661643979</v>
+        <v>0.981765661643981</v>
       </c>
       <c r="M17">
-        <v>0.9690876324882928</v>
+        <v>0.9690876324882948</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602266329352689</v>
+        <v>0.9602266329352693</v>
       </c>
       <c r="D18">
         <v>0.9858756217602589</v>
       </c>
       <c r="E18">
-        <v>0.9694460241107132</v>
+        <v>0.9694460241107133</v>
       </c>
       <c r="F18">
-        <v>0.9570504300299976</v>
+        <v>0.9570504300299977</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028678667717298</v>
+        <v>1.028678667717297</v>
       </c>
       <c r="J18">
-        <v>0.9888812658210859</v>
+        <v>0.988881265821086</v>
       </c>
       <c r="K18">
         <v>0.999942697189645</v>
@@ -1056,7 +1056,7 @@
         <v>0.983813858603872</v>
       </c>
       <c r="M18">
-        <v>0.9716541343862128</v>
+        <v>0.9716541343862126</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9610971611123624</v>
+        <v>0.9610971611123617</v>
       </c>
       <c r="D19">
-        <v>0.9865705841005024</v>
+        <v>0.9865705841005019</v>
       </c>
       <c r="E19">
-        <v>0.9702197798083759</v>
+        <v>0.970219779808375</v>
       </c>
       <c r="F19">
-        <v>0.9580046454450249</v>
+        <v>0.9580046454450238</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029022163741004</v>
       </c>
       <c r="J19">
-        <v>0.9895711744176495</v>
+        <v>0.989571174417649</v>
       </c>
       <c r="K19">
         <v>1.000559411695833</v>
       </c>
       <c r="L19">
-        <v>0.9845057245440767</v>
+        <v>0.9845057245440758</v>
       </c>
       <c r="M19">
-        <v>0.9725212225193416</v>
+        <v>0.9725212225193403</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9571723282880105</v>
+        <v>0.9571723282880095</v>
       </c>
       <c r="D20">
-        <v>0.9834379324260903</v>
+        <v>0.9834379324260897</v>
       </c>
       <c r="E20">
-        <v>0.9667315661251252</v>
+        <v>0.966731566125124</v>
       </c>
       <c r="F20">
-        <v>0.9537027662436635</v>
+        <v>0.9537027662436631</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027472250845801</v>
       </c>
       <c r="J20">
-        <v>0.9864602058548346</v>
+        <v>0.9864602058548338</v>
       </c>
       <c r="K20">
-        <v>0.9977783945780384</v>
+        <v>0.9977783945780377</v>
       </c>
       <c r="L20">
-        <v>0.9813857619000111</v>
+        <v>0.9813857619000105</v>
       </c>
       <c r="M20">
-        <v>0.9686116639582322</v>
+        <v>0.9686116639582315</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9438122000934017</v>
+        <v>0.9438122000934038</v>
       </c>
       <c r="D21">
-        <v>0.9727873013278534</v>
+        <v>0.9727873013278555</v>
       </c>
       <c r="E21">
-        <v>0.9548643208464399</v>
+        <v>0.9548643208464421</v>
       </c>
       <c r="F21">
-        <v>0.9390630725477953</v>
+        <v>0.9390630725477978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022174543406679</v>
+        <v>1.02217454340668</v>
       </c>
       <c r="J21">
-        <v>0.9758625905677304</v>
+        <v>0.9758625905677325</v>
       </c>
       <c r="K21">
-        <v>0.988303241520839</v>
+        <v>0.9883032415208411</v>
       </c>
       <c r="L21">
-        <v>0.97075441032191</v>
+        <v>0.9707544103219121</v>
       </c>
       <c r="M21">
-        <v>0.955298807602896</v>
+        <v>0.9552988076028983</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9348900741567142</v>
+        <v>0.9348900741567111</v>
       </c>
       <c r="D22">
-        <v>0.9656867438197102</v>
+        <v>0.9656867438197073</v>
       </c>
       <c r="E22">
-        <v>0.9469456553378203</v>
+        <v>0.9469456553378175</v>
       </c>
       <c r="F22">
-        <v>0.9292882399269696</v>
+        <v>0.9292882399269667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018620495332807</v>
+        <v>1.018620495332806</v>
       </c>
       <c r="J22">
-        <v>0.9687800686106599</v>
+        <v>0.968780068610657</v>
       </c>
       <c r="K22">
-        <v>0.9819700402222034</v>
+        <v>0.9819700402222007</v>
       </c>
       <c r="L22">
-        <v>0.9636468562092317</v>
+        <v>0.9636468562092291</v>
       </c>
       <c r="M22">
-        <v>0.9464039105555806</v>
+        <v>0.9464039105555776</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9396738281419325</v>
+        <v>0.9396738281419318</v>
       </c>
       <c r="D23">
-        <v>0.9694925602570115</v>
+        <v>0.9694925602570108</v>
       </c>
       <c r="E23">
-        <v>0.9511906896647621</v>
+        <v>0.9511906896647616</v>
       </c>
       <c r="F23">
-        <v>0.934529107666991</v>
+        <v>0.9345291076669905</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020527504429841</v>
       </c>
       <c r="J23">
-        <v>0.9725779127869834</v>
+        <v>0.9725779127869828</v>
       </c>
       <c r="K23">
-        <v>0.9853661310763999</v>
+        <v>0.9853661310763995</v>
       </c>
       <c r="L23">
-        <v>0.9674583592457791</v>
+        <v>0.9674583592457786</v>
       </c>
       <c r="M23">
-        <v>0.9511735168351597</v>
+        <v>0.9511735168351593</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9573883738889406</v>
+        <v>0.9573883738889414</v>
       </c>
       <c r="D24">
-        <v>0.9836103291245015</v>
+        <v>0.9836103291245023</v>
       </c>
       <c r="E24">
-        <v>0.9669235563215646</v>
+        <v>0.9669235563215655</v>
       </c>
       <c r="F24">
-        <v>0.9539395498046243</v>
+        <v>0.9539395498046248</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02755764856946</v>
       </c>
       <c r="J24">
-        <v>0.9866314823706038</v>
+        <v>0.9866314823706045</v>
       </c>
       <c r="K24">
-        <v>0.997931511759631</v>
+        <v>0.9979315117596318</v>
       </c>
       <c r="L24">
-        <v>0.9815575447299303</v>
+        <v>0.9815575447299308</v>
       </c>
       <c r="M24">
-        <v>0.9688268846174589</v>
+        <v>0.9688268846174592</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760475038190267</v>
+        <v>0.9760475038190282</v>
       </c>
       <c r="D25">
-        <v>0.9985173003135616</v>
+        <v>0.9985173003135627</v>
       </c>
       <c r="E25">
-        <v>0.9835136512657211</v>
+        <v>0.9835136512657221</v>
       </c>
       <c r="F25">
-        <v>0.9743988618757559</v>
+        <v>0.9743988618757569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034894193377879</v>
+        <v>1.03489419337788</v>
       </c>
       <c r="J25">
-        <v>1.001408755915978</v>
+        <v>1.00140875591598</v>
       </c>
       <c r="K25">
-        <v>1.011138676972735</v>
+        <v>1.011138676972736</v>
       </c>
       <c r="L25">
-        <v>0.9963734041178632</v>
+        <v>0.9963734041178642</v>
       </c>
       <c r="M25">
-        <v>0.9874080439374322</v>
+        <v>0.9874080439374334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897181457261189</v>
+        <v>0.9923349109682504</v>
       </c>
       <c r="D2">
-        <v>1.009457904611792</v>
+        <v>1.011601351664741</v>
       </c>
       <c r="E2">
-        <v>0.9956767559131295</v>
+        <v>0.9979424275689763</v>
       </c>
       <c r="F2">
-        <v>0.989404789483884</v>
+        <v>0.9917154387341764</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040210949003548</v>
+        <v>1.041410195975289</v>
       </c>
       <c r="J2">
-        <v>1.012210795448405</v>
+        <v>1.014747325815783</v>
       </c>
       <c r="K2">
-        <v>1.020787029770803</v>
+        <v>1.022901393089821</v>
       </c>
       <c r="L2">
-        <v>1.00719665080189</v>
+        <v>1.009430502268784</v>
       </c>
       <c r="M2">
-        <v>1.001013732957978</v>
+        <v>1.003291410138677</v>
+      </c>
+      <c r="N2">
+        <v>1.016188383411586</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990615836857151</v>
+        <v>1.001653023637511</v>
       </c>
       <c r="D3">
-        <v>1.016942535267067</v>
+        <v>1.019068040900215</v>
       </c>
       <c r="E3">
-        <v>1.003992299733893</v>
+        <v>1.00623705915104</v>
       </c>
       <c r="F3">
-        <v>0.9996722327531797</v>
+        <v>1.001953010173296</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043809504496654</v>
+        <v>1.045000404501101</v>
       </c>
       <c r="J3">
-        <v>1.019577863608121</v>
+        <v>1.022098726773215</v>
       </c>
       <c r="K3">
-        <v>1.027363127305809</v>
+        <v>1.029462620129966</v>
       </c>
       <c r="L3">
-        <v>1.014574351932157</v>
+        <v>1.016790752843841</v>
       </c>
       <c r="M3">
-        <v>1.010309309140981</v>
+        <v>1.012560962712918</v>
+      </c>
+      <c r="N3">
+        <v>1.023550224201595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004869851211666</v>
+        <v>1.007446854103393</v>
       </c>
       <c r="D4">
-        <v>1.021597505013372</v>
+        <v>1.023712837705079</v>
       </c>
       <c r="E4">
-        <v>1.009162089616876</v>
+        <v>1.011394976421717</v>
       </c>
       <c r="F4">
-        <v>1.006060664451489</v>
+        <v>1.00832427902459</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046029746771716</v>
+        <v>1.047216009547788</v>
       </c>
       <c r="J4">
-        <v>1.024149800739219</v>
+        <v>1.026661967972942</v>
       </c>
       <c r="K4">
-        <v>1.031442072017237</v>
+        <v>1.0335332516161</v>
       </c>
       <c r="L4">
-        <v>1.019151179797723</v>
+        <v>1.021357792279092</v>
       </c>
       <c r="M4">
-        <v>1.016086488821715</v>
+        <v>1.018323264886474</v>
+      </c>
+      <c r="N4">
+        <v>1.028119945727237</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007258919175999</v>
+        <v>1.009830265329261</v>
       </c>
       <c r="D5">
-        <v>1.02351258726008</v>
+        <v>1.025623947627621</v>
       </c>
       <c r="E5">
-        <v>1.011288576084836</v>
+        <v>1.013516823045596</v>
       </c>
       <c r="F5">
-        <v>1.008689815688269</v>
+        <v>1.010946672911585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046938890209794</v>
+        <v>1.048123365761096</v>
       </c>
       <c r="J5">
-        <v>1.026028421134419</v>
+        <v>1.028537237378131</v>
       </c>
       <c r="K5">
-        <v>1.033117582398499</v>
+        <v>1.035205544364368</v>
       </c>
       <c r="L5">
-        <v>1.021031408402076</v>
+        <v>1.023234224205256</v>
       </c>
       <c r="M5">
-        <v>1.018462483128357</v>
+        <v>1.020693419640043</v>
+      </c>
+      <c r="N5">
+        <v>1.029997878230078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00765707386842</v>
+        <v>1.01022749301668</v>
       </c>
       <c r="D6">
-        <v>1.02383176812244</v>
+        <v>1.025942478342947</v>
       </c>
       <c r="E6">
-        <v>1.011642969773296</v>
+        <v>1.013870457101485</v>
       </c>
       <c r="F6">
-        <v>1.009128068957786</v>
+        <v>1.011383816869226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047090162638582</v>
+        <v>1.048274347088055</v>
       </c>
       <c r="J6">
-        <v>1.026341391679482</v>
+        <v>1.028849662102209</v>
       </c>
       <c r="K6">
-        <v>1.033396683159999</v>
+        <v>1.035484120191747</v>
       </c>
       <c r="L6">
-        <v>1.021344623484838</v>
+        <v>1.023546819401595</v>
       </c>
       <c r="M6">
-        <v>1.018858443046788</v>
+        <v>1.021088421986488</v>
+      </c>
+      <c r="N6">
+        <v>1.0303107466331</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004901976116201</v>
+        <v>1.007478901865971</v>
       </c>
       <c r="D7">
-        <v>1.021623255034647</v>
+        <v>1.023738533499191</v>
       </c>
       <c r="E7">
-        <v>1.009190683636885</v>
+        <v>1.011423507117891</v>
       </c>
       <c r="F7">
-        <v>1.006096011837739</v>
+        <v>1.008359534392093</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046041987994664</v>
+        <v>1.047228226276773</v>
       </c>
       <c r="J7">
-        <v>1.024175069528865</v>
+        <v>1.026687190837179</v>
       </c>
       <c r="K7">
-        <v>1.031464611003943</v>
+        <v>1.033555746562426</v>
       </c>
       <c r="L7">
-        <v>1.019176471800626</v>
+        <v>1.021383032349216</v>
       </c>
       <c r="M7">
-        <v>1.016118439024494</v>
+        <v>1.018355135495723</v>
+      </c>
+      <c r="N7">
+        <v>1.028145204410835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929276483415934</v>
+        <v>0.995535415239687</v>
       </c>
       <c r="D8">
-        <v>1.012028338849802</v>
+        <v>1.014165399080613</v>
       </c>
       <c r="E8">
-        <v>0.9985330121862759</v>
+        <v>1.000791242782701</v>
       </c>
       <c r="F8">
-        <v>0.9929305097237435</v>
+        <v>0.9952305751011163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041450585047991</v>
+        <v>1.042646839386395</v>
       </c>
       <c r="J8">
-        <v>1.014743012680105</v>
+        <v>1.017273923060345</v>
       </c>
       <c r="K8">
-        <v>1.02304780684093</v>
+        <v>1.025156849746058</v>
       </c>
       <c r="L8">
-        <v>1.009732891490482</v>
+        <v>1.011960506838908</v>
       </c>
       <c r="M8">
-        <v>1.004207101017505</v>
+        <v>1.006475541227725</v>
+      </c>
+      <c r="N8">
+        <v>1.018718568714041</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9697911517247133</v>
+        <v>0.9724712637220648</v>
       </c>
       <c r="D9">
-        <v>0.9935153545364726</v>
+        <v>0.9957040274184333</v>
       </c>
       <c r="E9">
-        <v>0.9779493142196247</v>
+        <v>0.9802676044628724</v>
       </c>
       <c r="F9">
-        <v>0.9675365839402942</v>
+        <v>0.9699210634984732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032443457682001</v>
+        <v>1.033664376190584</v>
       </c>
       <c r="J9">
-        <v>0.9964576922796753</v>
+        <v>0.999035040275389</v>
       </c>
       <c r="K9">
-        <v>1.006714524107302</v>
+        <v>1.008867190444407</v>
       </c>
       <c r="L9">
-        <v>0.9914105752426515</v>
+        <v>0.9936891500948551</v>
       </c>
       <c r="M9">
-        <v>0.9811792727495404</v>
+        <v>0.9835217603284969</v>
+      </c>
+      <c r="N9">
+        <v>1.000453784623501</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526334182196146</v>
+        <v>0.9553795274108851</v>
       </c>
       <c r="D10">
-        <v>0.979817229193424</v>
+        <v>0.9820533286238922</v>
       </c>
       <c r="E10">
-        <v>0.9626986401536963</v>
+        <v>0.9650720236483767</v>
       </c>
       <c r="F10">
-        <v>0.948728569152713</v>
+        <v>0.9511891390011048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025676032271683</v>
+        <v>1.026920266877094</v>
       </c>
       <c r="J10">
-        <v>0.9828610816042721</v>
+        <v>0.9854825896289644</v>
       </c>
       <c r="K10">
-        <v>0.994560708901101</v>
+        <v>0.9967543565515966</v>
       </c>
       <c r="L10">
-        <v>0.9777757048999977</v>
+        <v>0.9801019103975217</v>
       </c>
       <c r="M10">
-        <v>0.9640896495324416</v>
+        <v>0.9664993964221892</v>
+      </c>
+      <c r="N10">
+        <v>0.9868820879426705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9446876318012754</v>
+        <v>0.9474683859074587</v>
       </c>
       <c r="D11">
-        <v>0.9734845452738209</v>
+        <v>0.9757456169765956</v>
       </c>
       <c r="E11">
-        <v>0.955641589478072</v>
+        <v>0.9580439599029288</v>
       </c>
       <c r="F11">
-        <v>0.9400222180262263</v>
+        <v>0.9425225180068524</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022522618453274</v>
+        <v>1.023779286175756</v>
       </c>
       <c r="J11">
-        <v>0.9765573255876722</v>
+        <v>0.9792024780216833</v>
       </c>
       <c r="K11">
-        <v>0.9889244479574475</v>
+        <v>0.9911399037254922</v>
       </c>
       <c r="L11">
-        <v>0.9714514971790797</v>
+        <v>0.9738029875263677</v>
       </c>
       <c r="M11">
-        <v>0.9561713744857619</v>
+        <v>0.9586163631727517</v>
+      </c>
+      <c r="N11">
+        <v>0.9805930578565684</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9416472876885478</v>
+        <v>0.9444420442485112</v>
       </c>
       <c r="D12">
-        <v>0.9710634496071354</v>
+        <v>0.9733346252426882</v>
       </c>
       <c r="E12">
-        <v>0.9529423827512585</v>
+        <v>0.9553564780870701</v>
       </c>
       <c r="F12">
-        <v>0.9366911875910126</v>
+        <v>0.9392075142574591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021313250257789</v>
+        <v>1.022574972135259</v>
       </c>
       <c r="J12">
-        <v>0.9741443721267922</v>
+        <v>0.9767991538512629</v>
       </c>
       <c r="K12">
-        <v>0.9867668497845444</v>
+        <v>0.9889911653937512</v>
       </c>
       <c r="L12">
-        <v>0.969030294347626</v>
+        <v>0.9713920472353567</v>
       </c>
       <c r="M12">
-        <v>0.9531408341427384</v>
+        <v>0.9556000573138191</v>
+      </c>
+      <c r="N12">
+        <v>0.9781863206901609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423036852196898</v>
+        <v>0.9450953825538585</v>
       </c>
       <c r="D13">
-        <v>0.9715860564417078</v>
+        <v>0.9738550241145912</v>
       </c>
       <c r="E13">
-        <v>0.9535250774077769</v>
+        <v>0.9559366107088856</v>
       </c>
       <c r="F13">
-        <v>0.9374103321783939</v>
+        <v>0.9399231587370845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021574469240058</v>
+        <v>1.022835085597089</v>
       </c>
       <c r="J13">
-        <v>0.9746653566786959</v>
+        <v>0.9773180312985804</v>
       </c>
       <c r="K13">
-        <v>0.9872327057196659</v>
+        <v>0.989455083586649</v>
       </c>
       <c r="L13">
-        <v>0.9695530792050769</v>
+        <v>0.9719125880112178</v>
       </c>
       <c r="M13">
-        <v>0.9537951498452304</v>
+        <v>0.9562512634945862</v>
+      </c>
+      <c r="N13">
+        <v>0.9787059350029694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9444382045188734</v>
+        <v>0.9472200914050396</v>
       </c>
       <c r="D14">
-        <v>0.9732858774930528</v>
+        <v>0.9755477663778603</v>
       </c>
       <c r="E14">
-        <v>0.9554201255738261</v>
+        <v>0.9578234443490583</v>
       </c>
       <c r="F14">
-        <v>0.9397489378035742</v>
+        <v>0.9422505349313193</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022423457633059</v>
+        <v>1.02368053365299</v>
       </c>
       <c r="J14">
-        <v>0.9763593862381783</v>
+        <v>0.9790053162010255</v>
       </c>
       <c r="K14">
-        <v>0.9887474585009236</v>
+        <v>0.9909636301043001</v>
       </c>
       <c r="L14">
-        <v>0.9712528896946926</v>
+        <v>0.9736052094060786</v>
       </c>
       <c r="M14">
-        <v>0.9559227668781317</v>
+        <v>0.9583689072939811</v>
+      </c>
+      <c r="N14">
+        <v>0.9803956160435101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457411875984006</v>
+        <v>0.948517188021256</v>
       </c>
       <c r="D15">
-        <v>0.9743237820147773</v>
+        <v>0.9765814248603253</v>
       </c>
       <c r="E15">
-        <v>0.9565770757925995</v>
+        <v>0.9589754668501096</v>
       </c>
       <c r="F15">
-        <v>0.9411765382834986</v>
+        <v>0.943671393596164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022941353206599</v>
+        <v>1.024196308668455</v>
       </c>
       <c r="J15">
-        <v>0.9773933657805334</v>
+        <v>0.9800352582391753</v>
       </c>
       <c r="K15">
-        <v>0.9896719960881512</v>
+        <v>0.9918844496844971</v>
       </c>
       <c r="L15">
-        <v>0.9722903422844663</v>
+        <v>0.9746383539380202</v>
       </c>
       <c r="M15">
-        <v>0.9572214380392771</v>
+        <v>0.95966159316472</v>
+      </c>
+      <c r="N15">
+        <v>0.98142702071749</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9531489599478931</v>
+        <v>0.9558929151484504</v>
       </c>
       <c r="D16">
-        <v>0.9802283628258289</v>
+        <v>0.9824629110815941</v>
       </c>
       <c r="E16">
-        <v>0.963156651519491</v>
+        <v>0.9655282340324415</v>
       </c>
       <c r="F16">
-        <v>0.9492935164491595</v>
+        <v>0.9517516120627777</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025880248220204</v>
+        <v>1.027123713576104</v>
       </c>
       <c r="J16">
-        <v>0.9832699511244368</v>
+        <v>0.985889998354055</v>
       </c>
       <c r="K16">
-        <v>0.9949262598956738</v>
+        <v>0.9971185574994896</v>
       </c>
       <c r="L16">
-        <v>0.9781858442744547</v>
+        <v>0.9805104832660317</v>
       </c>
       <c r="M16">
-        <v>0.964603314506852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9670108690630869</v>
+      </c>
+      <c r="N16">
+        <v>0.9872900752348811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9576501237103988</v>
+        <v>0.9603757390026326</v>
       </c>
       <c r="D17">
-        <v>0.9838192029077775</v>
+        <v>0.9860405517091849</v>
       </c>
       <c r="E17">
-        <v>0.9671561652420767</v>
+        <v>0.9695124203049763</v>
       </c>
       <c r="F17">
-        <v>0.9542264271770533</v>
+        <v>0.9566634340777612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027661099611378</v>
+        <v>1.028898035405072</v>
       </c>
       <c r="J17">
-        <v>0.9868389875963884</v>
+        <v>0.989446645569827</v>
       </c>
       <c r="K17">
-        <v>0.9981170156069702</v>
+        <v>1.000297849241841</v>
       </c>
       <c r="L17">
-        <v>0.981765661643981</v>
+        <v>0.9840769921753075</v>
       </c>
       <c r="M17">
-        <v>0.9690876324882948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9714765138759329</v>
+      </c>
+      <c r="N17">
+        <v>0.9908517732976528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602266329352693</v>
+        <v>0.9629421182861063</v>
       </c>
       <c r="D18">
-        <v>0.9858756217602589</v>
+        <v>0.988089686465929</v>
       </c>
       <c r="E18">
-        <v>0.9694460241107133</v>
+        <v>0.9717938188498783</v>
       </c>
       <c r="F18">
-        <v>0.9570504300299977</v>
+        <v>0.9594757703459419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028678667717297</v>
+        <v>1.029912013538467</v>
       </c>
       <c r="J18">
-        <v>0.988881265821086</v>
+        <v>0.9914821201591221</v>
       </c>
       <c r="K18">
-        <v>0.999942697189645</v>
+        <v>1.002117224009958</v>
       </c>
       <c r="L18">
-        <v>0.983813858603872</v>
+        <v>0.9861178623708013</v>
       </c>
       <c r="M18">
-        <v>0.9716541343862126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9740326960739268</v>
+      </c>
+      <c r="N18">
+        <v>0.9928901384943368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9610971611123617</v>
+        <v>0.963809282966187</v>
       </c>
       <c r="D19">
-        <v>0.9865705841005019</v>
+        <v>0.9887822313546696</v>
       </c>
       <c r="E19">
-        <v>0.970219779808375</v>
+        <v>0.972564766406585</v>
       </c>
       <c r="F19">
-        <v>0.9580046454450238</v>
+        <v>0.9604261089099468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029022163741004</v>
+        <v>1.030254320382453</v>
       </c>
       <c r="J19">
-        <v>0.989571174417649</v>
+        <v>0.9921697763286081</v>
       </c>
       <c r="K19">
-        <v>1.000559411695833</v>
+        <v>1.002731848684252</v>
       </c>
       <c r="L19">
-        <v>0.9845057245440758</v>
+        <v>0.9868072996333875</v>
       </c>
       <c r="M19">
-        <v>0.9725212225193403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9748963567260911</v>
+      </c>
+      <c r="N19">
+        <v>0.9935787712144587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9571723282880095</v>
+        <v>0.9598998511961147</v>
       </c>
       <c r="D20">
-        <v>0.9834379324260897</v>
+        <v>0.9856606534738982</v>
       </c>
       <c r="E20">
-        <v>0.966731566125124</v>
+        <v>0.9690894148663425</v>
       </c>
       <c r="F20">
-        <v>0.9537027662436631</v>
+        <v>0.9561419686093083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027472250845801</v>
+        <v>1.028709864056575</v>
       </c>
       <c r="J20">
-        <v>0.9864602058548338</v>
+        <v>0.9890691482985814</v>
       </c>
       <c r="K20">
-        <v>0.9977783945780377</v>
+        <v>0.9999604179583305</v>
       </c>
       <c r="L20">
-        <v>0.9813857619000105</v>
+        <v>0.9836984741550193</v>
       </c>
       <c r="M20">
-        <v>0.9686116639582315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9710024882225721</v>
+      </c>
+      <c r="N20">
+        <v>0.9904737399369823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9438122000934038</v>
+        <v>0.9465969424748297</v>
       </c>
       <c r="D21">
-        <v>0.9727873013278555</v>
+        <v>0.9750512503233952</v>
       </c>
       <c r="E21">
-        <v>0.9548643208464421</v>
+        <v>0.9572700303533082</v>
       </c>
       <c r="F21">
-        <v>0.9390630725477978</v>
+        <v>0.9415679390178494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02217454340668</v>
+        <v>1.023432649116572</v>
       </c>
       <c r="J21">
-        <v>0.9758625905677325</v>
+        <v>0.9785104816794056</v>
       </c>
       <c r="K21">
-        <v>0.9883032415208411</v>
+        <v>0.9905212183181691</v>
       </c>
       <c r="L21">
-        <v>0.9707544103219121</v>
+        <v>0.9731088213678639</v>
       </c>
       <c r="M21">
-        <v>0.9552988076028983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9577478511371718</v>
+      </c>
+      <c r="N21">
+        <v>0.9799000788001112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9348900741567111</v>
+        <v>0.9377175203281518</v>
       </c>
       <c r="D22">
-        <v>0.9656867438197073</v>
+        <v>0.9679815277938894</v>
       </c>
       <c r="E22">
-        <v>0.9469456553378175</v>
+        <v>0.9493871399549354</v>
       </c>
       <c r="F22">
-        <v>0.9292882399269667</v>
+        <v>0.9318419243462129</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018620495332806</v>
+        <v>1.019894071867644</v>
       </c>
       <c r="J22">
-        <v>0.968780068610657</v>
+        <v>0.9714574736960352</v>
       </c>
       <c r="K22">
-        <v>0.9819700402222007</v>
+        <v>0.9842151283208522</v>
       </c>
       <c r="L22">
-        <v>0.9636468562092291</v>
+        <v>0.9660326509375282</v>
       </c>
       <c r="M22">
-        <v>0.9464039105555776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9488963485894031</v>
+      </c>
+      <c r="N22">
+        <v>0.9728370547364134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9396738281419318</v>
+        <v>0.9424779042196145</v>
       </c>
       <c r="D23">
-        <v>0.9694925602570108</v>
+        <v>0.971770463709317</v>
       </c>
       <c r="E23">
-        <v>0.9511906896647616</v>
+        <v>0.9536125911951492</v>
       </c>
       <c r="F23">
-        <v>0.9345291076669905</v>
+        <v>0.9370560924726719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020527504429841</v>
+        <v>1.021792598405693</v>
       </c>
       <c r="J23">
-        <v>0.9725779127869828</v>
+        <v>0.9752391245376574</v>
       </c>
       <c r="K23">
-        <v>0.9853661310763995</v>
+        <v>0.9875963565848359</v>
       </c>
       <c r="L23">
-        <v>0.9674583592457786</v>
+        <v>0.9698269548481513</v>
       </c>
       <c r="M23">
-        <v>0.9511735168351593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9536422114605242</v>
+      </c>
+      <c r="N23">
+        <v>0.9766240759559923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9573883738889414</v>
+        <v>0.9601150330901039</v>
       </c>
       <c r="D24">
-        <v>0.9836103291245023</v>
+        <v>0.9858324288426676</v>
       </c>
       <c r="E24">
-        <v>0.9669235563215655</v>
+        <v>0.969280683478563</v>
       </c>
       <c r="F24">
-        <v>0.9539395498046248</v>
+        <v>0.9563777581926495</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02755764856946</v>
+        <v>1.028794955015168</v>
       </c>
       <c r="J24">
-        <v>0.9866314823706045</v>
+        <v>0.9892398431229763</v>
       </c>
       <c r="K24">
-        <v>0.9979315117596318</v>
+        <v>1.000112996381853</v>
       </c>
       <c r="L24">
-        <v>0.9815575447299308</v>
+        <v>0.9838696313089302</v>
       </c>
       <c r="M24">
-        <v>0.9688268846174592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9712168292279012</v>
+      </c>
+      <c r="N24">
+        <v>0.9906446771676066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760475038190282</v>
+        <v>0.9787062829303235</v>
       </c>
       <c r="D25">
-        <v>0.9985173003135627</v>
+        <v>1.000690700558645</v>
       </c>
       <c r="E25">
-        <v>0.9835136512657221</v>
+        <v>0.9858141839210615</v>
       </c>
       <c r="F25">
-        <v>0.9743988618757569</v>
+        <v>0.9767585889587042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03489419337788</v>
+        <v>1.036107715277482</v>
       </c>
       <c r="J25">
-        <v>1.00140875591598</v>
+        <v>1.003972147773007</v>
       </c>
       <c r="K25">
-        <v>1.011138676972736</v>
+        <v>1.013278303744714</v>
       </c>
       <c r="L25">
-        <v>0.9963734041178642</v>
+        <v>0.9986367818898086</v>
       </c>
       <c r="M25">
-        <v>0.9874080439374334</v>
+        <v>0.9897287410907774</v>
+      </c>
+      <c r="N25">
+        <v>1.00539790338006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923349109682504</v>
+        <v>0.9994803137923469</v>
       </c>
       <c r="D2">
-        <v>1.011601351664741</v>
+        <v>1.02149976397563</v>
       </c>
       <c r="E2">
-        <v>0.9979424275689763</v>
+        <v>1.005211091856845</v>
       </c>
       <c r="F2">
-        <v>0.9917154387341764</v>
+        <v>1.027429098050416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041410195975289</v>
+        <v>1.043933486826589</v>
       </c>
       <c r="J2">
-        <v>1.014747325815783</v>
+        <v>1.021676579703777</v>
       </c>
       <c r="K2">
-        <v>1.022901393089821</v>
+        <v>1.03266748335065</v>
       </c>
       <c r="L2">
-        <v>1.009430502268784</v>
+        <v>1.016598302171472</v>
       </c>
       <c r="M2">
-        <v>1.003291410138677</v>
+        <v>1.038519083390993</v>
       </c>
       <c r="N2">
-        <v>1.016188383411586</v>
+        <v>1.023127477634898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001653023637511</v>
+        <v>1.007697883488792</v>
       </c>
       <c r="D3">
-        <v>1.019068040900215</v>
+        <v>1.027864299344219</v>
       </c>
       <c r="E3">
-        <v>1.00623705915104</v>
+        <v>1.012108680790838</v>
       </c>
       <c r="F3">
-        <v>1.001953010173296</v>
+        <v>1.034273881863318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045000404501101</v>
+        <v>1.046367752646968</v>
       </c>
       <c r="J3">
-        <v>1.022098726773215</v>
+        <v>1.02798087373325</v>
       </c>
       <c r="K3">
-        <v>1.029462620129966</v>
+        <v>1.038152645237948</v>
       </c>
       <c r="L3">
-        <v>1.016790752843841</v>
+        <v>1.02258893809336</v>
       </c>
       <c r="M3">
-        <v>1.012560962712918</v>
+        <v>1.044486227817668</v>
       </c>
       <c r="N3">
-        <v>1.023550224201595</v>
+        <v>1.029440724485005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007446854103393</v>
+        <v>1.012845921752324</v>
       </c>
       <c r="D4">
-        <v>1.023712837705079</v>
+        <v>1.031854313508505</v>
       </c>
       <c r="E4">
-        <v>1.011394976421717</v>
+        <v>1.016435859560142</v>
       </c>
       <c r="F4">
-        <v>1.00832427902459</v>
+        <v>1.038568755478152</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047216009547788</v>
+        <v>1.047879914334107</v>
       </c>
       <c r="J4">
-        <v>1.026661967972942</v>
+        <v>1.03192663940879</v>
       </c>
       <c r="K4">
-        <v>1.0335332516161</v>
+        <v>1.041582904720756</v>
       </c>
       <c r="L4">
-        <v>1.021357792279092</v>
+        <v>1.026339884149996</v>
       </c>
       <c r="M4">
-        <v>1.018323264886474</v>
+        <v>1.04822294982478</v>
       </c>
       <c r="N4">
-        <v>1.028119945727237</v>
+        <v>1.033392093600391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009830265329261</v>
+        <v>1.014972086998203</v>
       </c>
       <c r="D5">
-        <v>1.025623947627621</v>
+        <v>1.03350274705207</v>
       </c>
       <c r="E5">
-        <v>1.013516823045596</v>
+        <v>1.01822434796893</v>
       </c>
       <c r="F5">
-        <v>1.010946672911585</v>
+        <v>1.040344039406731</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048123365761096</v>
+        <v>1.04850128596847</v>
       </c>
       <c r="J5">
-        <v>1.028537237378131</v>
+        <v>1.033555295486151</v>
       </c>
       <c r="K5">
-        <v>1.035205544364368</v>
+        <v>1.042998065426734</v>
       </c>
       <c r="L5">
-        <v>1.023234224205256</v>
+        <v>1.027888472638432</v>
       </c>
       <c r="M5">
-        <v>1.020693419640043</v>
+        <v>1.049765739280795</v>
       </c>
       <c r="N5">
-        <v>1.029997878230078</v>
+        <v>1.03502306255619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01022749301668</v>
+        <v>1.015326914290853</v>
       </c>
       <c r="D6">
-        <v>1.025942478342947</v>
+        <v>1.033777875260742</v>
       </c>
       <c r="E6">
-        <v>1.013870457101485</v>
+        <v>1.018522897540007</v>
       </c>
       <c r="F6">
-        <v>1.011383816869226</v>
+        <v>1.04064039209707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048274347088055</v>
+        <v>1.048604796160892</v>
       </c>
       <c r="J6">
-        <v>1.028849662102209</v>
+        <v>1.033827036362453</v>
       </c>
       <c r="K6">
-        <v>1.035484120191747</v>
+        <v>1.043234141558756</v>
       </c>
       <c r="L6">
-        <v>1.023546819401595</v>
+        <v>1.028146874287623</v>
       </c>
       <c r="M6">
-        <v>1.021088421986488</v>
+        <v>1.050023176417217</v>
       </c>
       <c r="N6">
-        <v>1.0303107466331</v>
+        <v>1.035295189335706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007478901865971</v>
+        <v>1.012874478185894</v>
       </c>
       <c r="D7">
-        <v>1.023738533499191</v>
+        <v>1.031876451600031</v>
       </c>
       <c r="E7">
-        <v>1.011423507117891</v>
+        <v>1.016459875498852</v>
       </c>
       <c r="F7">
-        <v>1.008359534392093</v>
+        <v>1.038592593583998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047228226276773</v>
+        <v>1.047888272560651</v>
       </c>
       <c r="J7">
-        <v>1.026687190837179</v>
+        <v>1.031948517745164</v>
       </c>
       <c r="K7">
-        <v>1.033555746562426</v>
+        <v>1.041601917974146</v>
       </c>
       <c r="L7">
-        <v>1.021383032349216</v>
+        <v>1.02636068555304</v>
       </c>
       <c r="M7">
-        <v>1.018355135495723</v>
+        <v>1.048243673096055</v>
       </c>
       <c r="N7">
-        <v>1.028145204410835</v>
+        <v>1.033414003006512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.995535415239687</v>
+        <v>1.002294082638622</v>
       </c>
       <c r="D8">
-        <v>1.014165399080613</v>
+        <v>1.023678344490538</v>
       </c>
       <c r="E8">
-        <v>1.000791242782701</v>
+        <v>1.007571532674014</v>
       </c>
       <c r="F8">
-        <v>0.9952305751011163</v>
+        <v>1.02977126290586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042646839386395</v>
+        <v>1.044769660596636</v>
       </c>
       <c r="J8">
-        <v>1.017273923060345</v>
+        <v>1.023835947084133</v>
       </c>
       <c r="K8">
-        <v>1.025156849746058</v>
+        <v>1.034546852271751</v>
       </c>
       <c r="L8">
-        <v>1.011960506838908</v>
+        <v>1.018649910269598</v>
       </c>
       <c r="M8">
-        <v>1.006475541227725</v>
+        <v>1.040562516303936</v>
       </c>
       <c r="N8">
-        <v>1.018718568714041</v>
+        <v>1.025289911564618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9724712637220648</v>
+        <v>0.9822297205494763</v>
       </c>
       <c r="D9">
-        <v>0.9957040274184333</v>
+        <v>1.008162459725626</v>
       </c>
       <c r="E9">
-        <v>0.9802676044628724</v>
+        <v>0.9907714517758712</v>
       </c>
       <c r="F9">
-        <v>0.9699210634984732</v>
+        <v>1.0131071457663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033664376190584</v>
+        <v>1.038755056849618</v>
       </c>
       <c r="J9">
-        <v>0.999035040275389</v>
+        <v>1.008425985548997</v>
       </c>
       <c r="K9">
-        <v>1.008867190444407</v>
+        <v>1.021124480444098</v>
       </c>
       <c r="L9">
-        <v>0.9936891500948551</v>
+        <v>1.004016051543736</v>
       </c>
       <c r="M9">
-        <v>0.9835217603284969</v>
+        <v>1.025991088701067</v>
       </c>
       <c r="N9">
-        <v>1.000453784623501</v>
+        <v>1.009858066116553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553795274108851</v>
+        <v>0.9676999956157707</v>
       </c>
       <c r="D10">
-        <v>0.9820533286238922</v>
+        <v>0.9969598014815839</v>
       </c>
       <c r="E10">
-        <v>0.9650720236483767</v>
+        <v>0.978653290001355</v>
       </c>
       <c r="F10">
-        <v>0.9511891390011048</v>
+        <v>1.001097637943484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026920266877094</v>
+        <v>1.034337297971942</v>
       </c>
       <c r="J10">
-        <v>0.9854825896289644</v>
+        <v>0.9972564477809116</v>
       </c>
       <c r="K10">
-        <v>0.9967543565515966</v>
+        <v>1.011384165470745</v>
       </c>
       <c r="L10">
-        <v>0.9801019103975217</v>
+        <v>0.9934189672521764</v>
       </c>
       <c r="M10">
-        <v>0.9664993964221892</v>
+        <v>1.015447102438771</v>
       </c>
       <c r="N10">
-        <v>0.9868820879426705</v>
+        <v>0.9986726663236738</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9474683859074587</v>
+        <v>0.9610814384109804</v>
       </c>
       <c r="D11">
-        <v>0.9757456169765956</v>
+        <v>0.9918679208757361</v>
       </c>
       <c r="E11">
-        <v>0.9580439599029288</v>
+        <v>0.9731471815546018</v>
       </c>
       <c r="F11">
-        <v>0.9425225180068524</v>
+        <v>0.995644537955335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023779286175756</v>
+        <v>1.032311812606336</v>
       </c>
       <c r="J11">
-        <v>0.9792024780216833</v>
+        <v>0.9921679473095627</v>
       </c>
       <c r="K11">
-        <v>0.9911399037254922</v>
+        <v>1.006944843223382</v>
       </c>
       <c r="L11">
-        <v>0.9738029875263677</v>
+        <v>0.9885939143137352</v>
       </c>
       <c r="M11">
-        <v>0.9586163631727517</v>
+        <v>1.010649062003196</v>
       </c>
       <c r="N11">
-        <v>0.9805930578565684</v>
+        <v>0.9935769395979965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9444420442485112</v>
+        <v>0.9585684671078761</v>
       </c>
       <c r="D12">
-        <v>0.9733346252426882</v>
+        <v>0.9899365984760065</v>
       </c>
       <c r="E12">
-        <v>0.9553564780870701</v>
+        <v>0.9710589418456174</v>
       </c>
       <c r="F12">
-        <v>0.9392075142574591</v>
+        <v>0.9935770605844894</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022574972135259</v>
+        <v>1.031540959127591</v>
       </c>
       <c r="J12">
-        <v>0.9767991538512629</v>
+        <v>0.9902360175442345</v>
       </c>
       <c r="K12">
-        <v>0.9889911653937512</v>
+        <v>1.005259170789681</v>
       </c>
       <c r="L12">
-        <v>0.9713920472353567</v>
+        <v>0.9867624353172294</v>
       </c>
       <c r="M12">
-        <v>0.9556000573138191</v>
+        <v>1.008828357257577</v>
       </c>
       <c r="N12">
-        <v>0.9781863206901609</v>
+        <v>0.9916422662708062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9450953825538585</v>
+        <v>0.9591100721698029</v>
       </c>
       <c r="D13">
-        <v>0.9738550241145912</v>
+        <v>0.9903527489679748</v>
       </c>
       <c r="E13">
-        <v>0.9559366107088856</v>
+        <v>0.9715088966208597</v>
       </c>
       <c r="F13">
-        <v>0.9399231587370845</v>
+        <v>0.9940225100204655</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022835085597089</v>
+        <v>1.031707174969954</v>
       </c>
       <c r="J13">
-        <v>0.9773180312985804</v>
+        <v>0.9906523865220934</v>
       </c>
       <c r="K13">
-        <v>0.989455083586649</v>
+        <v>1.005622474747451</v>
       </c>
       <c r="L13">
-        <v>0.9719125880112178</v>
+        <v>0.9871571353084913</v>
       </c>
       <c r="M13">
-        <v>0.9562512634945862</v>
+        <v>1.009220710145433</v>
       </c>
       <c r="N13">
-        <v>0.9787059350029694</v>
+        <v>0.9920592265403719</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9472200914050396</v>
+        <v>0.9608748623421262</v>
       </c>
       <c r="D14">
-        <v>0.9755477663778603</v>
+        <v>0.9917091162984264</v>
       </c>
       <c r="E14">
-        <v>0.9578234443490583</v>
+        <v>0.972975470868336</v>
       </c>
       <c r="F14">
-        <v>0.9422505349313193</v>
+        <v>0.9954745204659153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02368053365299</v>
+        <v>1.032248480993469</v>
       </c>
       <c r="J14">
-        <v>0.9790053162010255</v>
+        <v>0.9920091319209496</v>
       </c>
       <c r="K14">
-        <v>0.9909636301043001</v>
+        <v>1.006806275407609</v>
       </c>
       <c r="L14">
-        <v>0.9736052094060786</v>
+        <v>0.9884433476665424</v>
       </c>
       <c r="M14">
-        <v>0.9583689072939811</v>
+        <v>1.010499369968709</v>
       </c>
       <c r="N14">
-        <v>0.9803956160435101</v>
+        <v>0.9934178986733152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.948517188021256</v>
+        <v>0.9619548043319622</v>
       </c>
       <c r="D15">
-        <v>0.9765814248603253</v>
+        <v>0.9925394004842182</v>
       </c>
       <c r="E15">
-        <v>0.9589754668501096</v>
+        <v>0.9738732400246783</v>
       </c>
       <c r="F15">
-        <v>0.943671393596164</v>
+        <v>0.9963634643795053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024196308668455</v>
+        <v>1.032579494849052</v>
       </c>
       <c r="J15">
-        <v>0.9800352582391753</v>
+        <v>0.9928393950596237</v>
       </c>
       <c r="K15">
-        <v>0.9918844496844971</v>
+        <v>1.00753067907534</v>
       </c>
       <c r="L15">
-        <v>0.9746383539380202</v>
+        <v>0.9892305052068007</v>
       </c>
       <c r="M15">
-        <v>0.95966159316472</v>
+        <v>1.011281976803506</v>
       </c>
       <c r="N15">
-        <v>0.98142702071749</v>
+        <v>0.9942493408808791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558929151484504</v>
+        <v>0.9681319133718759</v>
       </c>
       <c r="D16">
-        <v>0.9824629110815941</v>
+        <v>0.9972923460163358</v>
       </c>
       <c r="E16">
-        <v>0.9655282340324415</v>
+        <v>0.9790129192587557</v>
       </c>
       <c r="F16">
-        <v>0.9517516120627777</v>
+        <v>1.00145388917453</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027123713576104</v>
+        <v>1.034469220989024</v>
       </c>
       <c r="J16">
-        <v>0.985889998354055</v>
+        <v>0.997588519473388</v>
       </c>
       <c r="K16">
-        <v>0.9971185574994896</v>
+        <v>1.011673838627994</v>
       </c>
       <c r="L16">
-        <v>0.9805104832660317</v>
+        <v>0.9937339037563215</v>
       </c>
       <c r="M16">
-        <v>0.9670108690630869</v>
+        <v>1.015760342008666</v>
       </c>
       <c r="N16">
-        <v>0.9872900752348811</v>
+        <v>0.9990052095960429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9603757390026326</v>
+        <v>0.9719155149092819</v>
       </c>
       <c r="D17">
-        <v>0.9860405517091849</v>
+        <v>1.000206723453015</v>
       </c>
       <c r="E17">
-        <v>0.9695124203049763</v>
+        <v>0.982164867252029</v>
       </c>
       <c r="F17">
-        <v>0.9566634340777612</v>
+        <v>1.004576652172984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028898035405072</v>
+        <v>1.035623410333937</v>
       </c>
       <c r="J17">
-        <v>0.989446645569827</v>
+        <v>1.000497424585499</v>
       </c>
       <c r="K17">
-        <v>1.000297849241841</v>
+        <v>1.01421112902901</v>
       </c>
       <c r="L17">
-        <v>0.9840769921753075</v>
+        <v>0.9964930084745626</v>
       </c>
       <c r="M17">
-        <v>0.9714765138759329</v>
+        <v>1.018504909148256</v>
       </c>
       <c r="N17">
-        <v>0.9908517732976528</v>
+        <v>1.001918245687069</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9629421182861063</v>
+        <v>0.9740912715680079</v>
       </c>
       <c r="D18">
-        <v>0.988089686465929</v>
+        <v>1.001883653153886</v>
       </c>
       <c r="E18">
-        <v>0.9717938188498783</v>
+        <v>0.9839786781049336</v>
       </c>
       <c r="F18">
-        <v>0.9594757703459419</v>
+        <v>1.006374001475484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029912013538467</v>
+        <v>1.036285887077147</v>
       </c>
       <c r="J18">
-        <v>0.9914821201591221</v>
+        <v>1.002170121258934</v>
       </c>
       <c r="K18">
-        <v>1.002117224009958</v>
+        <v>1.015669951312522</v>
       </c>
       <c r="L18">
-        <v>0.9861178623708013</v>
+        <v>0.9980798123296292</v>
       </c>
       <c r="M18">
-        <v>0.9740326960739268</v>
+        <v>1.020083610964773</v>
       </c>
       <c r="N18">
-        <v>0.9928901384943368</v>
+        <v>1.003593317781642</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.963809282966187</v>
+        <v>0.974828015094765</v>
       </c>
       <c r="D19">
-        <v>0.9887822313546696</v>
+        <v>1.002451650701048</v>
       </c>
       <c r="E19">
-        <v>0.972564766406585</v>
+        <v>0.9845930725369511</v>
       </c>
       <c r="F19">
-        <v>0.9604261089099468</v>
+        <v>1.006982873330921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030254320382453</v>
+        <v>1.036509996883019</v>
       </c>
       <c r="J19">
-        <v>0.9921697763286081</v>
+        <v>1.002736504810172</v>
       </c>
       <c r="K19">
-        <v>1.002731848684252</v>
+        <v>1.016163882221468</v>
       </c>
       <c r="L19">
-        <v>0.9868072996333875</v>
+        <v>0.9986171531125642</v>
       </c>
       <c r="M19">
-        <v>0.9748963567260911</v>
+        <v>1.020618249444561</v>
       </c>
       <c r="N19">
-        <v>0.9935787712144587</v>
+        <v>1.004160505662487</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9598998511961147</v>
+        <v>0.9715128291240468</v>
       </c>
       <c r="D20">
-        <v>0.9856606534738982</v>
+        <v>0.9998964403677971</v>
       </c>
       <c r="E20">
-        <v>0.9690894148663425</v>
+        <v>0.981829272420348</v>
       </c>
       <c r="F20">
-        <v>0.9561419686093083</v>
+        <v>1.004244129353003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028709864056575</v>
+        <v>1.035500698595573</v>
       </c>
       <c r="J20">
-        <v>0.9890691482985814</v>
+        <v>1.000187837754777</v>
       </c>
       <c r="K20">
-        <v>0.9999604179583305</v>
+        <v>1.013941110991352</v>
       </c>
       <c r="L20">
-        <v>0.9836984741550193</v>
+        <v>0.9961993386746097</v>
       </c>
       <c r="M20">
-        <v>0.9710024882225721</v>
+        <v>1.018212759141485</v>
       </c>
       <c r="N20">
-        <v>0.9904737399369823</v>
+        <v>1.001608219207538</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9465969424748297</v>
+        <v>0.9603567289121013</v>
       </c>
       <c r="D21">
-        <v>0.9750512503233952</v>
+        <v>0.9913108363261028</v>
       </c>
       <c r="E21">
-        <v>0.9572700303533082</v>
+        <v>0.9725448253810018</v>
       </c>
       <c r="F21">
-        <v>0.9415679390178494</v>
+        <v>0.9950481324560173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023432649116572</v>
+        <v>1.032089604431511</v>
       </c>
       <c r="J21">
-        <v>0.9785104816794056</v>
+        <v>0.9916107939762525</v>
       </c>
       <c r="K21">
-        <v>0.9905212183181691</v>
+        <v>1.006458718915202</v>
       </c>
       <c r="L21">
-        <v>0.9731088213678639</v>
+        <v>0.9880657060663843</v>
       </c>
       <c r="M21">
-        <v>0.9577478511371718</v>
+        <v>1.01012393073101</v>
       </c>
       <c r="N21">
-        <v>0.9799000788001112</v>
+        <v>0.9930189950430467</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9377175203281518</v>
+        <v>0.9530235430939107</v>
       </c>
       <c r="D22">
-        <v>0.9679815277938894</v>
+        <v>0.9856791672605026</v>
       </c>
       <c r="E22">
-        <v>0.9493871399549354</v>
+        <v>0.9664558573891541</v>
       </c>
       <c r="F22">
-        <v>0.9318419243462129</v>
+        <v>0.9890210962115166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019894071867644</v>
+        <v>1.029836920309674</v>
       </c>
       <c r="J22">
-        <v>0.9714574736960352</v>
+        <v>0.9859735910015088</v>
       </c>
       <c r="K22">
-        <v>0.9842151283208522</v>
+        <v>1.001539762889498</v>
       </c>
       <c r="L22">
-        <v>0.9660326509375282</v>
+        <v>0.9827224629530319</v>
       </c>
       <c r="M22">
-        <v>0.9488963485894031</v>
+        <v>1.004813230567216</v>
       </c>
       <c r="N22">
-        <v>0.9728370547364134</v>
+        <v>0.9873737865934824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9424779042196145</v>
+        <v>0.9569432654205637</v>
       </c>
       <c r="D23">
-        <v>0.971770463709317</v>
+        <v>0.9886881689794647</v>
       </c>
       <c r="E23">
-        <v>0.9536125911951492</v>
+        <v>0.969709122835416</v>
       </c>
       <c r="F23">
-        <v>0.9370560924726719</v>
+        <v>0.9922408631452052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021792598405693</v>
+        <v>1.0310419421398</v>
       </c>
       <c r="J23">
-        <v>0.9752391245376574</v>
+        <v>0.9889866441214382</v>
       </c>
       <c r="K23">
-        <v>0.9875963565848359</v>
+        <v>1.004169001572875</v>
       </c>
       <c r="L23">
-        <v>0.9698269548481513</v>
+        <v>0.9855781481207964</v>
       </c>
       <c r="M23">
-        <v>0.9536422114605242</v>
+        <v>1.007651196890606</v>
       </c>
       <c r="N23">
-        <v>0.9766240759559923</v>
+        <v>0.9903911185944443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601150330901039</v>
+        <v>0.9716948813735997</v>
       </c>
       <c r="D24">
-        <v>0.9858324288426676</v>
+        <v>1.000036714667636</v>
       </c>
       <c r="E24">
-        <v>0.969280683478563</v>
+        <v>0.9819809892027068</v>
       </c>
       <c r="F24">
-        <v>0.9563777581926495</v>
+        <v>1.004394456303175</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028794955015168</v>
+        <v>1.035556179827956</v>
       </c>
       <c r="J24">
-        <v>0.9892398431229763</v>
+        <v>1.000327800648511</v>
       </c>
       <c r="K24">
-        <v>1.000112996381853</v>
+        <v>1.014063185585892</v>
       </c>
       <c r="L24">
-        <v>0.9838696313089302</v>
+        <v>0.9963321047825459</v>
       </c>
       <c r="M24">
-        <v>0.9712168292279012</v>
+        <v>1.018344837363832</v>
       </c>
       <c r="N24">
-        <v>0.9906446771676066</v>
+        <v>1.001748380864635</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9787062829303235</v>
+        <v>0.9876040276119796</v>
       </c>
       <c r="D25">
-        <v>1.000690700558645</v>
+        <v>1.012313750172178</v>
       </c>
       <c r="E25">
-        <v>0.9858141839210615</v>
+        <v>0.9952640846367422</v>
       </c>
       <c r="F25">
-        <v>0.9767585889587042</v>
+        <v>1.017561951280643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036107715277482</v>
+        <v>1.040377120219329</v>
       </c>
       <c r="J25">
-        <v>1.003972147773007</v>
+        <v>1.012555890353901</v>
       </c>
       <c r="K25">
-        <v>1.013278303744714</v>
+        <v>1.024723871763188</v>
       </c>
       <c r="L25">
-        <v>0.9986367818898086</v>
+        <v>1.007936367182839</v>
       </c>
       <c r="M25">
-        <v>0.9897287410907774</v>
+        <v>1.029893623225472</v>
       </c>
       <c r="N25">
-        <v>1.00539790338006</v>
+        <v>1.013993835859988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9994803137923469</v>
+        <v>1.043851711972335</v>
       </c>
       <c r="D2">
-        <v>1.02149976397563</v>
+        <v>1.057630029493761</v>
       </c>
       <c r="E2">
-        <v>1.005211091856845</v>
+        <v>1.053459385594096</v>
       </c>
       <c r="F2">
-        <v>1.027429098050416</v>
+        <v>1.063251097860216</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043933486826589</v>
+        <v>1.062377015630436</v>
       </c>
       <c r="J2">
-        <v>1.021676579703777</v>
+        <v>1.064795511249136</v>
       </c>
       <c r="K2">
-        <v>1.03266748335065</v>
+        <v>1.068340889625717</v>
       </c>
       <c r="L2">
-        <v>1.016598302171472</v>
+        <v>1.064220992706828</v>
       </c>
       <c r="M2">
-        <v>1.038519083390993</v>
+        <v>1.073894343991056</v>
       </c>
       <c r="N2">
-        <v>1.023127477634898</v>
+        <v>1.066307643008861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007697883488792</v>
+        <v>1.049937028337755</v>
       </c>
       <c r="D3">
-        <v>1.027864299344219</v>
+        <v>1.062511459544545</v>
       </c>
       <c r="E3">
-        <v>1.012108680790838</v>
+        <v>1.058662766832893</v>
       </c>
       <c r="F3">
-        <v>1.034273881863318</v>
+        <v>1.068763834688069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046367752646968</v>
+        <v>1.064618399741344</v>
       </c>
       <c r="J3">
-        <v>1.02798087373325</v>
+        <v>1.069153114824096</v>
       </c>
       <c r="K3">
-        <v>1.038152645237948</v>
+        <v>1.072402413080196</v>
       </c>
       <c r="L3">
-        <v>1.02258893809336</v>
+        <v>1.068596283550552</v>
       </c>
       <c r="M3">
-        <v>1.044486227817668</v>
+        <v>1.078586444309481</v>
       </c>
       <c r="N3">
-        <v>1.029440724485005</v>
+        <v>1.070671434880723</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012845921752324</v>
+        <v>1.053779428835331</v>
       </c>
       <c r="D4">
-        <v>1.031854313508505</v>
+        <v>1.065596422498457</v>
       </c>
       <c r="E4">
-        <v>1.016435859560142</v>
+        <v>1.061953484608492</v>
       </c>
       <c r="F4">
-        <v>1.038568755478152</v>
+        <v>1.072250938844127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047879914334107</v>
+        <v>1.066023968212996</v>
       </c>
       <c r="J4">
-        <v>1.03192663940879</v>
+        <v>1.071900785988695</v>
       </c>
       <c r="K4">
-        <v>1.041582904720756</v>
+        <v>1.074962726159068</v>
       </c>
       <c r="L4">
-        <v>1.026339884149996</v>
+        <v>1.071357548050916</v>
       </c>
       <c r="M4">
-        <v>1.04822294982478</v>
+        <v>1.081549074089122</v>
       </c>
       <c r="N4">
-        <v>1.033392093600391</v>
+        <v>1.073423008053538</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014972086998203</v>
+        <v>1.055373006813098</v>
       </c>
       <c r="D5">
-        <v>1.03350274705207</v>
+        <v>1.066876454085582</v>
       </c>
       <c r="E5">
-        <v>1.01822434796893</v>
+        <v>1.06331944770893</v>
       </c>
       <c r="F5">
-        <v>1.040344039406731</v>
+        <v>1.073698602859141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04850128596847</v>
+        <v>1.066604539218561</v>
       </c>
       <c r="J5">
-        <v>1.033555295486151</v>
+        <v>1.073039382235209</v>
       </c>
       <c r="K5">
-        <v>1.042998065426734</v>
+        <v>1.07602351380925</v>
       </c>
       <c r="L5">
-        <v>1.027888472638432</v>
+        <v>1.072502357686823</v>
       </c>
       <c r="M5">
-        <v>1.049765739280795</v>
+        <v>1.082777710941589</v>
       </c>
       <c r="N5">
-        <v>1.03502306255619</v>
+        <v>1.074563221237321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015326914290853</v>
+        <v>1.055639327719324</v>
       </c>
       <c r="D6">
-        <v>1.033777875260742</v>
+        <v>1.067090407560698</v>
       </c>
       <c r="E6">
-        <v>1.018522897540007</v>
+        <v>1.063547797484946</v>
       </c>
       <c r="F6">
-        <v>1.04064039209707</v>
+        <v>1.073940621458764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048604796160892</v>
+        <v>1.066701424627911</v>
       </c>
       <c r="J6">
-        <v>1.033827036362453</v>
+        <v>1.073229608340717</v>
       </c>
       <c r="K6">
-        <v>1.043234141558756</v>
+        <v>1.076200730084981</v>
       </c>
       <c r="L6">
-        <v>1.028146874287623</v>
+        <v>1.072693655863915</v>
       </c>
       <c r="M6">
-        <v>1.050023176417217</v>
+        <v>1.082983036789503</v>
       </c>
       <c r="N6">
-        <v>1.035295189335706</v>
+        <v>1.074753717485717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012874478185894</v>
+        <v>1.053800806524307</v>
       </c>
       <c r="D7">
-        <v>1.031876451600031</v>
+        <v>1.065613591745358</v>
       </c>
       <c r="E7">
-        <v>1.016459875498852</v>
+        <v>1.061971804247349</v>
       </c>
       <c r="F7">
-        <v>1.038592593583998</v>
+        <v>1.072270353493744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047888272560651</v>
+        <v>1.06603176592926</v>
       </c>
       <c r="J7">
-        <v>1.031948517745164</v>
+        <v>1.071916063991952</v>
       </c>
       <c r="K7">
-        <v>1.041601917974146</v>
+        <v>1.074976960790577</v>
       </c>
       <c r="L7">
-        <v>1.02636068555304</v>
+        <v>1.071372907137767</v>
       </c>
       <c r="M7">
-        <v>1.048243673096055</v>
+        <v>1.081565556473315</v>
       </c>
       <c r="N7">
-        <v>1.033414003006512</v>
+        <v>1.073438307753312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002294082638622</v>
+        <v>1.045928624946697</v>
       </c>
       <c r="D8">
-        <v>1.023678344490538</v>
+        <v>1.059295444664031</v>
       </c>
       <c r="E8">
-        <v>1.007571532674014</v>
+        <v>1.055234167037306</v>
       </c>
       <c r="F8">
-        <v>1.02977126290586</v>
+        <v>1.065131240782195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044769660596636</v>
+        <v>1.063144008803444</v>
       </c>
       <c r="J8">
-        <v>1.023835947084133</v>
+        <v>1.066283531695161</v>
       </c>
       <c r="K8">
-        <v>1.034546852271751</v>
+        <v>1.069727939270095</v>
       </c>
       <c r="L8">
-        <v>1.018649910269598</v>
+        <v>1.065714535996256</v>
       </c>
       <c r="M8">
-        <v>1.040562516303936</v>
+        <v>1.075495733008212</v>
       </c>
       <c r="N8">
-        <v>1.025289911564618</v>
+        <v>1.067797776614599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822297205494763</v>
+        <v>1.031277901141309</v>
       </c>
       <c r="D9">
-        <v>1.008162459725626</v>
+        <v>1.047561932598466</v>
       </c>
       <c r="E9">
-        <v>0.9907714517758712</v>
+        <v>1.042739494142194</v>
       </c>
       <c r="F9">
-        <v>1.0131071457663</v>
+        <v>1.051897846206816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038755056849618</v>
+        <v>1.057693964656385</v>
       </c>
       <c r="J9">
-        <v>1.008425985548997</v>
+        <v>1.055772525957136</v>
       </c>
       <c r="K9">
-        <v>1.021124480444098</v>
+        <v>1.059927760749851</v>
       </c>
       <c r="L9">
-        <v>1.004016051543736</v>
+        <v>1.055175225202087</v>
       </c>
       <c r="M9">
-        <v>1.025991088701067</v>
+        <v>1.064201516264455</v>
       </c>
       <c r="N9">
-        <v>1.009858066116553</v>
+        <v>1.057271844042797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9676999956157707</v>
+        <v>1.02091108682655</v>
       </c>
       <c r="D10">
-        <v>0.9969598014815839</v>
+        <v>1.039281206178453</v>
       </c>
       <c r="E10">
-        <v>0.978653290001355</v>
+        <v>1.033933069726113</v>
       </c>
       <c r="F10">
-        <v>1.001097637943484</v>
+        <v>1.042574473080567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034337297971942</v>
+        <v>1.053789150724099</v>
       </c>
       <c r="J10">
-        <v>0.9972564477809116</v>
+        <v>1.048318925688725</v>
       </c>
       <c r="K10">
-        <v>1.011384165470745</v>
+        <v>1.052975685551599</v>
       </c>
       <c r="L10">
-        <v>0.9934189672521764</v>
+        <v>1.047715538270386</v>
       </c>
       <c r="M10">
-        <v>1.015447102438771</v>
+        <v>1.056215347313351</v>
       </c>
       <c r="N10">
-        <v>0.9986726663236738</v>
+        <v>1.049807658807065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9610814384109804</v>
+        <v>1.016260844640971</v>
       </c>
       <c r="D11">
-        <v>0.9918679208757361</v>
+        <v>1.03557311281843</v>
       </c>
       <c r="E11">
-        <v>0.9731471815546018</v>
+        <v>1.029992138069826</v>
       </c>
       <c r="F11">
-        <v>0.995644537955335</v>
+        <v>1.038403033100937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032311812606336</v>
+        <v>1.052026820307939</v>
       </c>
       <c r="J11">
-        <v>0.9921679473095627</v>
+        <v>1.044972457822402</v>
       </c>
       <c r="K11">
-        <v>1.006944843223382</v>
+        <v>1.049853969675618</v>
       </c>
       <c r="L11">
-        <v>0.9885939143137352</v>
+        <v>1.044369776259293</v>
       </c>
       <c r="M11">
-        <v>1.010649062003196</v>
+        <v>1.052635329039214</v>
       </c>
       <c r="N11">
-        <v>0.9935769395979965</v>
+        <v>1.046456438572526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9585684671078761</v>
+        <v>1.014507487038204</v>
       </c>
       <c r="D12">
-        <v>0.9899365984760065</v>
+        <v>1.034176060751871</v>
       </c>
       <c r="E12">
-        <v>0.9710589418456174</v>
+        <v>1.028507734073988</v>
       </c>
       <c r="F12">
-        <v>0.9935770605844894</v>
+        <v>1.03683192511174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031540959127591</v>
+        <v>1.051360792758987</v>
       </c>
       <c r="J12">
-        <v>0.9902360175442345</v>
+        <v>1.043710306378086</v>
       </c>
       <c r="K12">
-        <v>1.005259170789681</v>
+        <v>1.048676539384051</v>
       </c>
       <c r="L12">
-        <v>0.9867624353172294</v>
+        <v>1.043108418998838</v>
       </c>
       <c r="M12">
-        <v>1.008828357257577</v>
+        <v>1.051285940722287</v>
       </c>
       <c r="N12">
-        <v>0.9916422662708062</v>
+        <v>1.045192494728388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9591100721698029</v>
+        <v>1.014884798061018</v>
       </c>
       <c r="D13">
-        <v>0.9903527489679748</v>
+        <v>1.034476646896703</v>
       </c>
       <c r="E13">
-        <v>0.9715088966208597</v>
+        <v>1.028827098089072</v>
       </c>
       <c r="F13">
-        <v>0.9940225100204655</v>
+        <v>1.037169937825638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031707174969954</v>
+        <v>1.051504186225749</v>
       </c>
       <c r="J13">
-        <v>0.9906523865220934</v>
+        <v>1.043981928855687</v>
       </c>
       <c r="K13">
-        <v>1.005622474747451</v>
+        <v>1.048929931167141</v>
       </c>
       <c r="L13">
-        <v>0.9871571353084913</v>
+        <v>1.04337984652825</v>
       </c>
       <c r="M13">
-        <v>1.009220710145433</v>
+        <v>1.051576298525926</v>
       </c>
       <c r="N13">
-        <v>0.9920592265403719</v>
+        <v>1.045464502941063</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9608748623421262</v>
+        <v>1.016116454079226</v>
       </c>
       <c r="D14">
-        <v>0.9917091162984264</v>
+        <v>1.035458041906647</v>
       </c>
       <c r="E14">
-        <v>0.972975470868336</v>
+        <v>1.02986986478376</v>
       </c>
       <c r="F14">
-        <v>0.9954745204659153</v>
+        <v>1.038273615425765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032248480993469</v>
+        <v>1.051972003347535</v>
       </c>
       <c r="J14">
-        <v>0.9920091319209496</v>
+        <v>1.044868525740345</v>
       </c>
       <c r="K14">
-        <v>1.006806275407609</v>
+        <v>1.049757014807218</v>
       </c>
       <c r="L14">
-        <v>0.9884433476665424</v>
+        <v>1.044265898786539</v>
       </c>
       <c r="M14">
-        <v>1.010499369968709</v>
+        <v>1.052524196104517</v>
       </c>
       <c r="N14">
-        <v>0.9934178986733152</v>
+        <v>1.046352358894991</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9619548043319622</v>
+        <v>1.016871808878818</v>
       </c>
       <c r="D15">
-        <v>0.9925394004842182</v>
+        <v>1.036060060221212</v>
       </c>
       <c r="E15">
-        <v>0.9738732400246783</v>
+        <v>1.03050957892036</v>
       </c>
       <c r="F15">
-        <v>0.9963634643795053</v>
+        <v>1.038950712714537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032579494849052</v>
+        <v>1.052258706447</v>
       </c>
       <c r="J15">
-        <v>0.9928393950596237</v>
+        <v>1.045412213941103</v>
       </c>
       <c r="K15">
-        <v>1.00753067907534</v>
+        <v>1.05026420212073</v>
       </c>
       <c r="L15">
-        <v>0.9892305052068007</v>
+        <v>1.044809322874942</v>
       </c>
       <c r="M15">
-        <v>1.011281976803506</v>
+        <v>1.053105587948967</v>
       </c>
       <c r="N15">
-        <v>0.9942493408808791</v>
+        <v>1.046896819195356</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9681319133718759</v>
+        <v>1.021216158188119</v>
       </c>
       <c r="D16">
-        <v>0.9972923460163358</v>
+        <v>1.039524611387353</v>
       </c>
       <c r="E16">
-        <v>0.9790129192587557</v>
+        <v>1.034191811022461</v>
       </c>
       <c r="F16">
-        <v>1.00145388917453</v>
+        <v>1.042848365230547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034469220989024</v>
+        <v>1.05390454781252</v>
       </c>
       <c r="J16">
-        <v>0.997588519473388</v>
+        <v>1.048538408797103</v>
       </c>
       <c r="K16">
-        <v>1.011673838627994</v>
+        <v>1.053180420647214</v>
       </c>
       <c r="L16">
-        <v>0.9937339037563215</v>
+        <v>1.047935047416525</v>
       </c>
       <c r="M16">
-        <v>1.015760342008666</v>
+        <v>1.056450264719525</v>
       </c>
       <c r="N16">
-        <v>0.9990052095960429</v>
+        <v>1.050027453606631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9719155149092819</v>
+        <v>1.0238968333595</v>
       </c>
       <c r="D17">
-        <v>1.000206723453015</v>
+        <v>1.041664160740822</v>
       </c>
       <c r="E17">
-        <v>0.982164867252029</v>
+        <v>1.036466455516115</v>
       </c>
       <c r="F17">
-        <v>1.004576652172984</v>
+        <v>1.045256297424273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035623410333937</v>
+        <v>1.054917336112717</v>
       </c>
       <c r="J17">
-        <v>1.000497424585499</v>
+        <v>1.050466683865888</v>
       </c>
       <c r="K17">
-        <v>1.01421112902901</v>
+        <v>1.054979081018562</v>
       </c>
       <c r="L17">
-        <v>0.9964930084745626</v>
+        <v>1.04986394219271</v>
       </c>
       <c r="M17">
-        <v>1.018504909148256</v>
+        <v>1.058514769711948</v>
       </c>
       <c r="N17">
-        <v>1.001918245687069</v>
+        <v>1.051958467047191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740912715680079</v>
+        <v>1.025444989797321</v>
       </c>
       <c r="D18">
-        <v>1.001883653153886</v>
+        <v>1.042900399724369</v>
       </c>
       <c r="E18">
-        <v>0.9839786781049336</v>
+        <v>1.037780996770866</v>
       </c>
       <c r="F18">
-        <v>1.006374001475484</v>
+        <v>1.046647945846466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036285887077147</v>
+        <v>1.055501226540591</v>
       </c>
       <c r="J18">
-        <v>1.002170121258934</v>
+        <v>1.051580021461481</v>
       </c>
       <c r="K18">
-        <v>1.015669951312522</v>
+        <v>1.056017541583844</v>
       </c>
       <c r="L18">
-        <v>0.9980798123296292</v>
+        <v>1.050977961453765</v>
       </c>
       <c r="M18">
-        <v>1.020083610964773</v>
+        <v>1.059707286906277</v>
       </c>
       <c r="N18">
-        <v>1.003593317781642</v>
+        <v>1.05307338570987</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.974828015094765</v>
+        <v>1.025970305074744</v>
       </c>
       <c r="D19">
-        <v>1.002451650701048</v>
+        <v>1.043319974169529</v>
       </c>
       <c r="E19">
-        <v>0.9845930725369511</v>
+        <v>1.03822718845429</v>
       </c>
       <c r="F19">
-        <v>1.006982873330921</v>
+        <v>1.047120323334712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036509996883019</v>
+        <v>1.05569917534897</v>
       </c>
       <c r="J19">
-        <v>1.002736504810172</v>
+        <v>1.051957744307058</v>
       </c>
       <c r="K19">
-        <v>1.016163882221468</v>
+        <v>1.056369853450959</v>
       </c>
       <c r="L19">
-        <v>0.9986171531125642</v>
+        <v>1.051355970184928</v>
       </c>
       <c r="M19">
-        <v>1.020618249444561</v>
+        <v>1.060111961549905</v>
       </c>
       <c r="N19">
-        <v>1.004160505662487</v>
+        <v>1.053451644965214</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9715128291240468</v>
+        <v>1.023610831431023</v>
       </c>
       <c r="D20">
-        <v>0.9998964403677971</v>
+        <v>1.041435829007569</v>
       </c>
       <c r="E20">
-        <v>0.981829272420348</v>
+        <v>1.03622368127617</v>
       </c>
       <c r="F20">
-        <v>1.004244129353003</v>
+        <v>1.044999289157768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035500698595573</v>
+        <v>1.054809386903623</v>
       </c>
       <c r="J20">
-        <v>1.000187837754777</v>
+        <v>1.050260985209394</v>
       </c>
       <c r="K20">
-        <v>1.013941110991352</v>
+        <v>1.054787213120921</v>
       </c>
       <c r="L20">
-        <v>0.9961993386746097</v>
+        <v>1.049658143721693</v>
       </c>
       <c r="M20">
-        <v>1.018212759141485</v>
+        <v>1.058294484243547</v>
       </c>
       <c r="N20">
-        <v>1.001608219207538</v>
+        <v>1.05175247627501</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9603567289121013</v>
+        <v>1.015754496637065</v>
       </c>
       <c r="D21">
-        <v>0.9913108363261028</v>
+        <v>1.035169600438586</v>
       </c>
       <c r="E21">
-        <v>0.9725448253810018</v>
+        <v>1.029563375481865</v>
       </c>
       <c r="F21">
-        <v>0.9950481324560173</v>
+        <v>1.037949219967736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032089604431511</v>
+        <v>1.051834563841594</v>
       </c>
       <c r="J21">
-        <v>0.9916107939762525</v>
+        <v>1.044607983574368</v>
       </c>
       <c r="K21">
-        <v>1.006458718915202</v>
+        <v>1.04951396278787</v>
       </c>
       <c r="L21">
-        <v>0.9880657060663843</v>
+        <v>1.044005502055682</v>
       </c>
       <c r="M21">
-        <v>1.01012393073101</v>
+        <v>1.052245616189921</v>
       </c>
       <c r="N21">
-        <v>0.9930189950430467</v>
+        <v>1.046091446729254</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530235430939107</v>
+        <v>1.010663155519211</v>
       </c>
       <c r="D22">
-        <v>0.9856791672605026</v>
+        <v>1.031115052633568</v>
       </c>
       <c r="E22">
-        <v>0.9664558573891541</v>
+        <v>1.025256001339356</v>
       </c>
       <c r="F22">
-        <v>0.9890210962115166</v>
+        <v>1.033390474371868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029836920309674</v>
+        <v>1.049897721746486</v>
       </c>
       <c r="J22">
-        <v>0.9859735910015088</v>
+        <v>1.040942363253845</v>
       </c>
       <c r="K22">
-        <v>1.001539762889498</v>
+        <v>1.046094327520088</v>
       </c>
       <c r="L22">
-        <v>0.9827224629530319</v>
+        <v>1.040343203487186</v>
       </c>
       <c r="M22">
-        <v>1.004813230567216</v>
+        <v>1.048328263892037</v>
       </c>
       <c r="N22">
-        <v>0.9873737865934824</v>
+        <v>1.042420620807423</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9569432654205637</v>
+        <v>1.013377208406577</v>
       </c>
       <c r="D23">
-        <v>0.9886881689794647</v>
+        <v>1.033275786434982</v>
       </c>
       <c r="E23">
-        <v>0.969709122835416</v>
+        <v>1.027551272183192</v>
       </c>
       <c r="F23">
-        <v>0.9922408631452052</v>
+        <v>1.035819629535045</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0310419421398</v>
+        <v>1.050931019876013</v>
       </c>
       <c r="J23">
-        <v>0.9889866441214382</v>
+        <v>1.042896580686311</v>
       </c>
       <c r="K23">
-        <v>1.004169001572875</v>
+        <v>1.047917423747746</v>
       </c>
       <c r="L23">
-        <v>0.9855781481207964</v>
+        <v>1.042295355648502</v>
       </c>
       <c r="M23">
-        <v>1.007651196890606</v>
+        <v>1.050416213352128</v>
       </c>
       <c r="N23">
-        <v>0.9903911185944443</v>
+        <v>1.044377613452795</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9716948813735997</v>
+        <v>1.023740110959813</v>
       </c>
       <c r="D24">
-        <v>1.000036714667636</v>
+        <v>1.041539038424125</v>
       </c>
       <c r="E24">
-        <v>0.9819809892027068</v>
+        <v>1.036333418167858</v>
       </c>
       <c r="F24">
-        <v>1.004394456303175</v>
+        <v>1.045115459756784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035556179827956</v>
+        <v>1.054858185628976</v>
       </c>
       <c r="J24">
-        <v>1.000327800648511</v>
+        <v>1.050353966692774</v>
       </c>
       <c r="K24">
-        <v>1.014063185585892</v>
+        <v>1.054873942846428</v>
       </c>
       <c r="L24">
-        <v>0.9963321047825459</v>
+        <v>1.049751169319719</v>
       </c>
       <c r="M24">
-        <v>1.018344837363832</v>
+        <v>1.058394057744633</v>
       </c>
       <c r="N24">
-        <v>1.001748380864635</v>
+        <v>1.051845589802761</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876040276119796</v>
+        <v>1.035165188024498</v>
       </c>
       <c r="D25">
-        <v>1.012313750172178</v>
+        <v>1.050671812831703</v>
       </c>
       <c r="E25">
-        <v>0.9952640846367422</v>
+        <v>1.046049096546812</v>
       </c>
       <c r="F25">
-        <v>1.017561951280643</v>
+        <v>1.055402468347592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040377120219329</v>
+        <v>1.059148544137227</v>
       </c>
       <c r="J25">
-        <v>1.012555890353901</v>
+        <v>1.058564412550147</v>
       </c>
       <c r="K25">
-        <v>1.024723871763188</v>
+        <v>1.062531331653781</v>
       </c>
       <c r="L25">
-        <v>1.007936367182839</v>
+        <v>1.057972271850299</v>
       </c>
       <c r="M25">
-        <v>1.029893623225472</v>
+        <v>1.067197570596473</v>
       </c>
       <c r="N25">
-        <v>1.013993835859988</v>
+        <v>1.060067695435003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043851711972335</v>
+        <v>1.074712426852077</v>
       </c>
       <c r="D2">
-        <v>1.057630029493761</v>
+        <v>1.077364095165504</v>
       </c>
       <c r="E2">
-        <v>1.053459385594096</v>
+        <v>1.078742575687636</v>
       </c>
       <c r="F2">
-        <v>1.063251097860216</v>
+        <v>1.089610755915166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062377015630436</v>
+        <v>1.056799615230411</v>
       </c>
       <c r="J2">
-        <v>1.064795511249136</v>
+        <v>1.079620530089919</v>
       </c>
       <c r="K2">
-        <v>1.068340889625717</v>
+        <v>1.080045589661624</v>
       </c>
       <c r="L2">
-        <v>1.064220992706828</v>
+        <v>1.081420449699227</v>
       </c>
       <c r="M2">
-        <v>1.073894343991056</v>
+        <v>1.092260431566832</v>
       </c>
       <c r="N2">
-        <v>1.066307643008861</v>
+        <v>1.081153715076852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.049937028337755</v>
+        <v>1.075967026908906</v>
       </c>
       <c r="D3">
-        <v>1.062511459544545</v>
+        <v>1.078388025474395</v>
       </c>
       <c r="E3">
-        <v>1.058662766832893</v>
+        <v>1.079858876371388</v>
       </c>
       <c r="F3">
-        <v>1.068763834688069</v>
+        <v>1.090800604478367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064618399741344</v>
+        <v>1.057194358293545</v>
       </c>
       <c r="J3">
-        <v>1.069153114824096</v>
+        <v>1.080532872684834</v>
       </c>
       <c r="K3">
-        <v>1.072402413080196</v>
+        <v>1.080886695480708</v>
       </c>
       <c r="L3">
-        <v>1.068596283550552</v>
+        <v>1.082353962973314</v>
       </c>
       <c r="M3">
-        <v>1.078586444309481</v>
+        <v>1.093269359788487</v>
       </c>
       <c r="N3">
-        <v>1.070671434880723</v>
+        <v>1.082067353302899</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.053779428835331</v>
+        <v>1.07677866800374</v>
       </c>
       <c r="D4">
-        <v>1.065596422498457</v>
+        <v>1.07905038443934</v>
       </c>
       <c r="E4">
-        <v>1.061953484608492</v>
+        <v>1.080581290846343</v>
       </c>
       <c r="F4">
-        <v>1.072250938844127</v>
+        <v>1.09157074128049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066023968212996</v>
+        <v>1.057448470195458</v>
       </c>
       <c r="J4">
-        <v>1.071900785988695</v>
+        <v>1.081122492562498</v>
       </c>
       <c r="K4">
-        <v>1.074962726159068</v>
+        <v>1.081430142030156</v>
       </c>
       <c r="L4">
-        <v>1.071357548050916</v>
+        <v>1.082957506738167</v>
       </c>
       <c r="M4">
-        <v>1.081549074089122</v>
+        <v>1.093921845742922</v>
       </c>
       <c r="N4">
-        <v>1.073423008053538</v>
+        <v>1.08265781050842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.055373006813098</v>
+        <v>1.077119843488723</v>
       </c>
       <c r="D5">
-        <v>1.066876454085582</v>
+        <v>1.079328795084145</v>
       </c>
       <c r="E5">
-        <v>1.06331944770893</v>
+        <v>1.080885017378887</v>
       </c>
       <c r="F5">
-        <v>1.073698602859141</v>
+        <v>1.091894561958632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066604539218561</v>
+        <v>1.057554985003166</v>
       </c>
       <c r="J5">
-        <v>1.073039382235209</v>
+        <v>1.081370195971939</v>
       </c>
       <c r="K5">
-        <v>1.07602351380925</v>
+        <v>1.081658415226881</v>
       </c>
       <c r="L5">
-        <v>1.072502357686823</v>
+        <v>1.083211117522797</v>
       </c>
       <c r="M5">
-        <v>1.082777710941589</v>
+        <v>1.094196066265111</v>
       </c>
       <c r="N5">
-        <v>1.074563221237321</v>
+        <v>1.082905865685114</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.055639327719324</v>
+        <v>1.077177126159492</v>
       </c>
       <c r="D6">
-        <v>1.067090407560698</v>
+        <v>1.079375538842962</v>
       </c>
       <c r="E6">
-        <v>1.063547797484946</v>
+        <v>1.08093601581102</v>
       </c>
       <c r="F6">
-        <v>1.073940621458764</v>
+        <v>1.091948936146675</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066701424627911</v>
+        <v>1.057572850920885</v>
       </c>
       <c r="J6">
-        <v>1.073229608340717</v>
+        <v>1.081411776367119</v>
       </c>
       <c r="K6">
-        <v>1.076200730084981</v>
+        <v>1.081696732087537</v>
       </c>
       <c r="L6">
-        <v>1.072693655863915</v>
+        <v>1.083253692942557</v>
       </c>
       <c r="M6">
-        <v>1.082983036789503</v>
+        <v>1.094242104171439</v>
       </c>
       <c r="N6">
-        <v>1.074753717485717</v>
+        <v>1.082947505129225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.053800806524307</v>
+        <v>1.076783226955723</v>
       </c>
       <c r="D7">
-        <v>1.065613591745358</v>
+        <v>1.079054104751822</v>
       </c>
       <c r="E7">
-        <v>1.061971804247349</v>
+        <v>1.080585349161402</v>
       </c>
       <c r="F7">
-        <v>1.072270353493744</v>
+        <v>1.091575067969907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06603176592926</v>
+        <v>1.05744989468399</v>
       </c>
       <c r="J7">
-        <v>1.071916063991952</v>
+        <v>1.081125803065004</v>
       </c>
       <c r="K7">
-        <v>1.074976960790577</v>
+        <v>1.081433192979881</v>
       </c>
       <c r="L7">
-        <v>1.071372907137767</v>
+        <v>1.082960895964146</v>
       </c>
       <c r="M7">
-        <v>1.081565556473315</v>
+        <v>1.093925510221836</v>
       </c>
       <c r="N7">
-        <v>1.073438307753312</v>
+        <v>1.082661125712219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045928624946697</v>
+        <v>1.07513646104021</v>
       </c>
       <c r="D8">
-        <v>1.059295444664031</v>
+        <v>1.077710177650358</v>
       </c>
       <c r="E8">
-        <v>1.055234167037306</v>
+        <v>1.079119816109415</v>
       </c>
       <c r="F8">
-        <v>1.065131240782195</v>
+        <v>1.090012824926839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063144008803444</v>
+        <v>1.05693329275218</v>
       </c>
       <c r="J8">
-        <v>1.066283531695161</v>
+        <v>1.079929011754597</v>
       </c>
       <c r="K8">
-        <v>1.069727939270095</v>
+        <v>1.080330012641268</v>
       </c>
       <c r="L8">
-        <v>1.065714535996256</v>
+        <v>1.081736039435972</v>
       </c>
       <c r="M8">
-        <v>1.075495733008212</v>
+        <v>1.092601478416198</v>
       </c>
       <c r="N8">
-        <v>1.067797776614599</v>
+        <v>1.081462634820877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031277901141309</v>
+        <v>1.072233263187137</v>
       </c>
       <c r="D9">
-        <v>1.047561932598466</v>
+        <v>1.075340487533487</v>
       </c>
       <c r="E9">
-        <v>1.042739494142194</v>
+        <v>1.076538022041547</v>
       </c>
       <c r="F9">
-        <v>1.051897846206816</v>
+        <v>1.087261621701978</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057693964656385</v>
+        <v>1.056012890924281</v>
       </c>
       <c r="J9">
-        <v>1.055772525957136</v>
+        <v>1.077814491880857</v>
       </c>
       <c r="K9">
-        <v>1.059927760749851</v>
+        <v>1.078379855217641</v>
       </c>
       <c r="L9">
-        <v>1.055175225202087</v>
+        <v>1.07957379317283</v>
       </c>
       <c r="M9">
-        <v>1.064201516264455</v>
+        <v>1.090265570998644</v>
       </c>
       <c r="N9">
-        <v>1.057271844042797</v>
+        <v>1.079345112086378</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.02091108682655</v>
+        <v>1.070296736325212</v>
       </c>
       <c r="D10">
-        <v>1.039281206178453</v>
+        <v>1.073759607170955</v>
       </c>
       <c r="E10">
-        <v>1.033933069726113</v>
+        <v>1.074817196021593</v>
       </c>
       <c r="F10">
-        <v>1.042574473080567</v>
+        <v>1.085428526766643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053789150724099</v>
+        <v>1.055392473753653</v>
       </c>
       <c r="J10">
-        <v>1.048318925688725</v>
+        <v>1.076400954802082</v>
       </c>
       <c r="K10">
-        <v>1.052975685551599</v>
+        <v>1.077075506502037</v>
       </c>
       <c r="L10">
-        <v>1.047715538270386</v>
+        <v>1.078129606667551</v>
       </c>
       <c r="M10">
-        <v>1.056215347313351</v>
+        <v>1.08870634588314</v>
       </c>
       <c r="N10">
-        <v>1.049807658807065</v>
+        <v>1.077929567622816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.016260844640971</v>
+        <v>1.069457917436599</v>
       </c>
       <c r="D11">
-        <v>1.03557311281843</v>
+        <v>1.073074795271289</v>
       </c>
       <c r="E11">
-        <v>1.029992138069826</v>
+        <v>1.074072129550726</v>
       </c>
       <c r="F11">
-        <v>1.038403033100937</v>
+        <v>1.084635004298445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052026820307939</v>
+        <v>1.055122201066858</v>
       </c>
       <c r="J11">
-        <v>1.044972457822402</v>
+        <v>1.075787944701052</v>
       </c>
       <c r="K11">
-        <v>1.049853969675618</v>
+        <v>1.076509687021795</v>
       </c>
       <c r="L11">
-        <v>1.044369776259293</v>
+        <v>1.07750360347333</v>
       </c>
       <c r="M11">
-        <v>1.052635329039214</v>
+        <v>1.088030703442758</v>
       </c>
       <c r="N11">
-        <v>1.046456438572526</v>
+        <v>1.077315686977129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.014507487038204</v>
+        <v>1.069146296544519</v>
       </c>
       <c r="D12">
-        <v>1.034176060751871</v>
+        <v>1.072820382103448</v>
       </c>
       <c r="E12">
-        <v>1.028507734073988</v>
+        <v>1.073795386475441</v>
       </c>
       <c r="F12">
-        <v>1.03683192511174</v>
+        <v>1.084340286004332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051360792758987</v>
+        <v>1.055021564372757</v>
       </c>
       <c r="J12">
-        <v>1.043710306378086</v>
+        <v>1.075560102697668</v>
       </c>
       <c r="K12">
-        <v>1.048676539384051</v>
+        <v>1.076299360616543</v>
       </c>
       <c r="L12">
-        <v>1.043108418998838</v>
+        <v>1.077270977188441</v>
       </c>
       <c r="M12">
-        <v>1.051285940722287</v>
+        <v>1.087779664893006</v>
       </c>
       <c r="N12">
-        <v>1.045192494728388</v>
+        <v>1.077087521411967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.014884798061018</v>
+        <v>1.069213142417196</v>
       </c>
       <c r="D13">
-        <v>1.034476646896703</v>
+        <v>1.072874956584723</v>
       </c>
       <c r="E13">
-        <v>1.028827098089072</v>
+        <v>1.073854748478106</v>
       </c>
       <c r="F13">
-        <v>1.037169937825638</v>
+        <v>1.084403502691118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051504186225749</v>
+        <v>1.055043162402306</v>
       </c>
       <c r="J13">
-        <v>1.043981928855687</v>
+        <v>1.075608982067445</v>
       </c>
       <c r="K13">
-        <v>1.048929931167141</v>
+        <v>1.076344483420301</v>
       </c>
       <c r="L13">
-        <v>1.04337984652825</v>
+        <v>1.077320880903432</v>
       </c>
       <c r="M13">
-        <v>1.051576298525926</v>
+        <v>1.087833516927548</v>
       </c>
       <c r="N13">
-        <v>1.045464502941063</v>
+        <v>1.077136470196056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.016116454079226</v>
+        <v>1.069432159714384</v>
       </c>
       <c r="D14">
-        <v>1.035458041906647</v>
+        <v>1.073053766295898</v>
       </c>
       <c r="E14">
-        <v>1.02986986478376</v>
+        <v>1.074049253732296</v>
       </c>
       <c r="F14">
-        <v>1.038273615425765</v>
+        <v>1.084610642164195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051972003347535</v>
+        <v>1.055113887416737</v>
       </c>
       <c r="J14">
-        <v>1.044868525740345</v>
+        <v>1.075769114131747</v>
       </c>
       <c r="K14">
-        <v>1.049757014807218</v>
+        <v>1.076492304563247</v>
       </c>
       <c r="L14">
-        <v>1.044265898786539</v>
+        <v>1.07748437657774</v>
       </c>
       <c r="M14">
-        <v>1.052524196104517</v>
+        <v>1.088009954054383</v>
       </c>
       <c r="N14">
-        <v>1.046352358894991</v>
+        <v>1.077296829666256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.016871808878818</v>
+        <v>1.069567097297494</v>
       </c>
       <c r="D15">
-        <v>1.036060060221212</v>
+        <v>1.0731639310485</v>
       </c>
       <c r="E15">
-        <v>1.03050957892036</v>
+        <v>1.074169095822339</v>
       </c>
       <c r="F15">
-        <v>1.038950712714537</v>
+        <v>1.084738271723375</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052258706447</v>
+        <v>1.055157430892542</v>
       </c>
       <c r="J15">
-        <v>1.045412213941103</v>
+        <v>1.075867757815393</v>
       </c>
       <c r="K15">
-        <v>1.05026420212073</v>
+        <v>1.076583361352715</v>
       </c>
       <c r="L15">
-        <v>1.044809322874942</v>
+        <v>1.077585098252447</v>
       </c>
       <c r="M15">
-        <v>1.053105587948967</v>
+        <v>1.088118652823304</v>
       </c>
       <c r="N15">
-        <v>1.046896819195356</v>
+        <v>1.077395613435248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.021216158188119</v>
+        <v>1.070352399637288</v>
       </c>
       <c r="D16">
-        <v>1.039524611387353</v>
+        <v>1.07380504985446</v>
       </c>
       <c r="E16">
-        <v>1.034191811022461</v>
+        <v>1.074866644809874</v>
       </c>
       <c r="F16">
-        <v>1.042848365230547</v>
+        <v>1.085481194721406</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05390454781252</v>
+        <v>1.055410376494104</v>
       </c>
       <c r="J16">
-        <v>1.048538408797103</v>
+        <v>1.076441618334517</v>
       </c>
       <c r="K16">
-        <v>1.053180420647214</v>
+        <v>1.077113036299241</v>
       </c>
       <c r="L16">
-        <v>1.047935047416525</v>
+        <v>1.07817113838262</v>
       </c>
       <c r="M16">
-        <v>1.056450264719525</v>
+        <v>1.088751175635761</v>
       </c>
       <c r="N16">
-        <v>1.050027453606631</v>
+        <v>1.077970288902132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.0238968333595</v>
+        <v>1.070844919547148</v>
       </c>
       <c r="D17">
-        <v>1.041664160740822</v>
+        <v>1.074207130698447</v>
       </c>
       <c r="E17">
-        <v>1.036466455516115</v>
+        <v>1.075304214470534</v>
       </c>
       <c r="F17">
-        <v>1.045256297424273</v>
+        <v>1.085947268298621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054917336112717</v>
+        <v>1.055568606170327</v>
       </c>
       <c r="J17">
-        <v>1.050466683865888</v>
+        <v>1.076801333256728</v>
       </c>
       <c r="K17">
-        <v>1.054979081018562</v>
+        <v>1.077445011197876</v>
       </c>
       <c r="L17">
-        <v>1.04986394219271</v>
+        <v>1.078538567848663</v>
       </c>
       <c r="M17">
-        <v>1.058514769711948</v>
+        <v>1.089147808793633</v>
       </c>
       <c r="N17">
-        <v>1.051958467047191</v>
+        <v>1.078330514660792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.025444989797321</v>
+        <v>1.071132170278944</v>
       </c>
       <c r="D18">
-        <v>1.042900399724369</v>
+        <v>1.074441630707994</v>
       </c>
       <c r="E18">
-        <v>1.037780996770866</v>
+        <v>1.075559447596099</v>
       </c>
       <c r="F18">
-        <v>1.046647945846466</v>
+        <v>1.086219142450525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055501226540591</v>
+        <v>1.055660741843888</v>
       </c>
       <c r="J18">
-        <v>1.051580021461481</v>
+        <v>1.077011058376727</v>
       </c>
       <c r="K18">
-        <v>1.056017541583844</v>
+        <v>1.077638547461998</v>
       </c>
       <c r="L18">
-        <v>1.050977961453765</v>
+        <v>1.078752819576526</v>
       </c>
       <c r="M18">
-        <v>1.059707286906277</v>
+        <v>1.089379111259604</v>
       </c>
       <c r="N18">
-        <v>1.05307338570987</v>
+        <v>1.078540537614517</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.025970305074744</v>
+        <v>1.071230110719499</v>
       </c>
       <c r="D19">
-        <v>1.043319974169529</v>
+        <v>1.074521584623763</v>
       </c>
       <c r="E19">
-        <v>1.03822718845429</v>
+        <v>1.075646476586711</v>
       </c>
       <c r="F19">
-        <v>1.047120323334712</v>
+        <v>1.086311848178438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05569917534897</v>
+        <v>1.055692131118361</v>
       </c>
       <c r="J19">
-        <v>1.051957744307058</v>
+        <v>1.077082553920575</v>
       </c>
       <c r="K19">
-        <v>1.056369853450959</v>
+        <v>1.077704521564163</v>
       </c>
       <c r="L19">
-        <v>1.051355970184928</v>
+        <v>1.078825863126444</v>
       </c>
       <c r="M19">
-        <v>1.060111961549905</v>
+        <v>1.089457971508303</v>
       </c>
       <c r="N19">
-        <v>1.053451644965214</v>
+        <v>1.078612134690238</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.023610831431023</v>
+        <v>1.070792079717696</v>
       </c>
       <c r="D20">
-        <v>1.041435829007569</v>
+        <v>1.074163994027392</v>
       </c>
       <c r="E20">
-        <v>1.03622368127617</v>
+        <v>1.075257266764073</v>
       </c>
       <c r="F20">
-        <v>1.044999289157768</v>
+        <v>1.085897260823066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054809386903623</v>
+        <v>1.055551645871108</v>
       </c>
       <c r="J20">
-        <v>1.050260985209394</v>
+        <v>1.076762748624448</v>
       </c>
       <c r="K20">
-        <v>1.054787213120921</v>
+        <v>1.07740940369231</v>
       </c>
       <c r="L20">
-        <v>1.049658143721693</v>
+        <v>1.078499152741268</v>
       </c>
       <c r="M20">
-        <v>1.058294484243547</v>
+        <v>1.089105258677707</v>
       </c>
       <c r="N20">
-        <v>1.05175247627501</v>
+        <v>1.078291875233908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.015754496637065</v>
+        <v>1.069367665876045</v>
       </c>
       <c r="D21">
-        <v>1.035169600438586</v>
+        <v>1.07300111250601</v>
       </c>
       <c r="E21">
-        <v>1.029563375481865</v>
+        <v>1.073991976580883</v>
       </c>
       <c r="F21">
-        <v>1.037949219967736</v>
+        <v>1.084549643902568</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051834563841594</v>
+        <v>1.055093067443015</v>
       </c>
       <c r="J21">
-        <v>1.044607983574368</v>
+        <v>1.075721963184078</v>
       </c>
       <c r="K21">
-        <v>1.04951396278787</v>
+        <v>1.076448779234915</v>
       </c>
       <c r="L21">
-        <v>1.044005502055682</v>
+        <v>1.077436233972284</v>
       </c>
       <c r="M21">
-        <v>1.052245616189921</v>
+        <v>1.087957999797575</v>
       </c>
       <c r="N21">
-        <v>1.046091446729254</v>
+        <v>1.077249611758833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.010663155519211</v>
+        <v>1.068471811700241</v>
       </c>
       <c r="D22">
-        <v>1.031115052633568</v>
+        <v>1.072269710136006</v>
       </c>
       <c r="E22">
-        <v>1.025256001339356</v>
+        <v>1.073196482670385</v>
       </c>
       <c r="F22">
-        <v>1.033390474371868</v>
+        <v>1.083702523786943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049897721746486</v>
+        <v>1.054803320868781</v>
       </c>
       <c r="J22">
-        <v>1.040942363253845</v>
+        <v>1.075066753298158</v>
       </c>
       <c r="K22">
-        <v>1.046094327520088</v>
+        <v>1.075843894059746</v>
       </c>
       <c r="L22">
-        <v>1.040343203487186</v>
+        <v>1.076767350647457</v>
       </c>
       <c r="M22">
-        <v>1.048328263892037</v>
+        <v>1.087236238669578</v>
       </c>
       <c r="N22">
-        <v>1.042420620807423</v>
+        <v>1.076593471399721</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.013377208406577</v>
+        <v>1.068946747298317</v>
       </c>
       <c r="D23">
-        <v>1.033275786434982</v>
+        <v>1.072657464793446</v>
       </c>
       <c r="E23">
-        <v>1.027551272183192</v>
+        <v>1.073618185388931</v>
       </c>
       <c r="F23">
-        <v>1.035819629535045</v>
+        <v>1.084151581693326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050931019876013</v>
+        <v>1.054957055888587</v>
       </c>
       <c r="J23">
-        <v>1.042896580686311</v>
+        <v>1.075414171376215</v>
       </c>
       <c r="K23">
-        <v>1.047917423747746</v>
+        <v>1.076164641156371</v>
       </c>
       <c r="L23">
-        <v>1.042295355648502</v>
+        <v>1.077121994232896</v>
       </c>
       <c r="M23">
-        <v>1.050416213352128</v>
+        <v>1.087618899566041</v>
       </c>
       <c r="N23">
-        <v>1.044377613452795</v>
+        <v>1.076941382851299</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.023740110959813</v>
+        <v>1.070815955848069</v>
       </c>
       <c r="D24">
-        <v>1.041539038424125</v>
+        <v>1.074183485715598</v>
       </c>
       <c r="E24">
-        <v>1.036333418167858</v>
+        <v>1.07527848039289</v>
       </c>
       <c r="F24">
-        <v>1.045115459756784</v>
+        <v>1.085919856982948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054858185628976</v>
+        <v>1.055559309985477</v>
       </c>
       <c r="J24">
-        <v>1.050353966692774</v>
+        <v>1.076780183638629</v>
       </c>
       <c r="K24">
-        <v>1.054873942846428</v>
+        <v>1.077425493497566</v>
       </c>
       <c r="L24">
-        <v>1.049751169319719</v>
+        <v>1.078516962928475</v>
       </c>
       <c r="M24">
-        <v>1.058394057744633</v>
+        <v>1.089124485388675</v>
       </c>
       <c r="N24">
-        <v>1.051845589802761</v>
+        <v>1.078309335007809</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.035165188024498</v>
+        <v>1.072983987017914</v>
       </c>
       <c r="D25">
-        <v>1.050671812831703</v>
+        <v>1.075953295979195</v>
       </c>
       <c r="E25">
-        <v>1.046049096546812</v>
+        <v>1.077205406938988</v>
       </c>
       <c r="F25">
-        <v>1.055402468347592</v>
+        <v>1.087972684304234</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059148544137227</v>
+        <v>1.056252035535476</v>
       </c>
       <c r="J25">
-        <v>1.058564412550147</v>
+        <v>1.078361820068317</v>
       </c>
       <c r="K25">
-        <v>1.062531331653781</v>
+        <v>1.07888476075272</v>
       </c>
       <c r="L25">
-        <v>1.057972271850299</v>
+        <v>1.080133254338202</v>
       </c>
       <c r="M25">
-        <v>1.067197570596473</v>
+        <v>1.090869797880398</v>
       </c>
       <c r="N25">
-        <v>1.060067695435003</v>
+        <v>1.079893217542644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.074712426852077</v>
+        <v>1.043851711972334</v>
       </c>
       <c r="D2">
-        <v>1.077364095165504</v>
+        <v>1.057630029493761</v>
       </c>
       <c r="E2">
-        <v>1.078742575687636</v>
+        <v>1.053459385594095</v>
       </c>
       <c r="F2">
-        <v>1.089610755915166</v>
+        <v>1.063251097860215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056799615230411</v>
+        <v>1.062377015630435</v>
       </c>
       <c r="J2">
-        <v>1.079620530089919</v>
+        <v>1.064795511249135</v>
       </c>
       <c r="K2">
-        <v>1.080045589661624</v>
+        <v>1.068340889625716</v>
       </c>
       <c r="L2">
-        <v>1.081420449699227</v>
+        <v>1.064220992706828</v>
       </c>
       <c r="M2">
-        <v>1.092260431566832</v>
+        <v>1.073894343991056</v>
       </c>
       <c r="N2">
-        <v>1.081153715076852</v>
+        <v>1.066307643008861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075967026908906</v>
+        <v>1.049937028337756</v>
       </c>
       <c r="D3">
-        <v>1.078388025474395</v>
+        <v>1.062511459544545</v>
       </c>
       <c r="E3">
-        <v>1.079858876371388</v>
+        <v>1.058662766832893</v>
       </c>
       <c r="F3">
-        <v>1.090800604478367</v>
+        <v>1.068763834688068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057194358293545</v>
+        <v>1.064618399741344</v>
       </c>
       <c r="J3">
-        <v>1.080532872684834</v>
+        <v>1.069153114824096</v>
       </c>
       <c r="K3">
-        <v>1.080886695480708</v>
+        <v>1.072402413080196</v>
       </c>
       <c r="L3">
-        <v>1.082353962973314</v>
+        <v>1.068596283550552</v>
       </c>
       <c r="M3">
-        <v>1.093269359788487</v>
+        <v>1.07858644430948</v>
       </c>
       <c r="N3">
-        <v>1.082067353302899</v>
+        <v>1.070671434880723</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07677866800374</v>
+        <v>1.05377942883533</v>
       </c>
       <c r="D4">
-        <v>1.07905038443934</v>
+        <v>1.065596422498456</v>
       </c>
       <c r="E4">
-        <v>1.080581290846343</v>
+        <v>1.061953484608491</v>
       </c>
       <c r="F4">
-        <v>1.09157074128049</v>
+        <v>1.072250938844127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057448470195458</v>
+        <v>1.066023968212996</v>
       </c>
       <c r="J4">
-        <v>1.081122492562498</v>
+        <v>1.071900785988695</v>
       </c>
       <c r="K4">
-        <v>1.081430142030156</v>
+        <v>1.074962726159067</v>
       </c>
       <c r="L4">
-        <v>1.082957506738167</v>
+        <v>1.071357548050916</v>
       </c>
       <c r="M4">
-        <v>1.093921845742922</v>
+        <v>1.081549074089122</v>
       </c>
       <c r="N4">
-        <v>1.08265781050842</v>
+        <v>1.073423008053537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077119843488723</v>
+        <v>1.055373006813097</v>
       </c>
       <c r="D5">
-        <v>1.079328795084145</v>
+        <v>1.066876454085582</v>
       </c>
       <c r="E5">
-        <v>1.080885017378887</v>
+        <v>1.063319447708929</v>
       </c>
       <c r="F5">
-        <v>1.091894561958632</v>
+        <v>1.073698602859141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057554985003166</v>
+        <v>1.066604539218561</v>
       </c>
       <c r="J5">
-        <v>1.081370195971939</v>
+        <v>1.073039382235209</v>
       </c>
       <c r="K5">
-        <v>1.081658415226881</v>
+        <v>1.07602351380925</v>
       </c>
       <c r="L5">
-        <v>1.083211117522797</v>
+        <v>1.072502357686823</v>
       </c>
       <c r="M5">
-        <v>1.094196066265111</v>
+        <v>1.082777710941589</v>
       </c>
       <c r="N5">
-        <v>1.082905865685114</v>
+        <v>1.074563221237321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077177126159492</v>
+        <v>1.055639327719324</v>
       </c>
       <c r="D6">
-        <v>1.079375538842962</v>
+        <v>1.067090407560698</v>
       </c>
       <c r="E6">
-        <v>1.08093601581102</v>
+        <v>1.063547797484947</v>
       </c>
       <c r="F6">
-        <v>1.091948936146675</v>
+        <v>1.073940621458765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057572850920885</v>
+        <v>1.066701424627911</v>
       </c>
       <c r="J6">
-        <v>1.081411776367119</v>
+        <v>1.073229608340718</v>
       </c>
       <c r="K6">
-        <v>1.081696732087537</v>
+        <v>1.076200730084981</v>
       </c>
       <c r="L6">
-        <v>1.083253692942557</v>
+        <v>1.072693655863915</v>
       </c>
       <c r="M6">
-        <v>1.094242104171439</v>
+        <v>1.082983036789503</v>
       </c>
       <c r="N6">
-        <v>1.082947505129225</v>
+        <v>1.074753717485718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076783226955723</v>
+        <v>1.053800806524308</v>
       </c>
       <c r="D7">
-        <v>1.079054104751822</v>
+        <v>1.06561359174536</v>
       </c>
       <c r="E7">
-        <v>1.080585349161402</v>
+        <v>1.06197180424735</v>
       </c>
       <c r="F7">
-        <v>1.091575067969907</v>
+        <v>1.072270353493745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05744989468399</v>
+        <v>1.06603176592926</v>
       </c>
       <c r="J7">
-        <v>1.081125803065004</v>
+        <v>1.071916063991953</v>
       </c>
       <c r="K7">
-        <v>1.081433192979881</v>
+        <v>1.074976960790578</v>
       </c>
       <c r="L7">
-        <v>1.082960895964146</v>
+        <v>1.071372907137768</v>
       </c>
       <c r="M7">
-        <v>1.093925510221836</v>
+        <v>1.081565556473316</v>
       </c>
       <c r="N7">
-        <v>1.082661125712219</v>
+        <v>1.073438307753313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.07513646104021</v>
+        <v>1.045928624946698</v>
       </c>
       <c r="D8">
-        <v>1.077710177650358</v>
+        <v>1.059295444664031</v>
       </c>
       <c r="E8">
-        <v>1.079119816109415</v>
+        <v>1.055234167037307</v>
       </c>
       <c r="F8">
-        <v>1.090012824926839</v>
+        <v>1.065131240782195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05693329275218</v>
+        <v>1.063144008803444</v>
       </c>
       <c r="J8">
-        <v>1.079929011754597</v>
+        <v>1.066283531695162</v>
       </c>
       <c r="K8">
-        <v>1.080330012641268</v>
+        <v>1.069727939270096</v>
       </c>
       <c r="L8">
-        <v>1.081736039435972</v>
+        <v>1.065714535996256</v>
       </c>
       <c r="M8">
-        <v>1.092601478416198</v>
+        <v>1.075495733008212</v>
       </c>
       <c r="N8">
-        <v>1.081462634820877</v>
+        <v>1.067797776614599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072233263187137</v>
+        <v>1.031277901141308</v>
       </c>
       <c r="D9">
-        <v>1.075340487533487</v>
+        <v>1.047561932598466</v>
       </c>
       <c r="E9">
-        <v>1.076538022041547</v>
+        <v>1.042739494142193</v>
       </c>
       <c r="F9">
-        <v>1.087261621701978</v>
+        <v>1.051897846206815</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056012890924281</v>
+        <v>1.057693964656384</v>
       </c>
       <c r="J9">
-        <v>1.077814491880857</v>
+        <v>1.055772525957136</v>
       </c>
       <c r="K9">
-        <v>1.078379855217641</v>
+        <v>1.059927760749851</v>
       </c>
       <c r="L9">
-        <v>1.07957379317283</v>
+        <v>1.055175225202086</v>
       </c>
       <c r="M9">
-        <v>1.090265570998644</v>
+        <v>1.064201516264454</v>
       </c>
       <c r="N9">
-        <v>1.079345112086378</v>
+        <v>1.057271844042796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.070296736325212</v>
+        <v>1.02091108682655</v>
       </c>
       <c r="D10">
-        <v>1.073759607170955</v>
+        <v>1.039281206178453</v>
       </c>
       <c r="E10">
-        <v>1.074817196021593</v>
+        <v>1.033933069726113</v>
       </c>
       <c r="F10">
-        <v>1.085428526766643</v>
+        <v>1.042574473080567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055392473753653</v>
+        <v>1.053789150724099</v>
       </c>
       <c r="J10">
-        <v>1.076400954802082</v>
+        <v>1.048318925688725</v>
       </c>
       <c r="K10">
-        <v>1.077075506502037</v>
+        <v>1.052975685551598</v>
       </c>
       <c r="L10">
-        <v>1.078129606667551</v>
+        <v>1.047715538270386</v>
       </c>
       <c r="M10">
-        <v>1.08870634588314</v>
+        <v>1.056215347313351</v>
       </c>
       <c r="N10">
-        <v>1.077929567622816</v>
+        <v>1.049807658807065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.069457917436599</v>
+        <v>1.016260844640972</v>
       </c>
       <c r="D11">
-        <v>1.073074795271289</v>
+        <v>1.03557311281843</v>
       </c>
       <c r="E11">
-        <v>1.074072129550726</v>
+        <v>1.029992138069826</v>
       </c>
       <c r="F11">
-        <v>1.084635004298445</v>
+        <v>1.038403033100937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055122201066858</v>
+        <v>1.052026820307939</v>
       </c>
       <c r="J11">
-        <v>1.075787944701052</v>
+        <v>1.044972457822403</v>
       </c>
       <c r="K11">
-        <v>1.076509687021795</v>
+        <v>1.049853969675619</v>
       </c>
       <c r="L11">
-        <v>1.07750360347333</v>
+        <v>1.044369776259294</v>
       </c>
       <c r="M11">
-        <v>1.088030703442758</v>
+        <v>1.052635329039215</v>
       </c>
       <c r="N11">
-        <v>1.077315686977129</v>
+        <v>1.046456438572527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.069146296544519</v>
+        <v>1.014507487038204</v>
       </c>
       <c r="D12">
-        <v>1.072820382103448</v>
+        <v>1.034176060751871</v>
       </c>
       <c r="E12">
-        <v>1.073795386475441</v>
+        <v>1.028507734073987</v>
       </c>
       <c r="F12">
-        <v>1.084340286004332</v>
+        <v>1.03683192511174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055021564372757</v>
+        <v>1.051360792758986</v>
       </c>
       <c r="J12">
-        <v>1.075560102697668</v>
+        <v>1.043710306378085</v>
       </c>
       <c r="K12">
-        <v>1.076299360616543</v>
+        <v>1.048676539384051</v>
       </c>
       <c r="L12">
-        <v>1.077270977188441</v>
+        <v>1.043108418998837</v>
       </c>
       <c r="M12">
-        <v>1.087779664893006</v>
+        <v>1.051285940722287</v>
       </c>
       <c r="N12">
-        <v>1.077087521411967</v>
+        <v>1.045192494728387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.069213142417196</v>
+        <v>1.014884798061017</v>
       </c>
       <c r="D13">
-        <v>1.072874956584723</v>
+        <v>1.034476646896703</v>
       </c>
       <c r="E13">
-        <v>1.073854748478106</v>
+        <v>1.028827098089072</v>
       </c>
       <c r="F13">
-        <v>1.084403502691118</v>
+        <v>1.037169937825638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055043162402306</v>
+        <v>1.05150418622575</v>
       </c>
       <c r="J13">
-        <v>1.075608982067445</v>
+        <v>1.043981928855686</v>
       </c>
       <c r="K13">
-        <v>1.076344483420301</v>
+        <v>1.048929931167141</v>
       </c>
       <c r="L13">
-        <v>1.077320880903432</v>
+        <v>1.04337984652825</v>
       </c>
       <c r="M13">
-        <v>1.087833516927548</v>
+        <v>1.051576298525926</v>
       </c>
       <c r="N13">
-        <v>1.077136470196056</v>
+        <v>1.045464502941062</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.069432159714384</v>
+        <v>1.016116454079226</v>
       </c>
       <c r="D14">
-        <v>1.073053766295898</v>
+        <v>1.035458041906647</v>
       </c>
       <c r="E14">
-        <v>1.074049253732296</v>
+        <v>1.029869864783759</v>
       </c>
       <c r="F14">
-        <v>1.084610642164195</v>
+        <v>1.038273615425764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055113887416737</v>
+        <v>1.051972003347534</v>
       </c>
       <c r="J14">
-        <v>1.075769114131747</v>
+        <v>1.044868525740345</v>
       </c>
       <c r="K14">
-        <v>1.076492304563247</v>
+        <v>1.049757014807218</v>
       </c>
       <c r="L14">
-        <v>1.07748437657774</v>
+        <v>1.044265898786538</v>
       </c>
       <c r="M14">
-        <v>1.088009954054383</v>
+        <v>1.052524196104517</v>
       </c>
       <c r="N14">
-        <v>1.077296829666256</v>
+        <v>1.046352358894991</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.069567097297494</v>
+        <v>1.016871808878816</v>
       </c>
       <c r="D15">
-        <v>1.0731639310485</v>
+        <v>1.03606006022121</v>
       </c>
       <c r="E15">
-        <v>1.074169095822339</v>
+        <v>1.030509578920358</v>
       </c>
       <c r="F15">
-        <v>1.084738271723375</v>
+        <v>1.038950712714534</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055157430892542</v>
+        <v>1.052258706446998</v>
       </c>
       <c r="J15">
-        <v>1.075867757815393</v>
+        <v>1.045412213941101</v>
       </c>
       <c r="K15">
-        <v>1.076583361352715</v>
+        <v>1.050264202120728</v>
       </c>
       <c r="L15">
-        <v>1.077585098252447</v>
+        <v>1.044809322874939</v>
       </c>
       <c r="M15">
-        <v>1.088118652823304</v>
+        <v>1.053105587948965</v>
       </c>
       <c r="N15">
-        <v>1.077395613435248</v>
+        <v>1.046896819195354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070352399637288</v>
+        <v>1.021216158188119</v>
       </c>
       <c r="D16">
-        <v>1.07380504985446</v>
+        <v>1.039524611387352</v>
       </c>
       <c r="E16">
-        <v>1.074866644809874</v>
+        <v>1.03419181102246</v>
       </c>
       <c r="F16">
-        <v>1.085481194721406</v>
+        <v>1.042848365230547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055410376494104</v>
+        <v>1.05390454781252</v>
       </c>
       <c r="J16">
-        <v>1.076441618334517</v>
+        <v>1.048538408797102</v>
       </c>
       <c r="K16">
-        <v>1.077113036299241</v>
+        <v>1.053180420647214</v>
       </c>
       <c r="L16">
-        <v>1.07817113838262</v>
+        <v>1.047935047416524</v>
       </c>
       <c r="M16">
-        <v>1.088751175635761</v>
+        <v>1.056450264719524</v>
       </c>
       <c r="N16">
-        <v>1.077970288902132</v>
+        <v>1.050027453606631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070844919547148</v>
+        <v>1.023896833359499</v>
       </c>
       <c r="D17">
-        <v>1.074207130698447</v>
+        <v>1.041664160740821</v>
       </c>
       <c r="E17">
-        <v>1.075304214470534</v>
+        <v>1.036466455516114</v>
       </c>
       <c r="F17">
-        <v>1.085947268298621</v>
+        <v>1.045256297424273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055568606170327</v>
+        <v>1.054917336112716</v>
       </c>
       <c r="J17">
-        <v>1.076801333256728</v>
+        <v>1.050466683865888</v>
       </c>
       <c r="K17">
-        <v>1.077445011197876</v>
+        <v>1.054979081018561</v>
       </c>
       <c r="L17">
-        <v>1.078538567848663</v>
+        <v>1.049863942192709</v>
       </c>
       <c r="M17">
-        <v>1.089147808793633</v>
+        <v>1.058514769711947</v>
       </c>
       <c r="N17">
-        <v>1.078330514660792</v>
+        <v>1.05195846704719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.071132170278944</v>
+        <v>1.025444989797323</v>
       </c>
       <c r="D18">
-        <v>1.074441630707994</v>
+        <v>1.042900399724371</v>
       </c>
       <c r="E18">
-        <v>1.075559447596099</v>
+        <v>1.037780996770868</v>
       </c>
       <c r="F18">
-        <v>1.086219142450525</v>
+        <v>1.046647945846468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055660741843888</v>
+        <v>1.055501226540593</v>
       </c>
       <c r="J18">
-        <v>1.077011058376727</v>
+        <v>1.051580021461483</v>
       </c>
       <c r="K18">
-        <v>1.077638547461998</v>
+        <v>1.056017541583846</v>
       </c>
       <c r="L18">
-        <v>1.078752819576526</v>
+        <v>1.050977961453768</v>
       </c>
       <c r="M18">
-        <v>1.089379111259604</v>
+        <v>1.059707286906279</v>
       </c>
       <c r="N18">
-        <v>1.078540537614517</v>
+        <v>1.053073385709872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.071230110719499</v>
+        <v>1.02597030507474</v>
       </c>
       <c r="D19">
-        <v>1.074521584623763</v>
+        <v>1.043319974169526</v>
       </c>
       <c r="E19">
-        <v>1.075646476586711</v>
+        <v>1.038227188454287</v>
       </c>
       <c r="F19">
-        <v>1.086311848178438</v>
+        <v>1.047120323334709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055692131118361</v>
+        <v>1.055699175348968</v>
       </c>
       <c r="J19">
-        <v>1.077082553920575</v>
+        <v>1.051957744307055</v>
       </c>
       <c r="K19">
-        <v>1.077704521564163</v>
+        <v>1.056369853450956</v>
       </c>
       <c r="L19">
-        <v>1.078825863126444</v>
+        <v>1.051355970184925</v>
       </c>
       <c r="M19">
-        <v>1.089457971508303</v>
+        <v>1.060111961549902</v>
       </c>
       <c r="N19">
-        <v>1.078612134690238</v>
+        <v>1.053451644965211</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.070792079717696</v>
+        <v>1.023610831431023</v>
       </c>
       <c r="D20">
-        <v>1.074163994027392</v>
+        <v>1.041435829007568</v>
       </c>
       <c r="E20">
-        <v>1.075257266764073</v>
+        <v>1.03622368127617</v>
       </c>
       <c r="F20">
-        <v>1.085897260823066</v>
+        <v>1.044999289157767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055551645871108</v>
+        <v>1.054809386903623</v>
       </c>
       <c r="J20">
-        <v>1.076762748624448</v>
+        <v>1.050260985209394</v>
       </c>
       <c r="K20">
-        <v>1.07740940369231</v>
+        <v>1.054787213120921</v>
       </c>
       <c r="L20">
-        <v>1.078499152741268</v>
+        <v>1.049658143721692</v>
       </c>
       <c r="M20">
-        <v>1.089105258677707</v>
+        <v>1.058294484243547</v>
       </c>
       <c r="N20">
-        <v>1.078291875233908</v>
+        <v>1.05175247627501</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.069367665876045</v>
+        <v>1.015754496637066</v>
       </c>
       <c r="D21">
-        <v>1.07300111250601</v>
+        <v>1.035169600438587</v>
       </c>
       <c r="E21">
-        <v>1.073991976580883</v>
+        <v>1.029563375481866</v>
       </c>
       <c r="F21">
-        <v>1.084549643902568</v>
+        <v>1.037949219967736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055093067443015</v>
+        <v>1.051834563841594</v>
       </c>
       <c r="J21">
-        <v>1.075721963184078</v>
+        <v>1.044607983574369</v>
       </c>
       <c r="K21">
-        <v>1.076448779234915</v>
+        <v>1.049513962787871</v>
       </c>
       <c r="L21">
-        <v>1.077436233972284</v>
+        <v>1.044005502055682</v>
       </c>
       <c r="M21">
-        <v>1.087957999797575</v>
+        <v>1.052245616189921</v>
       </c>
       <c r="N21">
-        <v>1.077249611758833</v>
+        <v>1.046091446729255</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.068471811700241</v>
+        <v>1.010663155519213</v>
       </c>
       <c r="D22">
-        <v>1.072269710136006</v>
+        <v>1.03111505263357</v>
       </c>
       <c r="E22">
-        <v>1.073196482670385</v>
+        <v>1.025256001339358</v>
       </c>
       <c r="F22">
-        <v>1.083702523786943</v>
+        <v>1.03339047437187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054803320868781</v>
+        <v>1.049897721746487</v>
       </c>
       <c r="J22">
-        <v>1.075066753298158</v>
+        <v>1.040942363253847</v>
       </c>
       <c r="K22">
-        <v>1.075843894059746</v>
+        <v>1.04609432752009</v>
       </c>
       <c r="L22">
-        <v>1.076767350647457</v>
+        <v>1.040343203487188</v>
       </c>
       <c r="M22">
-        <v>1.087236238669578</v>
+        <v>1.048328263892039</v>
       </c>
       <c r="N22">
-        <v>1.076593471399721</v>
+        <v>1.042420620807426</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.068946747298317</v>
+        <v>1.013377208406577</v>
       </c>
       <c r="D23">
-        <v>1.072657464793446</v>
+        <v>1.033275786434981</v>
       </c>
       <c r="E23">
-        <v>1.073618185388931</v>
+        <v>1.027551272183191</v>
       </c>
       <c r="F23">
-        <v>1.084151581693326</v>
+        <v>1.035819629535044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054957055888587</v>
+        <v>1.050931019876013</v>
       </c>
       <c r="J23">
-        <v>1.075414171376215</v>
+        <v>1.04289658068631</v>
       </c>
       <c r="K23">
-        <v>1.076164641156371</v>
+        <v>1.047917423747746</v>
       </c>
       <c r="L23">
-        <v>1.077121994232896</v>
+        <v>1.042295355648501</v>
       </c>
       <c r="M23">
-        <v>1.087618899566041</v>
+        <v>1.050416213352127</v>
       </c>
       <c r="N23">
-        <v>1.076941382851299</v>
+        <v>1.044377613452795</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070815955848069</v>
+        <v>1.023740110959813</v>
       </c>
       <c r="D24">
-        <v>1.074183485715598</v>
+        <v>1.041539038424125</v>
       </c>
       <c r="E24">
-        <v>1.07527848039289</v>
+        <v>1.036333418167858</v>
       </c>
       <c r="F24">
-        <v>1.085919856982948</v>
+        <v>1.045115459756784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055559309985477</v>
+        <v>1.054858185628976</v>
       </c>
       <c r="J24">
-        <v>1.076780183638629</v>
+        <v>1.050353966692774</v>
       </c>
       <c r="K24">
-        <v>1.077425493497566</v>
+        <v>1.054873942846428</v>
       </c>
       <c r="L24">
-        <v>1.078516962928475</v>
+        <v>1.049751169319719</v>
       </c>
       <c r="M24">
-        <v>1.089124485388675</v>
+        <v>1.058394057744633</v>
       </c>
       <c r="N24">
-        <v>1.078309335007809</v>
+        <v>1.051845589802762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072983987017914</v>
+        <v>1.035165188024499</v>
       </c>
       <c r="D25">
-        <v>1.075953295979195</v>
+        <v>1.050671812831705</v>
       </c>
       <c r="E25">
-        <v>1.077205406938988</v>
+        <v>1.046049096546814</v>
       </c>
       <c r="F25">
-        <v>1.087972684304234</v>
+        <v>1.055402468347594</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056252035535476</v>
+        <v>1.059148544137228</v>
       </c>
       <c r="J25">
-        <v>1.078361820068317</v>
+        <v>1.058564412550149</v>
       </c>
       <c r="K25">
-        <v>1.07888476075272</v>
+        <v>1.062531331653783</v>
       </c>
       <c r="L25">
-        <v>1.080133254338202</v>
+        <v>1.0579722718503</v>
       </c>
       <c r="M25">
-        <v>1.090869797880398</v>
+        <v>1.067197570596475</v>
       </c>
       <c r="N25">
-        <v>1.079893217542644</v>
+        <v>1.060067695435005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043851711972334</v>
+        <v>1.000599314553072</v>
       </c>
       <c r="D2">
-        <v>1.057630029493761</v>
+        <v>1.025480364963385</v>
       </c>
       <c r="E2">
-        <v>1.053459385594095</v>
+        <v>1.006822178789502</v>
       </c>
       <c r="F2">
-        <v>1.063251097860215</v>
+        <v>1.034946666689845</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062377015630435</v>
+        <v>1.046414847931662</v>
       </c>
       <c r="J2">
-        <v>1.064795511249135</v>
+        <v>1.02276211498874</v>
       </c>
       <c r="K2">
-        <v>1.068340889625716</v>
+        <v>1.036595774098916</v>
       </c>
       <c r="L2">
-        <v>1.064220992706828</v>
+        <v>1.018187281046741</v>
       </c>
       <c r="M2">
-        <v>1.073894343991056</v>
+        <v>1.045939696604634</v>
       </c>
       <c r="N2">
-        <v>1.066307643008861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011116305860236</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044930565473565</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036946641322843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049937028337756</v>
+        <v>1.005031700454654</v>
       </c>
       <c r="D3">
-        <v>1.062511459544545</v>
+        <v>1.028321640376005</v>
       </c>
       <c r="E3">
-        <v>1.058662766832893</v>
+        <v>1.010370632110091</v>
       </c>
       <c r="F3">
-        <v>1.068763834688068</v>
+        <v>1.037696299918116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064618399741344</v>
+        <v>1.047218460699587</v>
       </c>
       <c r="J3">
-        <v>1.069153114824096</v>
+        <v>1.025386129804666</v>
       </c>
       <c r="K3">
-        <v>1.072402413080196</v>
+        <v>1.038604524551084</v>
       </c>
       <c r="L3">
-        <v>1.068596283550552</v>
+        <v>1.0208725163707</v>
       </c>
       <c r="M3">
-        <v>1.07858644430948</v>
+        <v>1.047868541076837</v>
       </c>
       <c r="N3">
-        <v>1.070671434880723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012036588085037</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046457105652232</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038364339988862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05377942883533</v>
+        <v>1.007845494615162</v>
       </c>
       <c r="D4">
-        <v>1.065596422498456</v>
+        <v>1.030129479802803</v>
       </c>
       <c r="E4">
-        <v>1.061953484608491</v>
+        <v>1.012629293987368</v>
       </c>
       <c r="F4">
-        <v>1.072250938844127</v>
+        <v>1.039449196371284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066023968212996</v>
+        <v>1.047719207147335</v>
       </c>
       <c r="J4">
-        <v>1.071900785988695</v>
+        <v>1.027050618905148</v>
       </c>
       <c r="K4">
-        <v>1.074962726159067</v>
+        <v>1.039877375143339</v>
       </c>
       <c r="L4">
-        <v>1.071357548050916</v>
+        <v>1.022577647188452</v>
       </c>
       <c r="M4">
-        <v>1.081549074089122</v>
+        <v>1.049093722880466</v>
       </c>
       <c r="N4">
-        <v>1.073423008053537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012619842499801</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047426746338723</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039265255213122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055373006813097</v>
+        <v>1.009020256812734</v>
       </c>
       <c r="D5">
-        <v>1.066876454085582</v>
+        <v>1.030887242181223</v>
       </c>
       <c r="E5">
-        <v>1.063319447708929</v>
+        <v>1.013574236800942</v>
       </c>
       <c r="F5">
-        <v>1.073698602859141</v>
+        <v>1.040183472466035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066604539218561</v>
+        <v>1.047927629252344</v>
       </c>
       <c r="J5">
-        <v>1.073039382235209</v>
+        <v>1.027746880392507</v>
       </c>
       <c r="K5">
-        <v>1.07602351380925</v>
+        <v>1.040411022644576</v>
       </c>
       <c r="L5">
-        <v>1.072502357686823</v>
+        <v>1.023290984515382</v>
       </c>
       <c r="M5">
-        <v>1.082777710941589</v>
+        <v>1.049606886594995</v>
       </c>
       <c r="N5">
-        <v>1.074563221237321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012864255056677</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04783287704649</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03964976410446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055639327719324</v>
+        <v>1.009222120574125</v>
       </c>
       <c r="D6">
-        <v>1.067090407560698</v>
+        <v>1.031020000096515</v>
       </c>
       <c r="E6">
-        <v>1.063547797484947</v>
+        <v>1.01373735661522</v>
       </c>
       <c r="F6">
-        <v>1.073940621458765</v>
+        <v>1.040310641299763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066701424627911</v>
+        <v>1.047965332293337</v>
       </c>
       <c r="J6">
-        <v>1.073229608340718</v>
+        <v>1.02786854734468</v>
       </c>
       <c r="K6">
-        <v>1.076200730084981</v>
+        <v>1.040506134996024</v>
       </c>
       <c r="L6">
-        <v>1.072693655863915</v>
+        <v>1.023415226320566</v>
       </c>
       <c r="M6">
-        <v>1.082983036789503</v>
+        <v>1.049696929361787</v>
       </c>
       <c r="N6">
-        <v>1.074753717485718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012907643258555</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047904139140388</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039725764681436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053800806524308</v>
+        <v>1.007875655791458</v>
       </c>
       <c r="D7">
-        <v>1.06561359174536</v>
+        <v>1.030155622946809</v>
       </c>
       <c r="E7">
-        <v>1.06197180424735</v>
+        <v>1.01265535744294</v>
       </c>
       <c r="F7">
-        <v>1.072270353493745</v>
+        <v>1.039470443288178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06603176592926</v>
+        <v>1.047730026551768</v>
       </c>
       <c r="J7">
-        <v>1.071916063991953</v>
+        <v>1.027074006919372</v>
       </c>
       <c r="K7">
-        <v>1.074976960790578</v>
+        <v>1.03990034109527</v>
       </c>
       <c r="L7">
-        <v>1.071372907137768</v>
+        <v>1.022600454726298</v>
       </c>
       <c r="M7">
-        <v>1.081565556473316</v>
+        <v>1.049111887135808</v>
       </c>
       <c r="N7">
-        <v>1.073438307753313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01262992927997</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047441121992386</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039301618652055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045928624946698</v>
+        <v>1.002127042586933</v>
       </c>
       <c r="D8">
-        <v>1.059295444664031</v>
+        <v>1.026467134661701</v>
       </c>
       <c r="E8">
-        <v>1.055234167037307</v>
+        <v>1.008046354205972</v>
       </c>
       <c r="F8">
-        <v>1.065131240782195</v>
+        <v>1.035895841024457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063144008803444</v>
+        <v>1.046700591035288</v>
       </c>
       <c r="J8">
-        <v>1.066283531695162</v>
+        <v>1.023673723271067</v>
       </c>
       <c r="K8">
-        <v>1.069727939270096</v>
+        <v>1.037300140221749</v>
       </c>
       <c r="L8">
-        <v>1.065714535996256</v>
+        <v>1.019118424546387</v>
       </c>
       <c r="M8">
-        <v>1.075495733008212</v>
+        <v>1.04661057942935</v>
       </c>
       <c r="N8">
-        <v>1.067797776614599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011438605825663</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04546152081811</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037467636918615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031277901141308</v>
+        <v>0.9915368469121568</v>
       </c>
       <c r="D9">
-        <v>1.047561932598466</v>
+        <v>1.019697044306009</v>
       </c>
       <c r="E9">
-        <v>1.042739494142193</v>
+        <v>0.9996024061282944</v>
       </c>
       <c r="F9">
-        <v>1.051897846206815</v>
+        <v>1.02936862054613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057693964656384</v>
+        <v>1.044722533675234</v>
       </c>
       <c r="J9">
-        <v>1.055772525957136</v>
+        <v>1.01739204183967</v>
       </c>
       <c r="K9">
-        <v>1.059927760749851</v>
+        <v>1.032478434229454</v>
       </c>
       <c r="L9">
-        <v>1.055175225202086</v>
+        <v>1.012701937310981</v>
       </c>
       <c r="M9">
-        <v>1.064201516264454</v>
+        <v>1.042002527960783</v>
       </c>
       <c r="N9">
-        <v>1.057271844042796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009230782908657</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041814572818468</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03405516255274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02091108682655</v>
+        <v>0.9842194096682484</v>
       </c>
       <c r="D10">
-        <v>1.039281206178453</v>
+        <v>1.015077627584607</v>
       </c>
       <c r="E10">
-        <v>1.033933069726113</v>
+        <v>0.9938143247979606</v>
       </c>
       <c r="F10">
-        <v>1.042574473080567</v>
+        <v>1.024999748809118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053789150724099</v>
+        <v>1.043338741120615</v>
       </c>
       <c r="J10">
-        <v>1.048318925688725</v>
+        <v>1.013073428797524</v>
       </c>
       <c r="K10">
-        <v>1.052975685551598</v>
+        <v>1.029179884525896</v>
       </c>
       <c r="L10">
-        <v>1.047715538270386</v>
+        <v>1.008296168945003</v>
       </c>
       <c r="M10">
-        <v>1.056215347313351</v>
+        <v>1.038931833747794</v>
       </c>
       <c r="N10">
-        <v>1.049807658807065</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007720317749771</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039435703261223</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031739740901005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016260844640972</v>
+        <v>0.9814935895606752</v>
       </c>
       <c r="D11">
-        <v>1.03557311281843</v>
+        <v>1.013594457367987</v>
       </c>
       <c r="E11">
-        <v>1.029992138069826</v>
+        <v>0.9917435626911986</v>
       </c>
       <c r="F11">
-        <v>1.038403033100937</v>
+        <v>1.024133837351305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052026820307939</v>
+        <v>1.043037683572793</v>
       </c>
       <c r="J11">
-        <v>1.044972457822403</v>
+        <v>1.011657050563117</v>
       </c>
       <c r="K11">
-        <v>1.049853969675619</v>
+        <v>1.028264476505906</v>
       </c>
       <c r="L11">
-        <v>1.044369776259294</v>
+        <v>1.006822881285979</v>
       </c>
       <c r="M11">
-        <v>1.052635329039215</v>
+        <v>1.038614538155945</v>
       </c>
       <c r="N11">
-        <v>1.046456438572527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007302466305137</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039620233756931</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031125511600385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014507487038204</v>
+        <v>0.9806481635872024</v>
       </c>
       <c r="D12">
-        <v>1.034176060751871</v>
+        <v>1.013225345320509</v>
       </c>
       <c r="E12">
-        <v>1.028507734073987</v>
+        <v>0.9911369384339944</v>
       </c>
       <c r="F12">
-        <v>1.03683192511174</v>
+        <v>1.024181677695644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051360792758986</v>
+        <v>1.043034263157346</v>
       </c>
       <c r="J12">
-        <v>1.043710306378085</v>
+        <v>1.011294724774009</v>
       </c>
       <c r="K12">
-        <v>1.048676539384051</v>
+        <v>1.028103480340381</v>
       </c>
       <c r="L12">
-        <v>1.043108418998837</v>
+        <v>1.006435933675067</v>
       </c>
       <c r="M12">
-        <v>1.051285940722287</v>
+        <v>1.038859809784271</v>
       </c>
       <c r="N12">
-        <v>1.045192494728387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007238421394036</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040140169575676</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031011680993332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014884798061017</v>
+        <v>0.981216120675252</v>
       </c>
       <c r="D13">
-        <v>1.034476646896703</v>
+        <v>1.013712484033361</v>
       </c>
       <c r="E13">
-        <v>1.028827098089072</v>
+        <v>0.9916342203376882</v>
       </c>
       <c r="F13">
-        <v>1.037169937825638</v>
+        <v>1.024965542237255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05150418622575</v>
+        <v>1.043276007236854</v>
       </c>
       <c r="J13">
-        <v>1.043981928855686</v>
+        <v>1.011741669110945</v>
       </c>
       <c r="K13">
-        <v>1.048929931167141</v>
+        <v>1.028538438617881</v>
       </c>
       <c r="L13">
-        <v>1.04337984652825</v>
+        <v>1.006878890631234</v>
       </c>
       <c r="M13">
-        <v>1.051576298525926</v>
+        <v>1.039587095394189</v>
       </c>
       <c r="N13">
-        <v>1.045464502941062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.0074524927622</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040991489230561</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031316708374654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016116454079226</v>
+        <v>0.9822540180950285</v>
       </c>
       <c r="D14">
-        <v>1.035458041906647</v>
+        <v>1.014441437783353</v>
       </c>
       <c r="E14">
-        <v>1.029869864783759</v>
+        <v>0.9924825053854094</v>
       </c>
       <c r="F14">
-        <v>1.038273615425764</v>
+        <v>1.025846160924183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051972003347534</v>
+        <v>1.043555695504454</v>
       </c>
       <c r="J14">
-        <v>1.044868525740345</v>
+        <v>1.012420889412653</v>
       </c>
       <c r="K14">
-        <v>1.049757014807218</v>
+        <v>1.029112672233979</v>
       </c>
       <c r="L14">
-        <v>1.044265898786538</v>
+        <v>1.0075647539385</v>
       </c>
       <c r="M14">
-        <v>1.052524196104517</v>
+        <v>1.040312931890383</v>
       </c>
       <c r="N14">
-        <v>1.046352358894991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007728442486796</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041738319288548</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031724145845712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016871808878816</v>
+        <v>0.9828209935157167</v>
       </c>
       <c r="D15">
-        <v>1.03606006022121</v>
+        <v>1.014815677321538</v>
       </c>
       <c r="E15">
-        <v>1.030509578920358</v>
+        <v>0.9929360060059061</v>
       </c>
       <c r="F15">
-        <v>1.038950712714534</v>
+        <v>1.026239769842188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052258706446998</v>
+        <v>1.043682900803417</v>
       </c>
       <c r="J15">
-        <v>1.045412213941101</v>
+        <v>1.012770790091215</v>
       </c>
       <c r="K15">
-        <v>1.050264202120728</v>
+        <v>1.029393091154629</v>
       </c>
       <c r="L15">
-        <v>1.044809322874939</v>
+        <v>1.007919703704357</v>
       </c>
       <c r="M15">
-        <v>1.053105587948965</v>
+        <v>1.040613969259647</v>
       </c>
       <c r="N15">
-        <v>1.046896819195354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007859649069458</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042013742250304</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031928311233614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021216158188119</v>
+        <v>0.9858156255526934</v>
       </c>
       <c r="D16">
-        <v>1.039524611387352</v>
+        <v>1.016687477937551</v>
       </c>
       <c r="E16">
-        <v>1.03419181102246</v>
+        <v>0.9952880822111174</v>
       </c>
       <c r="F16">
-        <v>1.042848365230547</v>
+        <v>1.027979041846246</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05390454781252</v>
+        <v>1.044241294849339</v>
       </c>
       <c r="J16">
-        <v>1.048538408797102</v>
+        <v>1.014524914246647</v>
       </c>
       <c r="K16">
-        <v>1.053180420647214</v>
+        <v>1.030726019955954</v>
       </c>
       <c r="L16">
-        <v>1.047935047416524</v>
+        <v>1.009706006531569</v>
       </c>
       <c r="M16">
-        <v>1.056450264719524</v>
+        <v>1.041825606288114</v>
       </c>
       <c r="N16">
-        <v>1.050027453606631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008461931867868</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04293276257834</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03287392445139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023896833359499</v>
+        <v>0.9875711883089489</v>
       </c>
       <c r="D17">
-        <v>1.041664160740821</v>
+        <v>1.017743362882741</v>
       </c>
       <c r="E17">
-        <v>1.036466455516114</v>
+        <v>0.9966515955510936</v>
       </c>
       <c r="F17">
-        <v>1.045256297424273</v>
+        <v>1.028847423019324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054917336112716</v>
+        <v>1.044520893700457</v>
       </c>
       <c r="J17">
-        <v>1.050466683865888</v>
+        <v>1.015515510785334</v>
       </c>
       <c r="K17">
-        <v>1.054979081018561</v>
+        <v>1.031447278200221</v>
       </c>
       <c r="L17">
-        <v>1.049863942192709</v>
+        <v>1.010718590251221</v>
       </c>
       <c r="M17">
-        <v>1.058514769711947</v>
+        <v>1.042367876279471</v>
       </c>
       <c r="N17">
-        <v>1.05195846704719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008779554526423</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043232573807957</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033386480582533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025444989797323</v>
+        <v>0.9884121220640468</v>
       </c>
       <c r="D18">
-        <v>1.042900399724371</v>
+        <v>1.018167424890589</v>
       </c>
       <c r="E18">
-        <v>1.037780996770868</v>
+        <v>0.9972752377623502</v>
       </c>
       <c r="F18">
-        <v>1.046647945846468</v>
+        <v>1.028989130969404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055501226540593</v>
+        <v>1.044571766514312</v>
       </c>
       <c r="J18">
-        <v>1.051580021461483</v>
+        <v>1.015920168297269</v>
       </c>
       <c r="K18">
-        <v>1.056017541583846</v>
+        <v>1.031679764174325</v>
       </c>
       <c r="L18">
-        <v>1.050977961453768</v>
+        <v>1.011141170489501</v>
       </c>
       <c r="M18">
-        <v>1.059707286906279</v>
+        <v>1.042325556895334</v>
       </c>
       <c r="N18">
-        <v>1.053073385709872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008872197133926</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042961885777175</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033539175980036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02597030507474</v>
+        <v>0.9884393853566056</v>
       </c>
       <c r="D19">
-        <v>1.043319974169526</v>
+        <v>1.018033974449485</v>
       </c>
       <c r="E19">
-        <v>1.038227188454287</v>
+        <v>0.9972437967354785</v>
       </c>
       <c r="F19">
-        <v>1.047120323334709</v>
+        <v>1.028475175219384</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055699175348968</v>
+        <v>1.044425953606664</v>
       </c>
       <c r="J19">
-        <v>1.051957744307055</v>
+        <v>1.015809139267294</v>
       </c>
       <c r="K19">
-        <v>1.056369853450956</v>
+        <v>1.031485598706874</v>
       </c>
       <c r="L19">
-        <v>1.051355970184925</v>
+        <v>1.011045476142738</v>
       </c>
       <c r="M19">
-        <v>1.060111961549902</v>
+        <v>1.041757839934257</v>
       </c>
       <c r="N19">
-        <v>1.053451644965211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008774412010693</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042188146054656</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033408313524868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023610831431023</v>
+        <v>0.9861582544657387</v>
       </c>
       <c r="D20">
-        <v>1.041435829007568</v>
+        <v>1.016317886040876</v>
       </c>
       <c r="E20">
-        <v>1.03622368127617</v>
+        <v>0.9953511377424097</v>
       </c>
       <c r="F20">
-        <v>1.044999289157767</v>
+        <v>1.02616526024813</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054809386903623</v>
+        <v>1.043723927725051</v>
       </c>
       <c r="J20">
-        <v>1.050260985209394</v>
+        <v>1.014233380726464</v>
       </c>
       <c r="K20">
-        <v>1.054787213120921</v>
+        <v>1.030079747943517</v>
       </c>
       <c r="L20">
-        <v>1.049658143721692</v>
+        <v>1.009476227331012</v>
       </c>
       <c r="M20">
-        <v>1.058294484243547</v>
+        <v>1.039763116027046</v>
       </c>
       <c r="N20">
-        <v>1.05175247627501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008132312674841</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040083037933205</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032418258074372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015754496637066</v>
+        <v>0.9805495364328062</v>
       </c>
       <c r="D21">
-        <v>1.035169600438587</v>
+        <v>1.012740762864832</v>
       </c>
       <c r="E21">
-        <v>1.029563375481866</v>
+        <v>0.9909136910506214</v>
       </c>
       <c r="F21">
-        <v>1.037949219967736</v>
+        <v>1.022686685794087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051834563841594</v>
+        <v>1.042602980822678</v>
       </c>
       <c r="J21">
-        <v>1.044607983574369</v>
+        <v>1.010883599784974</v>
       </c>
       <c r="K21">
-        <v>1.049513962787871</v>
+        <v>1.027484712109415</v>
       </c>
       <c r="L21">
-        <v>1.044005502055682</v>
+        <v>1.006069275604037</v>
       </c>
       <c r="M21">
-        <v>1.052245616189921</v>
+        <v>1.037250632310102</v>
       </c>
       <c r="N21">
-        <v>1.046091446729255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006945642837681</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038053763049784</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030586707481774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010663155519213</v>
+        <v>0.9769598071781763</v>
       </c>
       <c r="D22">
-        <v>1.03111505263357</v>
+        <v>1.010466077837112</v>
       </c>
       <c r="E22">
-        <v>1.025256001339358</v>
+        <v>0.9880845674332573</v>
       </c>
       <c r="F22">
-        <v>1.03339047437187</v>
+        <v>1.020516838797302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049897721746487</v>
+        <v>1.041884760143582</v>
       </c>
       <c r="J22">
-        <v>1.040942363253847</v>
+        <v>1.008745656722416</v>
       </c>
       <c r="K22">
-        <v>1.04609432752009</v>
+        <v>1.02583301237014</v>
       </c>
       <c r="L22">
-        <v>1.040343203487188</v>
+        <v>1.003895825513934</v>
       </c>
       <c r="M22">
-        <v>1.048328263892039</v>
+        <v>1.035692523222436</v>
       </c>
       <c r="N22">
-        <v>1.042420620807426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006189827874227</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036820618905447</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029405291264718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013377208406577</v>
+        <v>0.9788560280998021</v>
       </c>
       <c r="D23">
-        <v>1.033275786434981</v>
+        <v>1.011660753544765</v>
       </c>
       <c r="E23">
-        <v>1.027551272183191</v>
+        <v>0.9895759922928294</v>
       </c>
       <c r="F23">
-        <v>1.035819629535044</v>
+        <v>1.021659560880159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050931019876013</v>
+        <v>1.042259959070803</v>
       </c>
       <c r="J23">
-        <v>1.04289658068631</v>
+        <v>1.009869752566491</v>
       </c>
       <c r="K23">
-        <v>1.047917423747746</v>
+        <v>1.026697149432669</v>
       </c>
       <c r="L23">
-        <v>1.042295355648501</v>
+        <v>1.005039144756549</v>
       </c>
       <c r="M23">
-        <v>1.050416213352127</v>
+        <v>1.036510643635344</v>
       </c>
       <c r="N23">
-        <v>1.044377613452795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006585091972573</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037468109391815</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030006584912597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023740110959813</v>
+        <v>0.9861781592041009</v>
       </c>
       <c r="D24">
-        <v>1.041539038424125</v>
+        <v>1.016298752631379</v>
       </c>
       <c r="E24">
-        <v>1.036333418167858</v>
+        <v>0.9953567260574128</v>
       </c>
       <c r="F24">
-        <v>1.045115459756784</v>
+        <v>1.026099482365996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054858185628976</v>
+        <v>1.043698702015596</v>
       </c>
       <c r="J24">
-        <v>1.050353966692774</v>
+        <v>1.014218850890758</v>
       </c>
       <c r="K24">
-        <v>1.054873942846428</v>
+        <v>1.030045564463366</v>
       </c>
       <c r="L24">
-        <v>1.049751169319719</v>
+        <v>1.009465876427074</v>
       </c>
       <c r="M24">
-        <v>1.058394057744633</v>
+        <v>1.039683256702682</v>
       </c>
       <c r="N24">
-        <v>1.051845589802762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008117230704295</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039979026128747</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032366555843145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035165188024499</v>
+        <v>0.994353450131036</v>
       </c>
       <c r="D25">
-        <v>1.050671812831705</v>
+        <v>1.02150360467205</v>
       </c>
       <c r="E25">
-        <v>1.046049096546814</v>
+        <v>1.0018452911495</v>
       </c>
       <c r="F25">
-        <v>1.055402468347594</v>
+        <v>1.031100762030688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059148544137228</v>
+        <v>1.045265500737733</v>
       </c>
       <c r="J25">
-        <v>1.058564412550149</v>
+        <v>1.019072349005853</v>
       </c>
       <c r="K25">
-        <v>1.062531331653783</v>
+        <v>1.033777030255853</v>
       </c>
       <c r="L25">
-        <v>1.0579722718503</v>
+        <v>1.014415028729546</v>
       </c>
       <c r="M25">
-        <v>1.067197570596475</v>
+        <v>1.043234727578596</v>
       </c>
       <c r="N25">
-        <v>1.060067695435005</v>
+        <v>1.009825119996794</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042789773769317</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035002036945744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000599314553072</v>
+        <v>1.000632824232057</v>
       </c>
       <c r="D2">
-        <v>1.025480364963385</v>
+        <v>1.025038189506461</v>
       </c>
       <c r="E2">
-        <v>1.006822178789502</v>
+        <v>1.00688001270717</v>
       </c>
       <c r="F2">
-        <v>1.034946666689845</v>
+        <v>1.034649463157416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046414847931662</v>
+        <v>1.046264680180449</v>
       </c>
       <c r="J2">
-        <v>1.02276211498874</v>
+        <v>1.022794624095821</v>
       </c>
       <c r="K2">
-        <v>1.036595774098916</v>
+        <v>1.036159384264072</v>
       </c>
       <c r="L2">
-        <v>1.018187281046741</v>
+        <v>1.018244322998304</v>
       </c>
       <c r="M2">
-        <v>1.045939696604634</v>
+        <v>1.04564629272825</v>
       </c>
       <c r="N2">
-        <v>1.011116305860236</v>
+        <v>1.012986134926598</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044930565473565</v>
+        <v>1.044698357356638</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036946641322843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036646867325338</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021588155786257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005031700454654</v>
+        <v>1.004816052172416</v>
       </c>
       <c r="D3">
-        <v>1.028321640376005</v>
+        <v>1.027626898341093</v>
       </c>
       <c r="E3">
-        <v>1.010370632110091</v>
+        <v>1.01020845983629</v>
       </c>
       <c r="F3">
-        <v>1.037696299918116</v>
+        <v>1.037222319055762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047218460699587</v>
+        <v>1.04695518212813</v>
       </c>
       <c r="J3">
-        <v>1.025386129804666</v>
+        <v>1.02517628225134</v>
       </c>
       <c r="K3">
-        <v>1.038604524551084</v>
+        <v>1.037918081733582</v>
       </c>
       <c r="L3">
-        <v>1.0208725163707</v>
+        <v>1.020712366775593</v>
       </c>
       <c r="M3">
-        <v>1.047868541076837</v>
+        <v>1.047400094916412</v>
       </c>
       <c r="N3">
-        <v>1.012036588085037</v>
+        <v>1.013647678219457</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046457105652232</v>
+        <v>1.046086364862393</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038364339988862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037887476356159</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021967037106796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007845494615162</v>
+        <v>1.007473895307232</v>
       </c>
       <c r="D4">
-        <v>1.030129479802803</v>
+        <v>1.029275737812565</v>
       </c>
       <c r="E4">
-        <v>1.012629293987368</v>
+        <v>1.012329262550171</v>
       </c>
       <c r="F4">
-        <v>1.039449196371284</v>
+        <v>1.038864127821626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047719207147335</v>
+        <v>1.047384697779494</v>
       </c>
       <c r="J4">
-        <v>1.027050618905148</v>
+        <v>1.026688331210836</v>
       </c>
       <c r="K4">
-        <v>1.039877375143339</v>
+        <v>1.039033217608397</v>
       </c>
       <c r="L4">
-        <v>1.022577647188452</v>
+        <v>1.022281127243571</v>
       </c>
       <c r="M4">
-        <v>1.049093722880466</v>
+        <v>1.048515076535968</v>
       </c>
       <c r="N4">
-        <v>1.012619842499801</v>
+        <v>1.014067432294824</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047426746338723</v>
+        <v>1.046968790758161</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039265255213122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038676953196199</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022204817768986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009020256812734</v>
+        <v>1.008583947418483</v>
       </c>
       <c r="D5">
-        <v>1.030887242181223</v>
+        <v>1.02996740344401</v>
       </c>
       <c r="E5">
-        <v>1.013574236800942</v>
+        <v>1.013216956144503</v>
       </c>
       <c r="F5">
-        <v>1.040183472466035</v>
+        <v>1.039552264975089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047927629252344</v>
+        <v>1.047563473789017</v>
       </c>
       <c r="J5">
-        <v>1.027746880392507</v>
+        <v>1.02732117384353</v>
       </c>
       <c r="K5">
-        <v>1.040411022644576</v>
+        <v>1.039501235835192</v>
       </c>
       <c r="L5">
-        <v>1.023290984515382</v>
+        <v>1.022937771674374</v>
       </c>
       <c r="M5">
-        <v>1.049606886594995</v>
+        <v>1.048982424327507</v>
       </c>
       <c r="N5">
-        <v>1.012864255056677</v>
+        <v>1.014243474858644</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04783287704649</v>
+        <v>1.047338661827069</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03964976410446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039015765740617</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022304562069849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009222120574125</v>
+        <v>1.00877459065818</v>
       </c>
       <c r="D6">
-        <v>1.031020000096515</v>
+        <v>1.030088791784283</v>
       </c>
       <c r="E6">
-        <v>1.01373735661522</v>
+        <v>1.013370127903531</v>
       </c>
       <c r="F6">
-        <v>1.040310641299763</v>
+        <v>1.039671492992074</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047965332293337</v>
+        <v>1.047596038596023</v>
       </c>
       <c r="J6">
-        <v>1.02786854734468</v>
+        <v>1.027431836357561</v>
       </c>
       <c r="K6">
-        <v>1.040506134996024</v>
+        <v>1.039585056267834</v>
       </c>
       <c r="L6">
-        <v>1.023415226320566</v>
+        <v>1.023052159121862</v>
       </c>
       <c r="M6">
-        <v>1.049696929361787</v>
+        <v>1.049064580022895</v>
       </c>
       <c r="N6">
-        <v>1.012907643258555</v>
+        <v>1.014274770362581</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047904139140388</v>
+        <v>1.047403681939446</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039725764681436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039084649538631</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022323054443558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007875655791458</v>
+        <v>1.00751304833897</v>
       </c>
       <c r="D7">
-        <v>1.030155622946809</v>
+        <v>1.029307504258868</v>
       </c>
       <c r="E7">
-        <v>1.01265535744294</v>
+        <v>1.012363601830058</v>
       </c>
       <c r="F7">
-        <v>1.039470443288178</v>
+        <v>1.038889376500485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047730026551768</v>
+        <v>1.047398229725928</v>
       </c>
       <c r="J7">
-        <v>1.027074006919372</v>
+        <v>1.026720481598228</v>
       </c>
       <c r="K7">
-        <v>1.03990034109527</v>
+        <v>1.039061739899014</v>
       </c>
       <c r="L7">
-        <v>1.022600454726298</v>
+        <v>1.022312112351659</v>
       </c>
       <c r="M7">
-        <v>1.049111887135808</v>
+        <v>1.048537196154589</v>
       </c>
       <c r="N7">
-        <v>1.01262992927997</v>
+        <v>1.014104185172651</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047441121992386</v>
+        <v>1.04698629679774</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039301618652055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038719241383331</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022213516147081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002127042586933</v>
+        <v>1.002107778972989</v>
       </c>
       <c r="D8">
-        <v>1.026467134661701</v>
+        <v>1.025960592465405</v>
       </c>
       <c r="E8">
-        <v>1.008046354205972</v>
+        <v>1.008058867890116</v>
       </c>
       <c r="F8">
-        <v>1.035895841024457</v>
+        <v>1.035553820427806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046700591035288</v>
+        <v>1.046522452573405</v>
       </c>
       <c r="J8">
-        <v>1.023673723271067</v>
+        <v>1.02365501522324</v>
       </c>
       <c r="K8">
-        <v>1.037300140221749</v>
+        <v>1.036800028562355</v>
       </c>
       <c r="L8">
-        <v>1.019118424546387</v>
+        <v>1.019130772106827</v>
       </c>
       <c r="M8">
-        <v>1.04661057942935</v>
+        <v>1.046272802013645</v>
       </c>
       <c r="N8">
-        <v>1.011438605825663</v>
+        <v>1.013307493836492</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04546152081811</v>
+        <v>1.045194194415797</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037467636918615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037125066549898</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021731516783669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9915368469121568</v>
+        <v>0.9921328399889134</v>
       </c>
       <c r="D9">
-        <v>1.019697044306009</v>
+        <v>1.019806305719094</v>
       </c>
       <c r="E9">
-        <v>0.9996024061282944</v>
+        <v>1.000157364330058</v>
       </c>
       <c r="F9">
-        <v>1.02936862054613</v>
+        <v>1.029459035554892</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044722533675234</v>
+        <v>1.044820347044746</v>
       </c>
       <c r="J9">
-        <v>1.01739204183967</v>
+        <v>1.01796649973723</v>
       </c>
       <c r="K9">
-        <v>1.032478434229454</v>
+        <v>1.032586009561765</v>
       </c>
       <c r="L9">
-        <v>1.012701937310981</v>
+        <v>1.013247888923576</v>
       </c>
       <c r="M9">
-        <v>1.042002527960783</v>
+        <v>1.042091580873326</v>
       </c>
       <c r="N9">
-        <v>1.009230782908657</v>
+        <v>1.011734723926022</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041814572818468</v>
+        <v>1.041885052096262</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03405516255274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034142005763339</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020808403987064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9842194096682484</v>
+        <v>0.9852990280144547</v>
       </c>
       <c r="D10">
-        <v>1.015077627584607</v>
+        <v>1.015649589453629</v>
       </c>
       <c r="E10">
-        <v>0.9938143247979606</v>
+        <v>0.9947957433836605</v>
       </c>
       <c r="F10">
-        <v>1.024999748809118</v>
+        <v>1.025416697629603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043338741120615</v>
+        <v>1.04364421187219</v>
       </c>
       <c r="J10">
-        <v>1.013073428797524</v>
+        <v>1.01410830457789</v>
       </c>
       <c r="K10">
-        <v>1.029179884525896</v>
+        <v>1.029741919945115</v>
       </c>
       <c r="L10">
-        <v>1.008296168945003</v>
+        <v>1.009259602375536</v>
       </c>
       <c r="M10">
-        <v>1.038931833747794</v>
+        <v>1.039341724618378</v>
       </c>
       <c r="N10">
-        <v>1.007720317749771</v>
+        <v>1.010787586195259</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039435703261223</v>
+        <v>1.039760084641221</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031739740901005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03214960290907</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020184101568085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9814935895606752</v>
+        <v>0.9827819785566807</v>
       </c>
       <c r="D11">
-        <v>1.013594457367987</v>
+        <v>1.014346528671001</v>
       </c>
       <c r="E11">
-        <v>0.9917435626911986</v>
+        <v>0.9929068273096661</v>
       </c>
       <c r="F11">
-        <v>1.024133837351305</v>
+        <v>1.024676633547481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043037683572793</v>
+        <v>1.043417258296245</v>
       </c>
       <c r="J11">
-        <v>1.011657050563117</v>
+        <v>1.012889014066754</v>
       </c>
       <c r="K11">
-        <v>1.028264476505906</v>
+        <v>1.02900286880049</v>
       </c>
       <c r="L11">
-        <v>1.006822881285979</v>
+        <v>1.007963761767372</v>
       </c>
       <c r="M11">
-        <v>1.038614538155945</v>
+        <v>1.039147720913741</v>
       </c>
       <c r="N11">
-        <v>1.007302466305137</v>
+        <v>1.010737747878841</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039620233756931</v>
+        <v>1.040041974876361</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031125511600385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031663269292574</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020082120045348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9806481635872024</v>
+        <v>0.98198863764861</v>
       </c>
       <c r="D12">
-        <v>1.013225345320509</v>
+        <v>1.014018997823023</v>
       </c>
       <c r="E12">
-        <v>0.9911369384339944</v>
+        <v>0.9923427498481383</v>
       </c>
       <c r="F12">
-        <v>1.024181677695644</v>
+        <v>1.024752334444949</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043034263157346</v>
+        <v>1.043425856981768</v>
       </c>
       <c r="J12">
-        <v>1.011294724774009</v>
+        <v>1.012575327384426</v>
       </c>
       <c r="K12">
-        <v>1.028103480340381</v>
+        <v>1.028882455803743</v>
       </c>
       <c r="L12">
-        <v>1.006435933675067</v>
+        <v>1.007618135888219</v>
       </c>
       <c r="M12">
-        <v>1.038859809784271</v>
+        <v>1.039420201710354</v>
       </c>
       <c r="N12">
-        <v>1.007238421394036</v>
+        <v>1.010797126154427</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040140169575676</v>
+        <v>1.040583283264745</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031011680993332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031578134493788</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020098680955549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981216120675252</v>
+        <v>0.9824719345232625</v>
       </c>
       <c r="D13">
-        <v>1.013712484033361</v>
+        <v>1.014429838684386</v>
       </c>
       <c r="E13">
-        <v>0.9916342203376882</v>
+        <v>0.9927604880224109</v>
       </c>
       <c r="F13">
-        <v>1.024965542237255</v>
+        <v>1.025480591944716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043276007236854</v>
+        <v>1.04362628514259</v>
       </c>
       <c r="J13">
-        <v>1.011741669110945</v>
+        <v>1.012941684642374</v>
       </c>
       <c r="K13">
-        <v>1.028538438617881</v>
+        <v>1.029242586870047</v>
       </c>
       <c r="L13">
-        <v>1.006878890631234</v>
+        <v>1.007983207422362</v>
       </c>
       <c r="M13">
-        <v>1.039587095394189</v>
+        <v>1.0400929291189</v>
       </c>
       <c r="N13">
-        <v>1.0074524927622</v>
+        <v>1.010912697604161</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040991489230561</v>
+        <v>1.041391362417347</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031316708374654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031830009199475</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020212728612084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9822540180950285</v>
+        <v>0.9833897587470563</v>
       </c>
       <c r="D14">
-        <v>1.014441437783353</v>
+        <v>1.015053086103291</v>
       </c>
       <c r="E14">
-        <v>0.9924825053854094</v>
+        <v>0.9934990800402631</v>
       </c>
       <c r="F14">
-        <v>1.025846160924183</v>
+        <v>1.026285411797252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043555695504454</v>
+        <v>1.043853786289517</v>
       </c>
       <c r="J14">
-        <v>1.012420889412653</v>
+        <v>1.01350691749253</v>
       </c>
       <c r="K14">
-        <v>1.029112672233979</v>
+        <v>1.02971320325527</v>
       </c>
       <c r="L14">
-        <v>1.0075647539385</v>
+        <v>1.008561775773968</v>
       </c>
       <c r="M14">
-        <v>1.040312931890383</v>
+        <v>1.040744425733561</v>
       </c>
       <c r="N14">
-        <v>1.007728442486796</v>
+        <v>1.011020808022538</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041738319288548</v>
+        <v>1.042079379187499</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031724145845712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032164315689035</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020337171063996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9828209935157167</v>
+        <v>0.9838981660045446</v>
       </c>
       <c r="D15">
-        <v>1.014815677321538</v>
+        <v>1.015376098640947</v>
       </c>
       <c r="E15">
-        <v>0.9929360060059061</v>
+        <v>0.9938998513647835</v>
       </c>
       <c r="F15">
-        <v>1.026239769842188</v>
+        <v>1.026642586629197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043682900803417</v>
+        <v>1.043956895074528</v>
       </c>
       <c r="J15">
-        <v>1.012770790091215</v>
+        <v>1.013801240583815</v>
       </c>
       <c r="K15">
-        <v>1.029393091154629</v>
+        <v>1.029943404933074</v>
       </c>
       <c r="L15">
-        <v>1.007919703704357</v>
+        <v>1.008865158687478</v>
       </c>
       <c r="M15">
-        <v>1.040613969259647</v>
+        <v>1.041009727589251</v>
       </c>
       <c r="N15">
-        <v>1.007859649069458</v>
+        <v>1.011065140072096</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042013742250304</v>
+        <v>1.042326547998623</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031928311233614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032333540410906</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020392283156661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9858156255526934</v>
+        <v>0.9866260621766684</v>
       </c>
       <c r="D16">
-        <v>1.016687477937551</v>
+        <v>1.017012924346812</v>
       </c>
       <c r="E16">
-        <v>0.9952880822111174</v>
+        <v>0.9960157202192486</v>
       </c>
       <c r="F16">
-        <v>1.027979041846246</v>
+        <v>1.028216233540361</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044241294849339</v>
+        <v>1.044410528869785</v>
       </c>
       <c r="J16">
-        <v>1.014524914246647</v>
+        <v>1.015302012831378</v>
       </c>
       <c r="K16">
-        <v>1.030726019955954</v>
+        <v>1.031045856021135</v>
       </c>
       <c r="L16">
-        <v>1.009706006531569</v>
+        <v>1.010420396130451</v>
       </c>
       <c r="M16">
-        <v>1.041825606288114</v>
+        <v>1.04205882356455</v>
       </c>
       <c r="N16">
-        <v>1.008461931867868</v>
+        <v>1.011260734565949</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04293276257834</v>
+        <v>1.043117101805553</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03287392445139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033116488809238</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020626673474715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9875711883089489</v>
+        <v>0.9882533767011282</v>
       </c>
       <c r="D17">
-        <v>1.017743362882741</v>
+        <v>1.017953009473901</v>
       </c>
       <c r="E17">
-        <v>0.9966515955510936</v>
+        <v>0.9972674805238908</v>
       </c>
       <c r="F17">
-        <v>1.028847423019324</v>
+        <v>1.029003678452781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044520893700457</v>
+        <v>1.044640998140631</v>
       </c>
       <c r="J17">
-        <v>1.015515510785334</v>
+        <v>1.016170566498392</v>
       </c>
       <c r="K17">
-        <v>1.031447278200221</v>
+        <v>1.031653413217589</v>
       </c>
       <c r="L17">
-        <v>1.010718590251221</v>
+        <v>1.011323590938186</v>
       </c>
       <c r="M17">
-        <v>1.042367876279471</v>
+        <v>1.042521586347127</v>
       </c>
       <c r="N17">
-        <v>1.008779554526423</v>
+        <v>1.011385388939353</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043232573807957</v>
+        <v>1.043354081141648</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033386480582533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033548897177193</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020743109604937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9884121220640468</v>
+        <v>0.9890584200388902</v>
       </c>
       <c r="D18">
-        <v>1.018167424890589</v>
+        <v>1.018343452207062</v>
       </c>
       <c r="E18">
-        <v>0.9972752377623502</v>
+        <v>0.9978624366433899</v>
       </c>
       <c r="F18">
-        <v>1.028989130969404</v>
+        <v>1.029122775219234</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044571766514312</v>
+        <v>1.044681610386597</v>
       </c>
       <c r="J18">
-        <v>1.015920168297269</v>
+        <v>1.016541256560047</v>
       </c>
       <c r="K18">
-        <v>1.031679764174325</v>
+        <v>1.031852891580685</v>
       </c>
       <c r="L18">
-        <v>1.011141170489501</v>
+        <v>1.011718169506836</v>
       </c>
       <c r="M18">
-        <v>1.042325556895334</v>
+        <v>1.042457058337041</v>
       </c>
       <c r="N18">
-        <v>1.008872197133926</v>
+        <v>1.011413153409658</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042961885777175</v>
+        <v>1.043065858845553</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033539175980036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033677122765593</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020756549286832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9884393853566056</v>
+        <v>0.9891218132726338</v>
       </c>
       <c r="D19">
-        <v>1.018033974449485</v>
+        <v>1.018242963420976</v>
       </c>
       <c r="E19">
-        <v>0.9972437967354785</v>
+        <v>0.9978666945392605</v>
       </c>
       <c r="F19">
-        <v>1.028475175219384</v>
+        <v>1.028633336166703</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044425953606664</v>
+        <v>1.044556668930686</v>
       </c>
       <c r="J19">
-        <v>1.015809139267294</v>
+        <v>1.016465107768608</v>
       </c>
       <c r="K19">
-        <v>1.031485598706874</v>
+        <v>1.031691162127283</v>
       </c>
       <c r="L19">
-        <v>1.011045476142738</v>
+        <v>1.011657611738289</v>
       </c>
       <c r="M19">
-        <v>1.041757839934257</v>
+        <v>1.041913475327151</v>
       </c>
       <c r="N19">
-        <v>1.008774412010693</v>
+        <v>1.011340735445454</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042188146054656</v>
+        <v>1.042311240941742</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033408313524868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033569817157744</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020681658033109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9861582544657387</v>
+        <v>0.9870756002521612</v>
       </c>
       <c r="D20">
-        <v>1.016317886040876</v>
+        <v>1.016743998799512</v>
       </c>
       <c r="E20">
-        <v>0.9953511377424097</v>
+        <v>0.9961878978009265</v>
       </c>
       <c r="F20">
-        <v>1.02616526024813</v>
+        <v>1.026478826238736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043723927725051</v>
+        <v>1.043962464532655</v>
       </c>
       <c r="J20">
-        <v>1.014233380726464</v>
+        <v>1.015113990449213</v>
       </c>
       <c r="K20">
-        <v>1.030079747943517</v>
+        <v>1.030498679063493</v>
       </c>
       <c r="L20">
-        <v>1.009476227331012</v>
+        <v>1.010298111275762</v>
       </c>
       <c r="M20">
-        <v>1.039763116027046</v>
+        <v>1.040071526125197</v>
       </c>
       <c r="N20">
-        <v>1.008132312674841</v>
+        <v>1.010969011605408</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040083037933205</v>
+        <v>1.040327111891248</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032418258074372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032731016337155</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02035369310523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9805495364328062</v>
+        <v>0.9820078600710535</v>
       </c>
       <c r="D21">
-        <v>1.012740762864832</v>
+        <v>1.013642186057837</v>
       </c>
       <c r="E21">
-        <v>0.9909136910506214</v>
+        <v>0.9922355422626282</v>
       </c>
       <c r="F21">
-        <v>1.022686685794087</v>
+        <v>1.023338251791291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042602980822678</v>
+        <v>1.04306194171872</v>
       </c>
       <c r="J21">
-        <v>1.010883599784974</v>
+        <v>1.012277573143588</v>
       </c>
       <c r="K21">
-        <v>1.027484712109415</v>
+        <v>1.028369631690786</v>
       </c>
       <c r="L21">
-        <v>1.006069275604037</v>
+        <v>1.007365523039821</v>
       </c>
       <c r="M21">
-        <v>1.037250632310102</v>
+        <v>1.037890564715504</v>
       </c>
       <c r="N21">
-        <v>1.006945642837681</v>
+        <v>1.010605796900796</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038053763049784</v>
+        <v>1.038560228189541</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030586707481774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031229276929197</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019883499612254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9769598071781763</v>
+        <v>0.9787645572952719</v>
       </c>
       <c r="D22">
-        <v>1.010466077837112</v>
+        <v>1.011672264935568</v>
       </c>
       <c r="E22">
-        <v>0.9880845674332573</v>
+        <v>0.9897172759237057</v>
       </c>
       <c r="F22">
-        <v>1.020516838797302</v>
+        <v>1.021385778561809</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041884760143582</v>
+        <v>1.042485363618064</v>
       </c>
       <c r="J22">
-        <v>1.008745656722416</v>
+        <v>1.010465942045744</v>
       </c>
       <c r="K22">
-        <v>1.02583301237014</v>
+        <v>1.027015984889686</v>
       </c>
       <c r="L22">
-        <v>1.003895825513934</v>
+        <v>1.005495225342022</v>
       </c>
       <c r="M22">
-        <v>1.035692523222436</v>
+        <v>1.036545159230496</v>
       </c>
       <c r="N22">
-        <v>1.006189827874227</v>
+        <v>1.010367528657031</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036820618905447</v>
+        <v>1.037495426286192</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029405291264718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030257314388642</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01958421396876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9788560280998021</v>
+        <v>0.9804590203829248</v>
       </c>
       <c r="D23">
-        <v>1.011660753544765</v>
+        <v>1.012692400574474</v>
       </c>
       <c r="E23">
-        <v>0.9895759922928294</v>
+        <v>0.9910269475795335</v>
       </c>
       <c r="F23">
-        <v>1.021659560880159</v>
+        <v>1.022403831726269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042259959070803</v>
+        <v>1.042779021218381</v>
       </c>
       <c r="J23">
-        <v>1.009869752566491</v>
+        <v>1.011400008561888</v>
       </c>
       <c r="K23">
-        <v>1.026697149432669</v>
+        <v>1.027709455379259</v>
       </c>
       <c r="L23">
-        <v>1.005039144756549</v>
+        <v>1.006461295290438</v>
       </c>
       <c r="M23">
-        <v>1.036510643635344</v>
+        <v>1.037241309199919</v>
       </c>
       <c r="N23">
-        <v>1.006585091972573</v>
+        <v>1.010443774008505</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037468109391815</v>
+        <v>1.038046384407979</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030006584912597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030736997594368</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019734368678495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9861781592041009</v>
+        <v>0.9870990476129626</v>
       </c>
       <c r="D24">
-        <v>1.016298752631379</v>
+        <v>1.016727949558988</v>
       </c>
       <c r="E24">
-        <v>0.9953567260574128</v>
+        <v>0.9961971528118101</v>
       </c>
       <c r="F24">
-        <v>1.026099482365996</v>
+        <v>1.026415425176701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043698702015596</v>
+        <v>1.043939599745991</v>
       </c>
       <c r="J24">
-        <v>1.014218850890758</v>
+        <v>1.015102915650881</v>
       </c>
       <c r="K24">
-        <v>1.030045564463366</v>
+        <v>1.030467536731982</v>
       </c>
       <c r="L24">
-        <v>1.009465876427074</v>
+        <v>1.01029138145959</v>
       </c>
       <c r="M24">
-        <v>1.039683256702682</v>
+        <v>1.0399940103469</v>
       </c>
       <c r="N24">
-        <v>1.008117230704295</v>
+        <v>1.010954958993114</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039979026128747</v>
+        <v>1.040224966938619</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032366555843145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032678803708259</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020338922110442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.994353450131036</v>
+        <v>0.9947689395398437</v>
       </c>
       <c r="D25">
-        <v>1.02150360467205</v>
+        <v>1.021438014921795</v>
       </c>
       <c r="E25">
-        <v>1.0018452911495</v>
+        <v>1.002240635605389</v>
       </c>
       <c r="F25">
-        <v>1.031100762030688</v>
+        <v>1.031068011534595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045265500737733</v>
+        <v>1.045284344386353</v>
       </c>
       <c r="J25">
-        <v>1.019072349005853</v>
+        <v>1.019473641355227</v>
       </c>
       <c r="K25">
-        <v>1.033777030255853</v>
+        <v>1.033712405064074</v>
       </c>
       <c r="L25">
-        <v>1.014415028729546</v>
+        <v>1.014804267886141</v>
       </c>
       <c r="M25">
-        <v>1.043234727578596</v>
+        <v>1.043202447401864</v>
       </c>
       <c r="N25">
-        <v>1.009825119996794</v>
+        <v>1.012122865125215</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042789773769317</v>
+        <v>1.042764226254127</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035002036945744</v>
+        <v>1.034969912880944</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021059219595515</v>
       </c>
     </row>
   </sheetData>
